--- a/勉強メモ-2017-Z.xlsx
+++ b/勉強メモ-2017-Z.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7764" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="22451" windowHeight="9815" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="MD5" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="JSF1" sheetId="5" r:id="rId5"/>
     <sheet name="JSF-viewAction" sheetId="6" r:id="rId6"/>
     <sheet name="JavaEEアプリ起動時の初期化処理" sheetId="7" r:id="rId7"/>
+    <sheet name="クレジットカード" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310">
   <si>
     <t>windows 10 で MD5値計算</t>
   </si>
@@ -1965,6 +1966,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>JSF2.0の</t>
@@ -3361,6 +3363,30 @@
   </si>
   <si>
     <t>https://github.com/backpaper0/sandbox/tree/master/javaee-startup-sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国際ブランドによるインターチェンジ取引  </t>
+  </si>
+  <si>
+    <t>ローカル（国内）ブランド</t>
+  </si>
+  <si>
+    <t>ー　オンアス取引</t>
+  </si>
+  <si>
+    <t>MUFG(DC,  nicos,  UFJ)</t>
+  </si>
+  <si>
+    <t>クレディセゾン</t>
+  </si>
+  <si>
+    <t>イオンクレジット</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>オリコ</t>
   </si>
 </sst>
 </file>
@@ -3368,15 +3394,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="90">
+  <fonts count="92">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3400,25 +3449,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3611,14 +3645,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14.05"/>
       <color rgb="FF383838"/>
       <name val="游ゴシック"/>
@@ -3631,16 +3657,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3655,17 +3695,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3679,9 +3710,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3696,14 +3758,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3718,43 +3780,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3825,6 +3851,13 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3834,6 +3867,12 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3997,7 +4036,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4015,7 +4102,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4027,121 +4198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4153,25 +4210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4211,15 +4250,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4235,6 +4265,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4246,6 +4285,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4283,8 +4331,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4299,28 +4347,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4329,193 +4368,194 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9210,6 +9250,7733 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="「クレジットカード」の画像検索結果"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845820" y="731520"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>267335</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364480" y="2369820"/>
+          <a:ext cx="823595" cy="522605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2689860" y="739140"/>
+          <a:ext cx="1196340" cy="1287780"/>
+          <a:chOff x="4224" y="1152"/>
+          <a:chExt cx="1884" cy="2028"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4" descr="imagesP9A4WLZ2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4224" y="1152"/>
+            <a:ext cx="1872" cy="1653"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236" y="2832"/>
+            <a:ext cx="1872" cy="349"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>大手印刷会社　</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3878580" y="1264285"/>
+          <a:ext cx="1485900" cy="1367155"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>220345</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4236720" y="1714500"/>
+          <a:ext cx="776605" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>カード発行</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="man"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7254240" y="2232660"/>
+          <a:ext cx="480060" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>267335</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6188075" y="2631440"/>
+          <a:ext cx="1066165" cy="1270"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6309360" y="2522220"/>
+          <a:ext cx="776605" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>所持</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7494270" y="3032760"/>
+          <a:ext cx="0" cy="906780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>281305</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7117080" y="3436620"/>
+          <a:ext cx="776605" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>郵送</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>191135</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6957695" y="3939540"/>
+          <a:ext cx="1050290" cy="1104900"/>
+          <a:chOff x="10945" y="6192"/>
+          <a:chExt cx="1654" cy="1740"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Picture 13" descr="images2L21D62T"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11100" y="6192"/>
+            <a:ext cx="1379" cy="1488"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10945" y="7608"/>
+            <a:ext cx="1654" cy="324"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>再発行申込書</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>189230</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3329940" y="3528060"/>
+          <a:ext cx="1088390" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>カード発行発注</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="scanner"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="5539740"/>
+          <a:ext cx="1546860" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7479030" y="5044440"/>
+          <a:ext cx="3810" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Flowchart: Document 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6964680" y="6964680"/>
+          <a:ext cx="1028700" cy="572135"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>申込書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>img file</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7479030" y="6347460"/>
+          <a:ext cx="0" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>141605</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>183515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7472045" y="7498080"/>
+          <a:ext cx="6985" cy="784860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Group 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6949440" y="8282940"/>
+          <a:ext cx="1050290" cy="922020"/>
+          <a:chOff x="10932" y="13032"/>
+          <a:chExt cx="1654" cy="1452"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="Picture 24" descr="無題"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11196" y="13032"/>
+            <a:ext cx="1117" cy="1117"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Rectangle 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10932" y="14160"/>
+            <a:ext cx="1654" cy="324"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>入力</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Flowchart: Document 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320540" y="6979920"/>
+          <a:ext cx="1028700" cy="572135"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>申込書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>data file</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>42545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Elbow Connector 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="1"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4834890" y="7513955"/>
+          <a:ext cx="2282190" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Flowchart: Magnetic Disk 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2788920" y="6233160"/>
+          <a:ext cx="1112520" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Elbow Connector 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="31" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4160520" y="6305550"/>
+          <a:ext cx="415290" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Elbow Connector 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="1"/>
+          <a:endCxn id="31" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3901440" y="6564630"/>
+          <a:ext cx="3063240" cy="686435"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 24875"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7040880" y="7848600"/>
+          <a:ext cx="958850" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>パンチ発注</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364480" y="8336280"/>
+          <a:ext cx="958850" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>受け入れ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="imagesG9ZFB2CT"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2849880" y="4883785"/>
+          <a:ext cx="998220" cy="975995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="1"/>
+          <a:endCxn id="36" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3345180" y="5859780"/>
+          <a:ext cx="3810" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="5433060"/>
+          <a:ext cx="958850" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>再発行処理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226695</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="Group 40"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2781300" y="4853305"/>
+          <a:ext cx="1956435" cy="975360"/>
+          <a:chOff x="4500" y="7691"/>
+          <a:chExt cx="3081" cy="1536"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="39" name="Picture 38" descr="imagesG9ZFB2CT"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4500" y="7691"/>
+            <a:ext cx="1572" cy="1537"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rectangle 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6071" y="8554"/>
+            <a:ext cx="1510" cy="397"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>再発行処理</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3280410" y="2027555"/>
+          <a:ext cx="11430" cy="2825750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="Group 46"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="104140" y="10325100"/>
+          <a:ext cx="2052320" cy="3022600"/>
+          <a:chOff x="4856" y="16248"/>
+          <a:chExt cx="3232" cy="4760"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="45" name="Group 44"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4856" y="17100"/>
+            <a:ext cx="3232" cy="3908"/>
+            <a:chOff x="4856" y="17100"/>
+            <a:chExt cx="3232" cy="3908"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Picture 42" descr="dc1"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4872" y="17100"/>
+              <a:ext cx="3216" cy="2124"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="44" name="Picture 43" descr="dc2"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4856" y="18884"/>
+              <a:ext cx="3216" cy="2124"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Rectangle 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5172" y="16248"/>
+            <a:ext cx="2601" cy="780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>三菱銀行</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>ダイヤモンドクレジット </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>(DC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>218440</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="Group 49"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2087880" y="10340340"/>
+          <a:ext cx="4333240" cy="2019300"/>
+          <a:chOff x="8748" y="16284"/>
+          <a:chExt cx="6824" cy="3180"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Rectangle 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10224" y="16284"/>
+            <a:ext cx="3381" cy="780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>東海銀行</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>ミリオンカード </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>(MC </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>後の</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>UFJ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>カード</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="49" name="Picture 48" descr="mc2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8748" y="17148"/>
+            <a:ext cx="6824" cy="2316"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="Group 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6469380" y="10294620"/>
+          <a:ext cx="2316480" cy="2354580"/>
+          <a:chOff x="11952" y="16404"/>
+          <a:chExt cx="3648" cy="3708"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="Rectangle 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11976" y="16404"/>
+            <a:ext cx="3381" cy="780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>第一勧業銀行</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>ユニオンカード </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>(UC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="54" name="Group 53"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11952" y="17316"/>
+            <a:ext cx="3648" cy="2796"/>
+            <a:chOff x="12036" y="17460"/>
+            <a:chExt cx="3648" cy="2796"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="Picture 51" descr="uc"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12084" y="17460"/>
+              <a:ext cx="2052" cy="1296"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Picture 52" descr="uc2"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12036" y="18816"/>
+              <a:ext cx="3648" cy="1440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="58" name="Group 57"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8846820" y="10279380"/>
+          <a:ext cx="2146300" cy="1866900"/>
+          <a:chOff x="16608" y="16440"/>
+          <a:chExt cx="3380" cy="2940"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="56" name="Picture 55" descr="imagesYIGOO580"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId14"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16704" y="17136"/>
+            <a:ext cx="3240" cy="2244"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="Rectangle 56"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16608" y="16440"/>
+            <a:ext cx="3381" cy="780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>住友銀行</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>住友カード</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="Group 64"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11010265" y="9584690"/>
+          <a:ext cx="2313305" cy="2447290"/>
+          <a:chOff x="17975" y="15070"/>
+          <a:chExt cx="3643" cy="3854"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="Rectangle 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18192" y="16116"/>
+            <a:ext cx="3381" cy="780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>ジャパンクレジットビューロー</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>(JCB)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="Rectangle 59"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17975" y="15070"/>
+            <a:ext cx="1377" cy="383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>三和銀行</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="Rectangle 60"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20350" y="15095"/>
+            <a:ext cx="1269" cy="348"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>日本信販</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="62" name="Straight Connector 61"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="60" idx="3"/>
+            <a:endCxn id="61" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19352" y="15262"/>
+            <a:ext cx="998" cy="7"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="59" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="19883" y="15264"/>
+            <a:ext cx="1" cy="852"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="64" name="Picture 63" descr="jcb"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId15"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18336" y="17052"/>
+            <a:ext cx="2988" cy="1872"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>280670</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="68" name="Group 67"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9471660" y="13837920"/>
+          <a:ext cx="958850" cy="579120"/>
+          <a:chOff x="15108" y="20832"/>
+          <a:chExt cx="1510" cy="912"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="66" name="Picture 65" descr="visa-brand"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId16"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15228" y="20832"/>
+            <a:ext cx="1236" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="Rectangle 66"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15108" y="21348"/>
+            <a:ext cx="1510" cy="396"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>国際</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>brand  US</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9936480" y="12146280"/>
+          <a:ext cx="3810" cy="1691640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>181610</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="Group 77"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3733800" y="13822680"/>
+          <a:ext cx="958850" cy="678180"/>
+          <a:chOff x="5868" y="21756"/>
+          <a:chExt cx="1510" cy="1068"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="70" name="Picture 69" descr="mastercard-brand"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId17"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6144" y="21756"/>
+            <a:ext cx="1104" cy="684"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="Rectangle 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5868" y="22428"/>
+            <a:ext cx="1510" cy="396"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>国際</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>brand  US</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Elbow Connector 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="2454910" y="12018010"/>
+          <a:ext cx="474980" cy="3134360"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Connector 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4254500" y="12359640"/>
+          <a:ext cx="5080" cy="1463040"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5356860" y="11551920"/>
+          <a:ext cx="1173480" cy="3368040"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 79870"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="2"/>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12188190" y="12031980"/>
+          <a:ext cx="3810" cy="1783080"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>90170</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="Group 78"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11582400" y="13815060"/>
+          <a:ext cx="1195070" cy="655320"/>
+          <a:chOff x="18228" y="21744"/>
+          <a:chExt cx="1882" cy="1032"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="75" name="Picture 74" descr="jcb-brand"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId18"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18696" y="21744"/>
+            <a:ext cx="984" cy="720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="Rectangle 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18228" y="22380"/>
+            <a:ext cx="1882" cy="396"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>国際</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>brand  JP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>初</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="82" name="Group 81"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13495020" y="13822680"/>
+          <a:ext cx="1195070" cy="678180"/>
+          <a:chOff x="21240" y="21756"/>
+          <a:chExt cx="1882" cy="1068"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="80" name="Picture 79" descr="americanexpress-brand"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId19"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21804" y="21756"/>
+            <a:ext cx="816" cy="720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="Rectangle 80"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21240" y="22428"/>
+            <a:ext cx="1882" cy="396"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>国際</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>brand  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>US</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>166370</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="Group 84"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15041880" y="13601700"/>
+          <a:ext cx="1195070" cy="883920"/>
+          <a:chOff x="23676" y="21492"/>
+          <a:chExt cx="1882" cy="1392"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="83" name="Picture 82" descr="DinersClub-300x220"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId20"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23988" y="21492"/>
+            <a:ext cx="1340" cy="983"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="Rectangle 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23676" y="22488"/>
+            <a:ext cx="1882" cy="396"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>国際</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>brand  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>US</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>181610</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="88" name="Group 87"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16748760" y="13464540"/>
+          <a:ext cx="1195070" cy="967740"/>
+          <a:chOff x="26364" y="21192"/>
+          <a:chExt cx="1882" cy="1524"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="86" name="Picture 85" descr="union_pay-_300"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId21"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="26412" y="21192"/>
+            <a:ext cx="1790" cy="1127"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="Rectangle 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="26364" y="22320"/>
+            <a:ext cx="1882" cy="396"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>国際</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>brand  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>CN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>74930</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="91" name="Group 90"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18333720" y="13586460"/>
+          <a:ext cx="1195070" cy="807720"/>
+          <a:chOff x="28860" y="21384"/>
+          <a:chExt cx="1882" cy="1272"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="89" name="Picture 88" descr="discover"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId22"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="29136" y="21384"/>
+            <a:ext cx="1394" cy="892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="Rectangle 89"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="28860" y="22260"/>
+            <a:ext cx="1882" cy="396"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>国際</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>brand  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>US</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>108585</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91" descr="kokusaiteke"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678180" y="15337155"/>
+          <a:ext cx="5069205" cy="7825740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43180</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3596640" y="17689830"/>
+          <a:ext cx="957580" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3797935" y="21596350"/>
+          <a:ext cx="716280" cy="455295"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1878330" y="17332325"/>
+          <a:ext cx="227965" cy="1654810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168910</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1860550" y="20369530"/>
+          <a:ext cx="263525" cy="1490345"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73660</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rectangle 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175000" y="18006060"/>
+          <a:ext cx="1340485" cy="459740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>年会費</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>分割払い手数料</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rectangle 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3749040" y="21774785"/>
+          <a:ext cx="1340485" cy="459740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>加盟店手数料</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>227965</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rectangle 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="791845" y="18033365"/>
+          <a:ext cx="1340485" cy="459740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ブランドフィー</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ライセンスフィー</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>86995</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Rectangle 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="720090" y="21306790"/>
+          <a:ext cx="1340485" cy="459740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ブランドフィー</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ライセンスフィー</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280670</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247015</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Rectangle 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2818130" y="20104735"/>
+          <a:ext cx="1657985" cy="459740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>インターチェンジフィー</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>231140</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>65405</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101" descr="nicos"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="513080" y="24263350"/>
+          <a:ext cx="1807845" cy="1143635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102" descr="ufj"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="25488900"/>
+          <a:ext cx="2074545" cy="1377950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>159385</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100330</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103" descr="saison"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696845" y="24290655"/>
+          <a:ext cx="1632585" cy="1020445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>159385</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121285</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104" descr="saison2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696845" y="25533350"/>
+          <a:ext cx="1653540" cy="1047115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>52070</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105" descr="aeon"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4561840" y="24290655"/>
+          <a:ext cx="1692910" cy="1072515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106" descr="orico"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8052435" y="24290655"/>
+          <a:ext cx="1548765" cy="981710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>265430</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107" descr="onus"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7031990" y="15281275"/>
+          <a:ext cx="6333490" cy="7885430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Straight Arrow Connector 108"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9319895" y="18540730"/>
+          <a:ext cx="1042670" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rectangle 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9044305" y="19045555"/>
+          <a:ext cx="1340485" cy="459740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>年会費</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>分割払い手数料</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Straight Arrow Connector 110"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8327390" y="18812510"/>
+          <a:ext cx="0" cy="2177415"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>140335</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="Rectangle 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6976110" y="19812635"/>
+          <a:ext cx="1340485" cy="459740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>加盟店手数料</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9508,7 +17275,7 @@
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9518,16 +17285,16 @@
       </c>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
@@ -9535,7 +17302,7 @@
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9555,7 +17322,7 @@
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9565,7 +17332,7 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9630,7 +17397,7 @@
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9672,12 +17439,12 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="18.6" spans="10:10">
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9701,7 +17468,7 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9832,7 +17599,7 @@
       </c>
     </row>
     <row r="27" spans="11:11">
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -9842,22 +17609,22 @@
       </c>
     </row>
     <row r="29" ht="18.6" spans="10:10">
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31" ht="18.6" spans="10:10">
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="39" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" ht="18.6" spans="10:10">
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="39" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" ht="18.6" spans="10:10">
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="39" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9912,7 +17679,7 @@
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -9987,7 +17754,7 @@
       </c>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>81</v>
       </c>
     </row>
@@ -9997,32 +17764,32 @@
       </c>
     </row>
     <row r="67" ht="18.6" spans="2:2">
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" ht="18.6" spans="2:2">
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="39" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="70" ht="18.6" spans="2:2">
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="39" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="71" ht="18.6" spans="2:2">
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="39" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -10082,17 +17849,17 @@
       </c>
     </row>
     <row r="88" ht="18.6" spans="2:2">
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="91" ht="28.8" spans="2:2">
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="40" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" ht="18.6" spans="2:2">
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="39" t="s">
         <v>96</v>
       </c>
     </row>
@@ -10132,17 +17899,17 @@
       </c>
     </row>
     <row r="104" ht="18.6" spans="2:2">
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="39" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="21" t="s">
         <v>105</v>
       </c>
     </row>
@@ -10162,7 +17929,7 @@
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="21" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10287,7 +18054,7 @@
       </c>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="21" t="s">
         <v>114</v>
       </c>
     </row>
@@ -10402,27 +18169,27 @@
       </c>
     </row>
     <row r="170" ht="18.6" spans="2:2">
-      <c r="B170" s="38" t="s">
+      <c r="B170" s="39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="172" ht="18.6" spans="2:2">
-      <c r="B172" s="38" t="s">
+      <c r="B172" s="39" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="20" t="s">
+      <c r="B175" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="20" t="s">
+      <c r="C177" s="21" t="s">
         <v>123</v>
       </c>
     </row>
@@ -10432,7 +18199,7 @@
       </c>
     </row>
     <row r="179" spans="4:4">
-      <c r="D179" s="20" t="s">
+      <c r="D179" s="21" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10477,12 +18244,12 @@
       </c>
     </row>
     <row r="189" ht="18.6" spans="2:2">
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="20" t="s">
+      <c r="B191" s="21" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10492,32 +18259,32 @@
       </c>
     </row>
     <row r="194" ht="18.6" spans="2:2">
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="196" ht="22.2" spans="2:2">
-      <c r="B196" s="41" t="s">
+      <c r="B196" s="42" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="198" ht="18.6" spans="2:2">
-      <c r="B198" s="42" t="s">
+      <c r="B198" s="43" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="199" ht="18.6" spans="2:2">
-      <c r="B199" s="42" t="s">
+      <c r="B199" s="43" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="200" ht="18.6" spans="2:2">
-      <c r="B200" s="42" t="s">
+      <c r="B200" s="43" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="201" ht="18.6" spans="2:2">
-      <c r="B201" s="42" t="s">
+      <c r="B201" s="43" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10542,202 +18309,202 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" ht="15" spans="2:2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="2:2">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:2">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="2:2">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" ht="15" spans="2:2">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="24" ht="15" spans="2:2">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="36" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="25" ht="15" spans="2:2">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="36" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" ht="15" spans="2:2">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="31" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:2">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="33" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="31" ht="15" spans="2:2">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="31" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" ht="15" spans="2:2">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="36" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" ht="15" spans="2:2">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="35" ht="15" spans="2:2">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="36" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" ht="15" spans="2:2">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="35" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="37" ht="15" spans="2:2">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="38" ht="15" spans="2:2">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="37" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="40" ht="15" spans="2:2">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="42" ht="15" spans="2:2">
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="33" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="44" ht="16.8" spans="2:2">
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="34" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" ht="15" spans="2:2">
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="36" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="47" ht="15" spans="2:2">
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="36" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="48" ht="15" spans="2:2">
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="36" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="50" ht="16.8" spans="2:2">
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="31" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="52" ht="15" spans="2:2">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="33" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="54" ht="15" spans="2:2">
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="34" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="56" ht="15" spans="2:2">
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" ht="15" spans="2:2">
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="36" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="58" ht="15" spans="2:2">
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="35" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="59" ht="15" spans="2:2">
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="36" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="61" ht="16.8" spans="2:2">
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="31" t="s">
         <v>175</v>
       </c>
     </row>
@@ -10792,17 +18559,17 @@
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>180</v>
       </c>
     </row>
@@ -10817,7 +18584,7 @@
       </c>
     </row>
     <row r="17" ht="18" spans="2:2">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>183</v>
       </c>
     </row>
@@ -10853,12 +18620,12 @@
     </row>
     <row r="30" customHeight="1"/>
     <row r="31" spans="2:2">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="27"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
@@ -10884,14 +18651,14 @@
   <sheetPr/>
   <dimension ref="S2:AB636"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="19:19">
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -10904,7 +18671,7 @@
       </c>
     </row>
     <row r="5" spans="19:19">
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -10917,7 +18684,7 @@
       </c>
     </row>
     <row r="12" spans="19:19">
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="21" t="s">
         <v>198</v>
       </c>
     </row>
@@ -10927,13 +18694,13 @@
       </c>
     </row>
     <row r="18" spans="19:19">
-      <c r="S18" s="21"/>
+      <c r="S18" s="22"/>
     </row>
     <row r="20" spans="19:19">
-      <c r="S20" s="21"/>
+      <c r="S20" s="22"/>
     </row>
     <row r="21" spans="19:19">
-      <c r="S21" s="21"/>
+      <c r="S21" s="22"/>
     </row>
     <row r="91" spans="28:28">
       <c r="AB91" t="s">
@@ -10944,7 +18711,7 @@
       <c r="Z633" t="s">
         <v>201</v>
       </c>
-      <c r="AA633" s="22" t="s">
+      <c r="AA633" s="23" t="s">
         <v>202</v>
       </c>
       <c r="AB633" t="s">
@@ -10957,8 +18724,8 @@
       </c>
     </row>
     <row r="635" spans="26:28">
-      <c r="Z635" s="22"/>
-      <c r="AA635" s="22" t="s">
+      <c r="Z635" s="23"/>
+      <c r="AA635" s="23" t="s">
         <v>205</v>
       </c>
       <c r="AB635" t="s">
@@ -10966,8 +18733,8 @@
       </c>
     </row>
     <row r="636" spans="26:27">
-      <c r="Z636" s="22"/>
-      <c r="AA636" s="22" t="s">
+      <c r="Z636" s="23"/>
+      <c r="AA636" s="23" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10995,7 +18762,7 @@
       </c>
     </row>
     <row r="2" ht="31.2" spans="2:2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11003,12 +18770,12 @@
       <c r="B4" t="s">
         <v>210</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>212</v>
       </c>
     </row>
@@ -11028,72 +18795,72 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11103,93 +18870,93 @@
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="19" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="19" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="19" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="19" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="20" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="19" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="19" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="19" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="19" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>246</v>
       </c>
     </row>
@@ -11219,17 +18986,17 @@
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="19" t="s">
         <v>254</v>
       </c>
     </row>
@@ -11259,7 +19026,7 @@
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="19" t="s">
         <v>260</v>
       </c>
     </row>
@@ -11289,17 +19056,17 @@
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="19" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11370,153 +19137,153 @@
   <sheetPr/>
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" ht="35.4" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" ht="15" spans="2:2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="4" ht="15" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="2:2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="2:2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:18">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" ht="15" spans="2:2">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="2:2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="2:2">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="2:2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="2:2">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:2">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="30" ht="15" spans="2:2">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>301</v>
       </c>
     </row>
@@ -11527,4 +19294,58 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C81:BO132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.11111111111111" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="4.11111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="81" spans="67:67">
+      <c r="BO81" s="2"/>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="3:11">
+      <c r="C130" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="4:31">
+      <c r="D132" t="s">
+        <v>305</v>
+      </c>
+      <c r="L132" t="s">
+        <v>306</v>
+      </c>
+      <c r="R132" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/勉強メモ-2017-Z.xlsx
+++ b/勉強メモ-2017-Z.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JDR_PRJ\github\CNStud-Proj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9815" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="9810" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MD5" sheetId="1" r:id="rId1"/>
     <sheet name="Enum" sheetId="2" r:id="rId2"/>
     <sheet name=".Net FW" sheetId="3" r:id="rId3"/>
     <sheet name="remote debug" sheetId="4" r:id="rId4"/>
-    <sheet name="JSF1" sheetId="5" r:id="rId5"/>
-    <sheet name="JSF-viewAction" sheetId="6" r:id="rId6"/>
-    <sheet name="JavaEEアプリ起動時の初期化処理" sheetId="7" r:id="rId7"/>
-    <sheet name="クレジットカード" sheetId="8" r:id="rId8"/>
+    <sheet name="JSF紹介" sheetId="9" r:id="rId5"/>
+    <sheet name="JSF-FacesContext" sheetId="5" r:id="rId6"/>
+    <sheet name="JSF-viewAction" sheetId="6" r:id="rId7"/>
+    <sheet name="JavaEEアプリ起動時の初期化処理" sheetId="7" r:id="rId8"/>
+    <sheet name="クレジットカード" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="322">
   <si>
     <t>windows 10 で MD5値計算</t>
   </si>
@@ -55,7 +62,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>certutil.exe</t>
     </r>
@@ -73,7 +80,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-hashfile</t>
     </r>
@@ -92,7 +99,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>MD5</t>
     </r>
@@ -133,7 +140,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-?</t>
     </r>
@@ -157,7 +164,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CertUtil [オプション] -hashfile InFile [HashAlgorithm]</t>
     </r>
@@ -214,7 +221,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>MD2 MD4 MD5 SHA1 SHA256 SHA384 SHA512</t>
     </r>
@@ -255,7 +262,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>MARC</t>
     </r>
@@ -273,7 +280,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"酒井龍一"</t>
     </r>
@@ -374,7 +381,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ordinal()</t>
     </r>
@@ -392,7 +399,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>name()</t>
     </r>
@@ -415,7 +422,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>[</t>
     </r>
@@ -424,7 +432,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>0</t>
     </r>
@@ -433,7 +442,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>]</t>
     </r>
@@ -442,7 +452,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>MARC</t>
     </r>
@@ -451,7 +462,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>,酒井龍一</t>
     </r>
@@ -492,7 +504,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>label</t>
     </r>
@@ -510,7 +522,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>value</t>
     </r>
@@ -554,7 +566,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ordinal()</t>
     </r>
@@ -572,7 +584,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>name()</t>
     </r>
@@ -616,7 +628,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>value</t>
     </r>
@@ -696,7 +708,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CodeEnum</t>
     </r>
@@ -734,7 +746,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Globe</t>
     </r>
@@ -775,7 +787,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>TmNetwork</t>
     </r>
@@ -825,7 +837,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CodeUtil</t>
     </r>
@@ -854,7 +866,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>E extends CodeEnumIF</t>
     </r>
@@ -890,7 +902,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Class&lt;E&gt;</t>
     </r>
@@ -919,7 +931,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>E</t>
     </r>
@@ -945,7 +957,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>ここでは、型に依存せず汎用的に利用できるメソッドにするために、「</t>
     </r>
@@ -955,7 +968,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>ジェネリクス</t>
     </r>
@@ -964,7 +978,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>」という機能を使っています。</t>
     </r>
@@ -984,7 +999,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CodeUtil</t>
     </r>
@@ -1031,7 +1046,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>enumを定義すると自動的に</t>
     </r>
@@ -1041,7 +1057,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>「java.lang.Enum&lt;E&gt;」を継承</t>
     </r>
@@ -1050,7 +1067,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>する</t>
     </r>
@@ -1061,7 +1079,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>ordinalは要素を追加すると値が変わるので</t>
     </r>
@@ -1071,7 +1090,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>コード値を定義</t>
     </r>
@@ -1080,7 +1100,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>した方がよい</t>
     </r>
@@ -1091,7 +1112,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>extendsは出来ないけれど</t>
     </r>
@@ -1101,7 +1123,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>implementsは出来る</t>
     </r>
@@ -1112,7 +1135,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>インタフェースを用意して</t>
     </r>
@@ -1122,7 +1146,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>ジェネリクスを使用することで汎用化</t>
     </r>
@@ -1131,7 +1156,8 @@
         <sz val="12"/>
         <color rgb="FF383838"/>
         <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>できる</t>
     </r>
@@ -1145,7 +1171,7 @@
         <sz val="11.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>もともと「WinFX」という名称で提供される予定だったが、提供の5か月前の2006年6月に現在の名称に変更された</t>
     </r>
@@ -1221,7 +1247,7 @@
         <sz val="11.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">.NET Framework </t>
     </r>
@@ -1242,7 +1268,7 @@
         <sz val="11.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Windows 7に標準搭載</t>
     </r>
@@ -1308,7 +1334,7 @@
         <sz val="11.35"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>C#</t>
     </r>
@@ -1350,7 +1376,7 @@
         <sz val="11.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.NET Framework</t>
     </r>
@@ -1380,7 +1406,7 @@
         <sz val="11.35"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Managed Extensibility Framework</t>
     </r>
@@ -1427,7 +1453,7 @@
         <sz val="11.35"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Parallel Extensions</t>
     </r>
@@ -1459,7 +1485,7 @@
         <sz val="11.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NUI</t>
     </r>
@@ -1492,7 +1518,7 @@
         <sz val="11.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.NET Framework</t>
     </r>
@@ -1513,7 +1539,7 @@
         <sz val="11.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Windows 8</t>
     </r>
@@ -1598,7 +1624,7 @@
         <sz val="11.35"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>マイナーバージョンとして、4.5.1および4.5.2が存在する</t>
     </r>
@@ -1648,7 +1674,7 @@
         <sz val="11.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">.NET Framework </t>
     </r>
@@ -1669,7 +1695,7 @@
         <sz val="11.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Windows 10に標準搭載</t>
     </r>
@@ -1737,7 +1763,7 @@
         <sz val="11.35"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>マイナーバージョンとして、4.6.1が2015年11月30日にリリースされた</t>
     </r>
@@ -1976,7 +2002,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>エラーハンドリング</t>
     </r>
@@ -2018,7 +2044,7 @@
         <sz val="24"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>JSF 2.2ではf:eventのpreRenderViewではなく</t>
     </r>
@@ -2055,7 +2081,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>JSF</t>
     </r>
@@ -2064,7 +2090,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2.2でf:viewAction</t>
     </r>
@@ -2219,7 +2245,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>f:viewActionでは初期表示時に１回しか動作しないようになっています</t>
     </r>
@@ -2242,7 +2268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">&lt;f:viewAction action="#{viewAction.init()}" </t>
     </r>
@@ -2251,7 +2277,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>onPostback="true"</t>
     </r>
@@ -2260,7 +2286,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>/&gt;</t>
     </r>
@@ -2343,7 +2369,7 @@
         <sz val="10.5"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>HttpServlet.init</t>
     </r>
@@ -2352,7 +2378,7 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2361,7 +2387,8 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>をオーバーライドする</t>
     </r>
@@ -2370,7 +2397,7 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(Servlet)</t>
     </r>
@@ -2381,7 +2408,7 @@
         <sz val="10.5"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ServletContainerInitializer</t>
     </r>
@@ -2390,7 +2417,7 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> の実装クラスを作る(Servlet)</t>
     </r>
@@ -2401,7 +2428,7 @@
         <sz val="10.5"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Singleton</t>
     </r>
@@ -2410,7 +2437,7 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> セッションビーンに </t>
     </r>
@@ -2419,7 +2446,7 @@
         <sz val="10.5"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>@Startup</t>
     </r>
@@ -2428,7 +2455,7 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> を付けて </t>
     </r>
@@ -2437,7 +2464,7 @@
         <sz val="10.5"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>@PostConstructed</t>
     </r>
@@ -2446,7 +2473,7 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> を付けたメソッドを定義する(EJB)</t>
     </r>
@@ -2457,7 +2484,7 @@
         <sz val="10.5"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Extension</t>
     </r>
@@ -2466,7 +2493,7 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> の実装クラスを作ってライフサイクルイベントをハンドリングするオブザーバーメソッドを作る(CDI)</t>
     </r>
@@ -2480,7 +2507,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>@ApplicationScoped</t>
     </r>
@@ -2489,7 +2516,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2498,7 +2525,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>な</t>
     </r>
@@ -2507,7 +2535,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CDI</t>
     </r>
@@ -2525,7 +2553,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>ビーンを</t>
     </r>
@@ -2543,7 +2572,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>って</t>
     </r>
@@ -2552,7 +2582,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2561,7 +2591,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>@Initialized(ApplicationScoped.class)</t>
     </r>
@@ -2570,7 +2600,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2579,7 +2609,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>なイベントをハンドリングする</t>
     </r>
@@ -2588,7 +2619,8 @@
         <b/>
         <sz val="12"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>オブザーバーメソッド</t>
     </r>
@@ -2597,7 +2629,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>を</t>
     </r>
@@ -2615,7 +2648,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>る</t>
     </r>
@@ -2624,7 +2658,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(CDI)</t>
     </r>
@@ -2638,7 +2672,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>で</t>
     </r>
@@ -2656,7 +2691,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>には</t>
     </r>
@@ -2667,7 +2703,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Servlet API</t>
     </r>
@@ -2676,7 +2712,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>を</t>
     </r>
@@ -2694,7 +2731,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>うのは</t>
     </r>
@@ -2712,7 +2750,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>な</t>
     </r>
@@ -2730,7 +2769,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>り</t>
     </r>
@@ -2748,7 +2788,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>けたい</t>
     </r>
@@ -2759,7 +2800,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>EJB</t>
     </r>
@@ -2768,7 +2809,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>は</t>
     </r>
@@ -2786,7 +2828,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>わない</t>
     </r>
@@ -2809,7 +2852,8 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>に</t>
     </r>
@@ -2818,7 +2862,7 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2827,7 +2871,7 @@
         <sz val="10.5"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Extension</t>
     </r>
@@ -2836,7 +2880,7 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2845,7 +2889,8 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>を</t>
     </r>
@@ -2863,7 +2908,8 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>うのはなんか</t>
     </r>
@@ -2881,7 +2927,8 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>う</t>
     </r>
@@ -2899,7 +2946,8 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>じがしますし</t>
     </r>
@@ -2917,7 +2965,7 @@
         <sz val="12"/>
         <color rgb="FF343434"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2926,7 +2974,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>@Initialized(ApplicationScoped.class)</t>
     </r>
@@ -2935,7 +2983,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2944,7 +2992,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>を</t>
     </r>
@@ -2962,7 +3011,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>った</t>
     </r>
@@ -2980,7 +3030,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>が</t>
     </r>
@@ -2998,7 +3049,8 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>みです</t>
     </r>
@@ -3021,7 +3073,7 @@
         <sz val="9.75"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>import</t>
     </r>
@@ -3030,7 +3082,7 @@
         <sz val="9.75"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3039,7 +3091,7 @@
         <sz val="9.75"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>javax.enterprise.context.ApplicationScoped</t>
     </r>
@@ -3048,7 +3100,7 @@
         <sz val="9.75"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3059,7 +3111,7 @@
         <sz val="9.75"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>import</t>
     </r>
@@ -3068,7 +3120,7 @@
         <sz val="9.75"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3077,7 +3129,7 @@
         <sz val="9.75"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>javax.enterprise.context.Initialized</t>
     </r>
@@ -3086,7 +3138,7 @@
         <sz val="9.75"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3097,7 +3149,7 @@
         <sz val="9.75"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>import</t>
     </r>
@@ -3106,7 +3158,7 @@
         <sz val="9.75"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3115,7 +3167,7 @@
         <sz val="9.75"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>javax.enterprise.event.Observes</t>
     </r>
@@ -3124,7 +3176,7 @@
         <sz val="9.75"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3138,7 +3190,7 @@
         <sz val="9.75"/>
         <color rgb="FF268BD2"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>public</t>
     </r>
@@ -3147,7 +3199,7 @@
         <sz val="9.75"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3156,7 +3208,7 @@
         <sz val="9.75"/>
         <color rgb="FF268BD2"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>class</t>
     </r>
@@ -3165,7 +3217,7 @@
         <sz val="9.75"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3174,7 +3226,7 @@
         <sz val="9.75"/>
         <color rgb="FF268BD2"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Hoge</t>
     </r>
@@ -3183,7 +3235,7 @@
         <sz val="9.75"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3192,7 +3244,7 @@
         <sz val="9.75"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>{</t>
     </r>
@@ -3203,7 +3255,7 @@
         <sz val="10"/>
         <color rgb="FF268BD2"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">    public</t>
     </r>
@@ -3212,7 +3264,7 @@
         <sz val="10"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3221,7 +3273,7 @@
         <sz val="10"/>
         <color rgb="FFDC322F"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>void</t>
     </r>
@@ -3230,7 +3282,7 @@
         <sz val="10"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3239,7 +3291,7 @@
         <sz val="10"/>
         <color rgb="FF268BD2"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>handle</t>
     </r>
@@ -3248,7 +3300,7 @@
         <sz val="10"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3258,7 +3310,7 @@
         <sz val="10"/>
         <color rgb="FF268BD2"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>@Observes</t>
     </r>
@@ -3267,7 +3319,7 @@
         <sz val="10"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3277,7 +3329,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>@Initialized(ApplicationScoped.class)</t>
     </r>
@@ -3286,7 +3338,7 @@
         <sz val="10"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> Object event</t>
     </r>
@@ -3295,7 +3347,7 @@
         <sz val="10"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3304,7 +3356,7 @@
         <sz val="10"/>
         <color rgb="FF93A1A1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3313,7 +3365,7 @@
         <sz val="10"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>{</t>
     </r>
@@ -3324,7 +3376,7 @@
         <sz val="9.75"/>
         <color rgb="FF586E75"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -3333,7 +3385,7 @@
         <sz val="9.75"/>
         <color rgb="FF586E75"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>//ここに起動時にしたい処理を書く</t>
     </r>
@@ -3344,7 +3396,7 @@
         <sz val="9.75"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -3353,7 +3405,7 @@
         <sz val="9.75"/>
         <color rgb="FF859900"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>}</t>
     </r>
@@ -3387,23 +3439,172 @@
   </si>
   <si>
     <t>オリコ</t>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>独自FWはもういらない。JSFはJAVA EEの標準Webアプリケーション・フレームワーク。</t>
+    <rPh sb="0" eb="2">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ava EE 5から導入。</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>Webアプリケーション開発のための標準フレームワーク。</t>
+    <rPh sb="11" eb="13">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>従来のWebアプリケーション：　HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> request/ HTTP response送受信を軸に設計された。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ソウジュシン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>JSF:　画面ベース。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>Webページを構成する部品や機能の単位でコンポーネントが図られており、コンポーネントを組み合わせてWebページを構成する点や、</t>
+    <rPh sb="7" eb="9">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>Web　APP開発者とWeb　デザイナーが協業しやすいように配慮されている点</t>
+    <rPh sb="7" eb="10">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョウギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハイリョ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>ポイント：</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>JSFによるWebアプリケーション開発では、Expression Language（JSFタグ内に処理を記述するための式言語）や</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>Managed Bean、CDI、Facelets、Java Persistence API（JPA）、EJB（JPAとEJBはデータの永続化処理に利用）といったさまざまな技術を使うが、これらの技術の詳細を学ぶ前</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>まず、始めに Web ページ作成者の役割を持つ方が、どのようにして JSF の Web ページを作成していくかについて紹介します。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-  </numFmts>
-  <fonts count="92">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="77">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3411,60 +3612,61 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28.85"/>
       <color rgb="FF343434"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF343434"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF343434"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3476,327 +3678,196 @@
       <sz val="9.75"/>
       <color rgb="FF859900"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF268BD2"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF268BD2"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF586E75"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3498DB"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF3B3835"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14.05"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11.5"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.35"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.35"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.5"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF383838"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF383838"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="14.05"/>
       <color rgb="FF383838"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF343434"/>
       <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3808,52 +3879,53 @@
       <b/>
       <sz val="12"/>
       <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF93A1A1"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF93A1A1"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFDC322F"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF859900"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF268BD2"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3873,13 +3945,13 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3897,7 +3969,7 @@
       <sz val="11.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -3923,7 +3995,7 @@
       <sz val="11.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3936,13 +4008,13 @@
       <sz val="11.5"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11.35"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11.35"/>
@@ -3960,7 +4032,7 @@
       <sz val="11.35"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.25"/>
@@ -3991,7 +4063,8 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4004,218 +4077,55 @@
       <sz val="12"/>
       <color rgb="FF383838"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4249,253 +4159,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4533,8 +4204,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4550,7 +4219,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4559,64 +4228,30 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4638,7 +4273,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:link="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4680,7 +4315,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:link="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4722,7 +4357,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4747,7 +4382,580 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="https://builder.japan.zdnet.com/storage/2013/12/02/dc789a9a94df388e7c9ecd84c92be9a8/image6.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="581025" y="2590800"/>
+          <a:ext cx="8934450" cy="6700838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>118396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2" descr="https://i1.wp.com/farm9.staticflickr.com/8037/7919193974_701cba262b.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552449" y="10591800"/>
+          <a:ext cx="9667875" cy="5433346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>161220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="https://i2.wp.com/farm9.staticflickr.com/8451/7919194104_3a28fe160d.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552449" y="16249650"/>
+          <a:ext cx="9744075" cy="5476170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>229989</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="https://i0.wp.com/farm9.staticflickr.com/8299/7919194226_60bc8fd981.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552449" y="21907500"/>
+          <a:ext cx="9897865" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>60505</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="https://i0.wp.com/farm9.staticflickr.com/8029/7919194344_311ab2df87.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552449" y="27736800"/>
+          <a:ext cx="9728381" cy="5467350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>11335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6" descr="https://i0.wp.com/farm9.staticflickr.com/8451/7919194444_a5d65e35a9.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552449" y="33394650"/>
+          <a:ext cx="9477375" cy="5326285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>36118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7" descr="https://i1.wp.com/farm9.staticflickr.com/8444/7919194616_bffc083a6c.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552450" y="39052499"/>
+          <a:ext cx="9791700" cy="5522519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>84468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8" descr="https://i0.wp.com/farm9.staticflickr.com/8321/7919194740_2a3cf25e3e.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552449" y="45224700"/>
+          <a:ext cx="9877425" cy="5570868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="50882550"/>
+          <a:ext cx="9915525" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ご存知の通り、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Web </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ページは </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>HTML </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>で提供されているコンポーネントを組み合わせて </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Web </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ページを作成していきます。一般的によく</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ある会員登録ページでは、テキストフィールド、ラジオボタン、コンボボックス、ボタン等といったコンポーネントから </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Web </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ページを構</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>成し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>CSS </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>や </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>JavaScript </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>をこのページに対して適用しながら、デザインや振る舞いなどを洗練していきます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4761,7 +4969,7 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>97790</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Rectangle 3"/>
         <xdr:cNvSpPr/>
@@ -4791,6 +4999,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -4801,7 +5010,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>JSF勉強メモCommentsAdd Star</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4813,7 +5021,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Java, プログラム</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4825,7 +5032,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>JSFを勉強していて気になった</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4837,7 +5043,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>一つのManagedBeanから他のManagedBeanへのアクセスなどのメモ。</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4849,7 +5054,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>FacesContextでリクエスト情報、</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4861,7 +5065,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>ExternalContextでサーブレット環境へアクセスできる。</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4873,7 +5076,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>//セッションからBeanを取得</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4881,7 +5083,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		FacesContext context = FacesContext.getCurrentInstance();</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4889,7 +5090,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		ExternalContext exContext = context.getExternalContext();</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4897,7 +5097,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		HttpServletRequest req = (HttpServletRequest) exContext.getRequest();</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4905,7 +5104,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		HttpSession se = req.getSession(false);</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4913,7 +5111,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		HogeBean bean = (HogeBean)se.getAttribute("HogeBean");</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4925,7 +5122,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>//リクエストからBeanを取得</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4933,7 +5129,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		FacesContext context = FacesContext.getCurrentInstance();</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4941,7 +5136,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		ExternalContext exContext = context.getExternalContext();</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4949,7 +5143,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		HttpServletRequest req = (HttpServletRequest) exContext.getRequest();</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4957,7 +5150,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		FooBean bean = (FooBean)req.getAttribute("FooBean");</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4969,7 +5161,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>//リクエストからパラメータを取得</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4977,7 +5168,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		ExternalContext exContext = FacesContext.getCurrentInstance().getExternalContext();</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4985,7 +5175,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		String uid = (String)exContext.getRequestParameterMap().get("userId");</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4997,7 +5186,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>//なんかメッセージを入れたいとき（フリーダムに使うときはclientIdのつけ方は要検討？）</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5005,7 +5193,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		FacesContext context = FacesContext.getCurrentInstance();</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5013,7 +5200,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>		context.addMessage(component.getClientId(context),  new FacesMessage("つぶやきました</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5032,7 +5218,7 @@
       <xdr:row>82</xdr:row>
       <xdr:rowOff>14605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Rectangle 5"/>
         <xdr:cNvSpPr/>
@@ -5062,6 +5248,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -5072,7 +5259,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>JSFのManagedBeanをFacesContextから取得する </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5084,7 +5270,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>//e.g. Managed Bean</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5092,7 +5277,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>package sample;   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5100,7 +5284,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>import java.util.Date;   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5108,7 +5291,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>import javax.enterprise.context.RequestScoped;   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5116,7 +5298,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>import javax.inject.Named;   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5124,7 +5305,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5132,7 +5312,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>@RequestScoped  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5148,7 +5327,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5156,7 +5334,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>public class TestBean1 {   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5164,7 +5341,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t> public Date getDate() {   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5172,7 +5348,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>  return new Date();   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5180,7 +5355,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t> }   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5188,7 +5362,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>}  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5208,7 +5381,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t> ctx = FacesContext.getCurrentInstance();   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5224,7 +5396,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>context = ctx.getELContext();   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5240,7 +5411,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>resolver = context.getELResolver();   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5260,7 +5430,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>( context, null, "test1");  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5272,7 +5441,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>resolver#getValueの第2引数は、ベースのオブジェクトを指定します。</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5288,7 +5456,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>を取得するのであれば、以下のようにします。</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5308,7 +5475,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>, "date");  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5328,7 +5494,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>BeanManagerからManagedBeanを取得する </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5336,7 +5501,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>CDI（JSR-299）を利用すれば、ServletやJSFのManagedBean、EJBなどにコンテナがDIしてくれるけど、DIではなく、直接CDIで管理しているManagedBeanを取得する方法をメモしておきます。</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5348,7 +5512,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>これを知っていると、DIできないコンポーネントでManagedBeanを利用（例えば、JSFやJSPのスクリプトレット内）できたりします。</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5384,7 +5547,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5392,7 +5554,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>BeanManager manager =   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5420,7 +5581,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>");   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5428,7 +5588,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5448,7 +5607,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>(   TestBean1.class,   new AnnotationLiteral&lt;Default&gt;() {});   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5456,7 +5614,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5476,7 +5633,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>(beans);   </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5484,7 +5640,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>TestBean1 obj = (TestBean1)manager.getReference(   bean, TestBean1.class,  manager.createCreationalContext(bean));  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5496,7 +5651,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>また、EL名で取得したい場合は、5行目を</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5504,7 +5658,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Set&lt;Bean&lt;?&gt;&gt; beans = manager.getBeans("test1");  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5527,7 +5680,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="Straight Connector 8"/>
         <xdr:cNvCxnSpPr/>
@@ -5576,7 +5729,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="Straight Connector 9"/>
         <xdr:cNvCxnSpPr/>
@@ -5621,7 +5774,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Straight Connector 10"/>
         <xdr:cNvCxnSpPr/>
@@ -5668,7 +5821,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Rectangle 17" descr="画面遷移の仕組み&#10;●&#10;URL=Facelets名&#10;– /faces/index.xhtmlでindex.xhtmlを表示&#10;●&#10;処理の返り値&#10;– 処理の返り値として文字列を返す&#10;– indexという文字列を返すとindex.xhtmlに遷移&#10;●&#10;..."/>
         <xdr:cNvSpPr>
@@ -5704,7 +5857,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Rectangle 18" descr="テンプレート&#10;●&#10;faceletsテンプレート&#10;– Apache Tiles的ななにか&#10; "/>
         <xdr:cNvSpPr>
@@ -5740,7 +5893,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Rectangle 19" descr="テンプレート&#10;●&#10;テンプレート（template.xhtml）&#10;●&#10;利用側（templateClient.xhtml）&#10; "/>
         <xdr:cNvSpPr>
@@ -5776,7 +5929,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Rectangle 20" descr="データの表示&#10;●&#10;EL式で表示&#10;– デフォルトでHTMLエスケープされる。&#10;– エスケープしたくない時は&#10;h:outputTextのescape=&quot;false&quot;を使用&#10; "/>
         <xdr:cNvSpPr>
@@ -5812,7 +5965,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Rectangle 21" descr="データの表示&#10;●&#10;バッキングビーン&#10;●&#10;Facelets&#10; "/>
         <xdr:cNvSpPr>
@@ -5848,7 +6001,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Rectangle 22" descr="繰り返し&#10;●&#10;繰り返しでデータを表示&#10;– ui:repeatタグで繰り返し&#10;– h:dataTableもあるがやや融通はきかない&#10; "/>
         <xdr:cNvSpPr>
@@ -5884,7 +6037,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="Rectangle 23" descr="繰り返し&#10;●&#10;JSTLはJSFと相性が悪いので使わない方が良い&#10;（実行タイミングが違う）&#10;– c:forEach → ui:repeat&#10;– c:set → ui:param&#10;– c:if → rendered属性等&#10; "/>
         <xdr:cNvSpPr>
@@ -5920,7 +6073,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="Rectangle 24" descr="処理の実行&#10;●&#10;h:commandLinkまたはh:commandButton&#10;●&#10;action属性に実行するバッキングビーンのメ&#10;ソッドを指定&#10;●&#10;普通の移動はh:linkやh:buttonを使う&#10; "/>
         <xdr:cNvSpPr>
@@ -5956,7 +6109,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="Rectangle 25" descr="詳細画面に直接アクセス&#10;●&#10;ブックマーカビリティ&#10;– ライフサイクルの最初は画面描画しかできないので&#10;データの取得等の処理が出来ない。&#10;– 初期処理用のコンポーネントを使用する。&#10; "/>
         <xdr:cNvSpPr>
@@ -5992,7 +6145,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Rectangle 26" descr="ブックマーカビリティ&#10;●&#10;f:viewParam&#10;– クエリーストリングの値をバッキングビーンにセッ&#10;トできる&#10;●&#10;f:viewAction（f:event + preRenderView）&#10;– 初回画面表示時に処理を実行できる&#10; "/>
         <xdr:cNvSpPr>
@@ -6028,7 +6181,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Rectangle 27" descr="ブックマーカビリティ&#10;●&#10;f:metadataタグで囲む&#10;●&#10;例&#10;– ?id=1でアクセスするとバッキングビーンのid&#10;フィールドに1がセットされた後initメソッドが実&#10;行される。&#10; "/>
         <xdr:cNvSpPr>
@@ -6064,7 +6217,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="Rectangle 28" descr="入力処理&#10;●&#10;h:inputTextを使う&#10;●&#10;バッキングビーン内のentityなどとデータの&#10;マッピングをする&#10; "/>
         <xdr:cNvSpPr>
@@ -6100,7 +6253,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="Rectangle 29" descr="入力処理&#10;●&#10;入力系のタグ&#10;– h:inputText&#10;– h:inputTextarea&#10;– h:inputSecret&#10;– h:inputHidden&#10;– h:selectOneMenu&#10;– h:selectOneRadio&#10;– H:sel..."/>
         <xdr:cNvSpPr>
@@ -6136,7 +6289,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="Rectangle 30" descr="日付型の入力処理&#10;●&#10;コンバータ&#10;– f:convertDateTimeタグを使用&#10;– DateとStringの相互変換を行う&#10;– timeZoneを指定しないと９時間ずれるので注意&#10; "/>
         <xdr:cNvSpPr>
@@ -6172,7 +6325,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Rectangle 31" descr="関連クラスを選択&#10;●&#10;カスタムコンバータ&#10;– 本が所属するカテゴリーを選択したい&#10;– キー名とオブジェクトを相互変換&#10;– h:selectOneMenuで選択&#10;本 カテゴリー&#10;n 1&#10; "/>
         <xdr:cNvSpPr>
@@ -6208,7 +6361,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="Rectangle 32" descr="カスタムコンバータ&#10;●&#10;コンバータクラス&#10;●&#10;Facelets&#10; "/>
         <xdr:cNvSpPr>
@@ -6244,7 +6397,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="Rectangle 33" descr="カスタムコンバータ&#10;●&#10;JSF2.2だとコンバータクラスで@Injectが使え&#10;る→実装上の問題がありJSF2.3に持ち越し&#10;●&#10;JSF2.1の場合はCDIでインジェクトする&#10; "/>
         <xdr:cNvSpPr>
@@ -6280,7 +6433,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Rectangle 34" descr="入力チェックしたい&#10;●&#10;バリデーション&#10;– JSFのバリデータ。f:validateLength等&#10;（今時は使わない）&#10;– Beanバリデーション&#10;●&#10;@Size(min = 4)で４文字以上&#10; "/>
         <xdr:cNvSpPr>
@@ -6316,7 +6469,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="Rectangle 35" descr="入力チェックしたい&#10;●&#10;エラーメッセージの表示&#10;– h:messagesで全メッセージ表示&#10;– h:messageで指定箇所にメッセージを表示&#10; "/>
         <xdr:cNvSpPr>
@@ -6352,7 +6505,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="Rectangle 36" descr="メッセージバンドル&#10;●&#10;なんかDateの入力エラーメッセージがおかし&#10;い？&#10;– JSF初期のエラーメッセージは冗長&#10;変なのついてる 長い&#10; "/>
         <xdr:cNvSpPr>
@@ -6388,7 +6541,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="Rectangle 37" descr="メッセージバンドル&#10;●&#10;Facesメッセージの変更&#10;– javax.faces-2.2.0.jarから&#10;javax.faces.Messages.propertiesを取得&#10;– 修正してクラスパスに配置&#10;– faces-config.xmlにm..."/>
         <xdr:cNvSpPr>
@@ -6424,7 +6577,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="Rectangle 38" descr="Beanバリデーションのメッセージ&#10;●&#10;Beanバリデーションのメッセージも変えたい&#10;– バリデーションのロケール指定&#10;– ValidationMessages.propertiesをクラスパスに&#10;配置&#10;●&#10;Hibernate Validato..."/>
         <xdr:cNvSpPr>
@@ -6460,7 +6613,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="Rectangle 39" descr="メッセージのロケール化&#10;●&#10;なんなら全文字列プロパティ化したい&#10;– メッセージ用プロパティファイルを配置&#10;– faces-config.xmlにresource-bundleを指定&#10; "/>
         <xdr:cNvSpPr>
@@ -6496,7 +6649,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="Rectangle 40" descr="メッセージのロケール化&#10;●&#10;リソースバンドルの使用&#10;– FaceletsではELで参照&#10;– ソース内では&#10;●&#10;長い．．．&#10;FacesContext fc = FacesContext.getCurrentInstance();&#10;fc.getAp..."/>
         <xdr:cNvSpPr>
@@ -6532,7 +6685,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="Rectangle 41" descr="cc:複合コンポーネント&#10;●&#10;Faceletsを部分的に部品化&#10;●&#10;コンポーネントとして使用できる&#10; "/>
         <xdr:cNvSpPr>
@@ -6568,7 +6721,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="Rectangle 42" descr="cc:複合コンポーネント&#10;●&#10;複合コンポーネントを&#10;resources/comp/sample.xmlに配置した場合&#10; "/>
         <xdr:cNvSpPr>
@@ -6604,7 +6757,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="Rectangle 43" descr="カスタムコンポーネント&#10;●&#10;Javaでコンポーネントを作成&#10;●&#10;UIComponentBaseクラス等を継承して作成す&#10;る&#10;●&#10;ライフサイクル単位で細かい処理が可能&#10; "/>
         <xdr:cNvSpPr>
@@ -6640,7 +6793,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="Rectangle 44" descr="Ajax&#10;●&#10;画面を部分更新したい&#10;●&#10;f:ajaxタグを使う&#10;– executeで送信データ、renderで書き換える部分&#10;を指定&#10;– 複数指定する場合はスペース区切り&#10;– 「:」を付けるとルートからの指定&#10;– executeには@this,..."/>
         <xdr:cNvSpPr>
@@ -6676,7 +6829,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="Rectangle 45" descr="Ajax&#10;●&#10;例&#10;– messageを送信してresult部分のみを更新&#10; "/>
         <xdr:cNvSpPr>
@@ -6712,7 +6865,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="Rectangle 46" descr="Ajaxのハンドリング&#10;●&#10;Ajax実行時にJavaScriptの処理を実施したい&#10;●&#10;jsf.ajax.addOnEventを使用する&#10;●&#10;事前処理やセッションタイムアウトが発生した&#10;際の処理等が書ける&#10;– data.responseCode..."/>
         <xdr:cNvSpPr>
@@ -6748,7 +6901,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="Rectangle 47" descr="処理でRequestにアクセスしたい&#10;●&#10;FacesContext&#10;– 処理内でHTTPServletRequestやSessionにアクセ&#10;スしたい&#10;– FacesContextを使う&#10;– Request以外にも様々な情報にアクセス出来る&#10; "/>
         <xdr:cNvSpPr>
@@ -6784,7 +6937,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="Rectangle 48" descr="これくらい知ってれば大体大丈夫！&#10; "/>
         <xdr:cNvSpPr>
@@ -6820,7 +6973,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="Rectangle 49" descr="最後にJSFの問題点&#10; "/>
         <xdr:cNvSpPr>
@@ -6856,7 +7009,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="Rectangle 50" descr="JSFの問題点&#10;●&#10;動的な画面の生成が難しい&#10;– クライアントサイドだけで処理出来ない&#10;– もっと読むとか&#10;●&#10;パフォーマンス&#10;– まだやや遅い&#10;– JSF1が10秒、JSF2が2秒、アクション系フレーム&#10;ワークが1秒くらいのイメージ&#10;– 昔よ..."/>
         <xdr:cNvSpPr>
@@ -6892,7 +7045,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="52" name="Rectangle 51" descr="是非、JSF試してみて下さい&#10; "/>
         <xdr:cNvSpPr>
@@ -6928,7 +7081,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="Rectangle 52"/>
         <xdr:cNvSpPr>
@@ -6972,7 +7125,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7010,7 +7163,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7048,7 +7201,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7086,7 +7239,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7124,7 +7277,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7162,7 +7315,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7200,7 +7353,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7238,7 +7391,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7276,7 +7429,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7314,7 +7467,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7352,7 +7505,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7390,7 +7543,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7428,7 +7581,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7466,7 +7619,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7504,7 +7657,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7542,7 +7695,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7580,7 +7733,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7618,7 +7771,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7656,7 +7809,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7694,7 +7847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7732,7 +7885,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7770,7 +7923,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7808,7 +7961,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7846,7 +7999,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7884,7 +8037,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7914,7 +8067,7 @@
       <xdr:row>505</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="79" name="Rectangle 78"/>
         <xdr:cNvSpPr/>
@@ -7961,6 +8114,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -7982,7 +8136,7 @@
       <xdr:row>507</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="80" name="Straight Arrow Connector 79"/>
         <xdr:cNvCxnSpPr/>
@@ -8029,7 +8183,7 @@
       <xdr:row>531</xdr:row>
       <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="81" name="Rectangle 80"/>
         <xdr:cNvSpPr/>
@@ -8196,7 +8350,7 @@
       <xdr:row>530</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="83" name="Straight Arrow Connector 82"/>
         <xdr:cNvCxnSpPr>
@@ -8253,7 +8407,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8291,7 +8445,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8329,7 +8483,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8367,7 +8521,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8405,7 +8559,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8435,7 +8589,7 @@
       <xdr:row>636</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="89" name="Rectangle 88"/>
         <xdr:cNvSpPr/>
@@ -8602,7 +8756,7 @@
       <xdr:row>636</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="90" name="Rectangle 89"/>
         <xdr:cNvSpPr/>
@@ -8769,7 +8923,7 @@
       <xdr:row>634</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="91" name="Straight Arrow Connector 90"/>
         <xdr:cNvCxnSpPr/>
@@ -8816,7 +8970,7 @@
       <xdr:row>636</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="92" name="Straight Arrow Connector 91"/>
         <xdr:cNvCxnSpPr>
@@ -8865,7 +9019,7 @@
       <xdr:row>633</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="93" name="Straight Arrow Connector 92"/>
         <xdr:cNvCxnSpPr/>
@@ -8912,7 +9066,7 @@
       <xdr:row>634</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
         <xdr:cNvCxnSpPr/>
@@ -8959,7 +9113,7 @@
       <xdr:row>636</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="95" name="Straight Arrow Connector 94"/>
         <xdr:cNvCxnSpPr/>
@@ -9014,7 +9168,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9052,7 +9206,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9090,7 +9244,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9120,7 +9274,7 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="99" name="Rectangle 98"/>
         <xdr:cNvSpPr/>
@@ -9150,6 +9304,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -9161,8 +9316,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -9184,7 +9339,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:link="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9226,7 +9381,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9250,8 +9405,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -9273,7 +9428,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:link="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9315,7 +9470,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9352,8 +9507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2689860" y="739140"/>
-          <a:ext cx="1196340" cy="1287780"/>
+          <a:off x="2976282" y="679973"/>
+          <a:ext cx="1323639" cy="1184238"/>
           <a:chOff x="4224" y="1152"/>
           <a:chExt cx="1884" cy="2028"/>
         </a:xfrm>
@@ -9366,7 +9521,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId3"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -9381,7 +9536,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="6" name="Rectangle 5"/>
           <xdr:cNvSpPr/>
@@ -9411,6 +9566,7 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
@@ -9437,7 +9593,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="Elbow Connector 7"/>
         <xdr:cNvCxnSpPr>
@@ -9489,7 +9645,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Rectangle 8"/>
         <xdr:cNvSpPr/>
@@ -9522,6 +9678,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -9555,7 +9712,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9585,7 +9742,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
         <xdr:cNvCxnSpPr>
@@ -9635,7 +9792,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Rectangle 11"/>
         <xdr:cNvSpPr/>
@@ -9792,7 +9949,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
         <xdr:cNvCxnSpPr>
@@ -9842,7 +9999,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Rectangle 15"/>
         <xdr:cNvSpPr/>
@@ -10006,8 +10163,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6957695" y="3939540"/>
-          <a:ext cx="1050290" cy="1104900"/>
+          <a:off x="7721488" y="3628913"/>
+          <a:ext cx="1177589" cy="1016149"/>
           <a:chOff x="10945" y="6192"/>
           <a:chExt cx="1654" cy="1740"/>
         </a:xfrm>
@@ -10020,7 +10177,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId5"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -10035,7 +10192,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="17" name="Rectangle 16"/>
           <xdr:cNvSpPr/>
@@ -10065,6 +10222,7 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
@@ -10091,7 +10249,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Rectangle 17"/>
         <xdr:cNvSpPr/>
@@ -10253,7 +10411,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10283,7 +10441,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
         <xdr:cNvCxnSpPr>
@@ -10333,7 +10491,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Flowchart: Document 22"/>
         <xdr:cNvSpPr/>
@@ -10363,6 +10521,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -10373,7 +10532,6 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
             <a:t>img file</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10392,7 +10550,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
         <xdr:cNvCxnSpPr>
@@ -10442,7 +10600,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
         <xdr:cNvCxnSpPr>
@@ -10499,8 +10657,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6949440" y="8282940"/>
-          <a:ext cx="1050290" cy="922020"/>
+          <a:off x="7713233" y="7617311"/>
+          <a:ext cx="1177589" cy="848061"/>
           <a:chOff x="10932" y="13032"/>
           <a:chExt cx="1654" cy="1452"/>
         </a:xfrm>
@@ -10513,7 +10671,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId7"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -10528,7 +10686,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="27" name="Rectangle 26"/>
           <xdr:cNvSpPr/>
@@ -10683,7 +10841,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="Flowchart: Document 28"/>
         <xdr:cNvSpPr/>
@@ -10822,7 +10980,6 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
             <a:t>data file</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10841,7 +10998,7 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>42545</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="Elbow Connector 29"/>
         <xdr:cNvCxnSpPr>
@@ -10891,7 +11048,7 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="Flowchart: Magnetic Disk 30"/>
         <xdr:cNvSpPr/>
@@ -10921,6 +11078,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -10942,7 +11100,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="32" name="Elbow Connector 31"/>
         <xdr:cNvCxnSpPr>
@@ -10992,7 +11150,7 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>118745</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="Elbow Connector 32"/>
         <xdr:cNvCxnSpPr>
@@ -11045,7 +11203,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="Rectangle 33"/>
         <xdr:cNvSpPr/>
@@ -11202,7 +11360,7 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Rectangle 34"/>
         <xdr:cNvSpPr/>
@@ -11367,7 +11525,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11397,7 +11555,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
         <xdr:cNvCxnSpPr>
@@ -11447,7 +11605,7 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="Rectangle 37"/>
         <xdr:cNvSpPr/>
@@ -11611,8 +11769,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2781300" y="4853305"/>
-          <a:ext cx="1956435" cy="975360"/>
+          <a:off x="3067722" y="4468719"/>
+          <a:ext cx="2179208" cy="901401"/>
           <a:chOff x="4500" y="7691"/>
           <a:chExt cx="3081" cy="1536"/>
         </a:xfrm>
@@ -11625,7 +11783,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId8"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -11640,7 +11798,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="40" name="Rectangle 39"/>
           <xdr:cNvSpPr/>
@@ -11798,7 +11956,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
         <xdr:cNvCxnSpPr>
@@ -11855,8 +12013,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104140" y="10325100"/>
-          <a:ext cx="2052320" cy="3022600"/>
+          <a:off x="104140" y="9496761"/>
+          <a:ext cx="2275093" cy="2776407"/>
           <a:chOff x="4856" y="16248"/>
           <a:chExt cx="3232" cy="4760"/>
         </a:xfrm>
@@ -11882,7 +12040,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip r:embed="rId9"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -11905,7 +12063,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip r:embed="rId10"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -11921,7 +12079,7 @@
           </xdr:spPr>
         </xdr:pic>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="46" name="Rectangle 45"/>
           <xdr:cNvSpPr/>
@@ -12056,7 +12214,6 @@
               <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
               <a:t>三菱銀行</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000"/>
           </a:p>
           <a:p>
             <a:pPr algn="ctr"/>
@@ -12068,7 +12225,6 @@
               <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
               <a:t>(DC)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -12095,13 +12251,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2087880" y="10340340"/>
-          <a:ext cx="4333240" cy="2019300"/>
+          <a:off x="2310653" y="9512001"/>
+          <a:ext cx="4810611" cy="1856591"/>
           <a:chOff x="8748" y="16284"/>
           <a:chExt cx="6824" cy="3180"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="48" name="Rectangle 47"/>
           <xdr:cNvSpPr/>
@@ -12236,7 +12392,6 @@
               <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
               <a:t>東海銀行</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000"/>
           </a:p>
           <a:p>
             <a:pPr algn="ctr"/>
@@ -12264,7 +12419,6 @@
               <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
               <a:t>)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -12276,7 +12430,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId11"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -12314,13 +12468,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6469380" y="10294620"/>
-          <a:ext cx="2316480" cy="2354580"/>
+          <a:off x="7169524" y="9466281"/>
+          <a:ext cx="2602902" cy="2162287"/>
           <a:chOff x="11952" y="16404"/>
           <a:chExt cx="3648" cy="3708"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="51" name="Rectangle 50"/>
           <xdr:cNvSpPr/>
@@ -12455,7 +12609,6 @@
               <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
               <a:t>第一勧業銀行</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000"/>
           </a:p>
           <a:p>
             <a:pPr algn="ctr"/>
@@ -12467,7 +12620,6 @@
               <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
               <a:t>(UC)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -12492,7 +12644,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip r:embed="rId12"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -12515,7 +12667,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip r:embed="rId13"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -12554,8 +12706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8846820" y="10279380"/>
-          <a:ext cx="2146300" cy="1866900"/>
+          <a:off x="9833386" y="9451041"/>
+          <a:ext cx="2369073" cy="1718983"/>
           <a:chOff x="16608" y="16440"/>
           <a:chExt cx="3380" cy="2940"/>
         </a:xfrm>
@@ -12568,7 +12720,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId14"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -12583,7 +12735,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="57" name="Rectangle 56"/>
           <xdr:cNvSpPr/>
@@ -12718,7 +12870,6 @@
               <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
               <a:t>住友銀行</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000"/>
           </a:p>
           <a:p>
             <a:pPr algn="ctr"/>
@@ -12753,13 +12904,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11010265" y="9584690"/>
-          <a:ext cx="2313305" cy="2447290"/>
+          <a:off x="12251429" y="8815518"/>
+          <a:ext cx="2567902" cy="2254997"/>
           <a:chOff x="17975" y="15070"/>
           <a:chExt cx="3643" cy="3854"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="59" name="Rectangle 58"/>
           <xdr:cNvSpPr/>
@@ -12894,7 +13045,6 @@
               <a:rPr lang="ja-JP" altLang="en-US" sz="1000"/>
               <a:t>ジャパンクレジットビューロー</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000"/>
           </a:p>
           <a:p>
             <a:pPr algn="ctr"/>
@@ -12902,11 +13052,10 @@
               <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
               <a:t>(JCB)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="60" name="Rectangle 59"/>
           <xdr:cNvSpPr/>
@@ -13045,7 +13194,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="61" name="Rectangle 60"/>
           <xdr:cNvSpPr/>
@@ -13184,7 +13333,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="62" name="Straight Connector 61"/>
           <xdr:cNvCxnSpPr>
@@ -13216,7 +13365,7 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
           <xdr:cNvCxnSpPr>
@@ -13258,7 +13407,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId15"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -13296,8 +13445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9471660" y="13837920"/>
-          <a:ext cx="958850" cy="579120"/>
+          <a:off x="10521875" y="12728538"/>
+          <a:ext cx="1054324" cy="534744"/>
           <a:chOff x="15108" y="20832"/>
           <a:chExt cx="1510" cy="912"/>
         </a:xfrm>
@@ -13310,7 +13459,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId16"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -13325,7 +13474,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="67" name="Rectangle 66"/>
           <xdr:cNvSpPr/>
@@ -13467,7 +13616,6 @@
               <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
               <a:t>brand  US</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -13487,7 +13635,7 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="69" name="Straight Connector 68"/>
         <xdr:cNvCxnSpPr>
@@ -13541,8 +13689,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3733800" y="13822680"/>
-          <a:ext cx="958850" cy="678180"/>
+          <a:off x="4147521" y="12713298"/>
+          <a:ext cx="1054324" cy="619013"/>
           <a:chOff x="5868" y="21756"/>
           <a:chExt cx="1510" cy="1068"/>
         </a:xfrm>
@@ -13555,7 +13703,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId17"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -13570,7 +13718,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="71" name="Rectangle 70"/>
           <xdr:cNvSpPr/>
@@ -13712,7 +13860,6 @@
               <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
               <a:t>brand  US</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -13732,7 +13879,7 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="72" name="Elbow Connector 71"/>
         <xdr:cNvCxnSpPr>
@@ -13781,7 +13928,7 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="73" name="Straight Connector 72"/>
         <xdr:cNvCxnSpPr>
@@ -13828,7 +13975,7 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="74" name="Elbow Connector 73"/>
         <xdr:cNvCxnSpPr>
@@ -13877,7 +14024,7 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="76" name="Straight Connector 75"/>
         <xdr:cNvCxnSpPr>
@@ -13931,8 +14078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11582400" y="13815060"/>
-          <a:ext cx="1195070" cy="655320"/>
+          <a:off x="12887213" y="12705678"/>
+          <a:ext cx="1322369" cy="596153"/>
           <a:chOff x="18228" y="21744"/>
           <a:chExt cx="1882" cy="1032"/>
         </a:xfrm>
@@ -13945,7 +14092,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId18"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -13960,7 +14107,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="77" name="Rectangle 76"/>
           <xdr:cNvSpPr/>
@@ -14133,8 +14280,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13495020" y="13822680"/>
-          <a:ext cx="1195070" cy="678180"/>
+          <a:off x="14990781" y="12713298"/>
+          <a:ext cx="1354194" cy="619013"/>
           <a:chOff x="21240" y="21756"/>
           <a:chExt cx="1882" cy="1068"/>
         </a:xfrm>
@@ -14147,7 +14294,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId19"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -14162,7 +14309,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="81" name="Rectangle 80"/>
           <xdr:cNvSpPr/>
@@ -14308,7 +14455,6 @@
               <a:rPr lang="en-US" sz="1000"/>
               <a:t>US</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -14335,8 +14481,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15041880" y="13601700"/>
-          <a:ext cx="1195070" cy="883920"/>
+          <a:off x="16728589" y="12507109"/>
+          <a:ext cx="1322369" cy="809962"/>
           <a:chOff x="23676" y="21492"/>
           <a:chExt cx="1882" cy="1392"/>
         </a:xfrm>
@@ -14349,7 +14495,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId20"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -14364,7 +14510,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="84" name="Rectangle 83"/>
           <xdr:cNvSpPr/>
@@ -14510,7 +14656,6 @@
               <a:rPr lang="en-US" sz="1000"/>
               <a:t>US</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -14537,8 +14682,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16748760" y="13464540"/>
-          <a:ext cx="1195070" cy="967740"/>
+          <a:off x="18626418" y="12384741"/>
+          <a:ext cx="1322368" cy="893781"/>
           <a:chOff x="26364" y="21192"/>
           <a:chExt cx="1882" cy="1524"/>
         </a:xfrm>
@@ -14551,7 +14696,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId21"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -14566,7 +14711,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="87" name="Rectangle 86"/>
           <xdr:cNvSpPr/>
@@ -14712,7 +14857,6 @@
               <a:rPr lang="en-US" sz="1000"/>
               <a:t>CN</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -14739,8 +14883,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18333720" y="13586460"/>
-          <a:ext cx="1195070" cy="807720"/>
+          <a:off x="20402326" y="12491869"/>
+          <a:ext cx="1322369" cy="748553"/>
           <a:chOff x="28860" y="21384"/>
           <a:chExt cx="1882" cy="1272"/>
         </a:xfrm>
@@ -14753,7 +14897,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId22"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -14768,7 +14912,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="90" name="Rectangle 89"/>
           <xdr:cNvSpPr/>
@@ -14914,7 +15058,6 @@
               <a:rPr lang="en-US" sz="1000"/>
               <a:t>US</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -14942,7 +15085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -14972,7 +15115,7 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="93" name="Straight Arrow Connector 92"/>
         <xdr:cNvCxnSpPr/>
@@ -15019,7 +15162,7 @@
       <xdr:row>120</xdr:row>
       <xdr:rowOff>106045</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
         <xdr:cNvCxnSpPr/>
@@ -15066,7 +15209,7 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="95" name="Straight Arrow Connector 94"/>
         <xdr:cNvCxnSpPr/>
@@ -15113,7 +15256,7 @@
       <xdr:row>119</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
         <xdr:cNvCxnSpPr/>
@@ -15160,7 +15303,7 @@
       <xdr:row>100</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="97" name="Rectangle 96"/>
         <xdr:cNvSpPr/>
@@ -15320,19 +15463,6 @@
             </a:rPr>
             <a:t>年会費</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:ln/>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -15352,19 +15482,6 @@
             </a:rPr>
             <a:t>分割払い手数料</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:ln/>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15383,7 +15500,7 @@
       <xdr:row>121</xdr:row>
       <xdr:rowOff>106045</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="98" name="Rectangle 97"/>
         <xdr:cNvSpPr/>
@@ -15548,19 +15665,6 @@
             </a:rPr>
             <a:t>加盟店手数料</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:ln/>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15579,7 +15683,7 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="99" name="Rectangle 98"/>
         <xdr:cNvSpPr/>
@@ -15739,19 +15843,6 @@
             </a:rPr>
             <a:t>ブランドフィー</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:ln/>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -15771,19 +15862,6 @@
             </a:rPr>
             <a:t>ライセンスフィー</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:ln/>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15802,7 +15880,7 @@
       <xdr:row>119</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="100" name="Rectangle 99"/>
         <xdr:cNvSpPr/>
@@ -15962,19 +16040,6 @@
             </a:rPr>
             <a:t>ブランドフィー</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:ln/>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -15994,19 +16059,6 @@
             </a:rPr>
             <a:t>ライセンスフィー</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:ln/>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16025,7 +16077,7 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>81915</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="101" name="Rectangle 100"/>
         <xdr:cNvSpPr/>
@@ -16184,18 +16236,6 @@
             </a:rPr>
             <a:t>インターチェンジフィー</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16222,7 +16262,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16260,7 +16300,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16298,7 +16338,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16336,7 +16376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16374,7 +16414,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16412,7 +16452,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16450,7 +16490,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16480,7 +16520,7 @@
       <xdr:row>110</xdr:row>
       <xdr:rowOff>43180</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="109" name="Straight Arrow Connector 108"/>
         <xdr:cNvCxnSpPr/>
@@ -16527,7 +16567,7 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="110" name="Rectangle 109"/>
         <xdr:cNvSpPr/>
@@ -16686,18 +16726,6 @@
             </a:rPr>
             <a:t>年会費</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -16716,18 +16744,6 @@
             </a:rPr>
             <a:t>分割払い手数料</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16746,7 +16762,7 @@
       <xdr:row>114</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="111" name="Straight Arrow Connector 110"/>
         <xdr:cNvCxnSpPr/>
@@ -16793,7 +16809,7 @@
       <xdr:row>110</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="112" name="Rectangle 111"/>
         <xdr:cNvSpPr/>
@@ -16957,18 +16973,6 @@
             </a:rPr>
             <a:t>加盟店手数料</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -17229,34 +17233,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -17264,27 +17268,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="2:10">
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:10">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="2:10" ht="15">
       <c r="C10" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="2:10">
       <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" spans="2:10">
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
@@ -17296,13 +17300,13 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="2:10">
       <c r="C13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="44" t="s">
+    <row r="16" spans="2:10" ht="14.25">
+      <c r="B16" s="42" t="s">
         <v>10</v>
       </c>
     </row>
@@ -17321,7 +17325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" ht="15">
       <c r="B24" s="21" t="s">
         <v>14</v>
       </c>
@@ -17331,7 +17335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" ht="15">
       <c r="B26" s="21" t="s">
         <v>16</v>
       </c>
@@ -17396,7 +17400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" ht="15">
       <c r="B41" s="21" t="s">
         <v>29</v>
       </c>
@@ -17422,33 +17426,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="75"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" ht="18.6" spans="10:10">
-      <c r="J4" s="39" t="s">
+    <row r="4" spans="2:12" ht="19.5">
+      <c r="J4" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -17456,7 +17459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="2:12">
       <c r="C6" t="s">
         <v>37</v>
       </c>
@@ -17464,7 +17467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="2:12" ht="15">
       <c r="C7" t="s">
         <v>39</v>
       </c>
@@ -17472,7 +17475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="2:12">
       <c r="C8" t="s">
         <v>41</v>
       </c>
@@ -17480,7 +17483,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:12">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -17488,7 +17491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:12">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -17496,7 +17499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -17504,12 +17507,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:12">
       <c r="B13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="3:11">
+    <row r="14" spans="2:12">
       <c r="C14" t="s">
         <v>50</v>
       </c>
@@ -17517,7 +17520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="3:11">
+    <row r="15" spans="2:12">
       <c r="C15" t="s">
         <v>52</v>
       </c>
@@ -17533,7 +17536,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="2:12">
       <c r="C17" t="s">
         <v>56</v>
       </c>
@@ -17541,12 +17544,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="2:12">
       <c r="C18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>57</v>
       </c>
@@ -17554,7 +17557,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="2:12">
       <c r="C20" t="s">
         <v>59</v>
       </c>
@@ -17562,7 +17565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="2:12">
       <c r="C21" t="s">
         <v>52</v>
       </c>
@@ -17570,7 +17573,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -17578,974 +17581,972 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="10:10">
+    <row r="23" spans="2:12">
       <c r="J23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="2:12">
       <c r="J25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="11:11">
+    <row r="26" spans="2:12">
       <c r="K26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="11:11">
+    <row r="27" spans="2:12" ht="15">
       <c r="K27" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="10:10">
+    <row r="28" spans="2:12">
       <c r="J28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" ht="18.6" spans="10:10">
-      <c r="J29" s="39" t="s">
+    <row r="29" spans="2:12" ht="19.5">
+      <c r="J29" s="37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" ht="18.6" spans="10:10">
-      <c r="J31" s="39" t="s">
+    <row r="31" spans="2:12" ht="19.5">
+      <c r="J31" s="37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" ht="18.6" spans="10:10">
-      <c r="J32" s="39" t="s">
+    <row r="32" spans="2:12" ht="19.5">
+      <c r="J32" s="37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" ht="18.6" spans="10:10">
-      <c r="J33" s="39" t="s">
+    <row r="33" spans="2:10" ht="19.5">
+      <c r="J33" s="37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:10">
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="2:10">
       <c r="C37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="2:10">
       <c r="C38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="2:10">
       <c r="C39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="2:10">
       <c r="C40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="2:10">
       <c r="C42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="2:10">
       <c r="C43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="2:10">
       <c r="C44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="2:10">
       <c r="C46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="2:10" ht="15">
       <c r="C47" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="2:10">
       <c r="D48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="2:4">
       <c r="D49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="2:4">
       <c r="C50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="2:4">
       <c r="C52" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="2:4">
       <c r="C53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="2:4">
       <c r="D54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="2:4">
       <c r="C55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="2:4">
       <c r="C57" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="2:4">
       <c r="C58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="2:4">
       <c r="D59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="2:4">
       <c r="C60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:4">
       <c r="B61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:4">
       <c r="B63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="2:4">
       <c r="C64" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="2:9" ht="15">
       <c r="C65" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="9:9">
+    <row r="66" spans="2:9">
       <c r="I66" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" ht="18.6" spans="2:2">
-      <c r="B67" s="39" t="s">
+    <row r="67" spans="2:9" ht="19.5">
+      <c r="B67" s="37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" ht="18.6" spans="2:2">
-      <c r="B69" s="39" t="s">
+    <row r="69" spans="2:9" ht="19.5">
+      <c r="B69" s="37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" ht="18.6" spans="2:2">
-      <c r="B70" s="39" t="s">
+    <row r="70" spans="2:9" ht="19.5">
+      <c r="B70" s="37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" ht="18.6" spans="2:2">
-      <c r="B71" s="39" t="s">
+    <row r="71" spans="2:9" ht="19.5">
+      <c r="B71" s="37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:9">
       <c r="B73" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:9" ht="15">
       <c r="B74" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="2:9">
       <c r="C75" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="2:9">
       <c r="C76" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="2:9">
       <c r="D77" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="5:5">
+    <row r="78" spans="2:9">
       <c r="E78" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="5:5">
+    <row r="79" spans="2:9">
       <c r="E79" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="2:9">
       <c r="D80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="2:3">
       <c r="C81" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="2:3">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:3">
       <c r="B83" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:3">
       <c r="B85" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:3">
       <c r="B86" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" ht="18.6" spans="2:2">
-      <c r="B88" s="39" t="s">
+    <row r="88" spans="2:3" ht="19.5">
+      <c r="B88" s="37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" ht="28.8" spans="2:2">
-      <c r="B91" s="40" t="s">
+    <row r="91" spans="2:3" ht="30">
+      <c r="B91" s="38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" ht="18.6" spans="2:2">
-      <c r="B92" s="39" t="s">
+    <row r="92" spans="2:3" ht="19.5">
+      <c r="B92" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:3">
       <c r="B94" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:3">
       <c r="B95" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="2:3">
       <c r="C97" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="2:3">
       <c r="C98" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="2:3">
       <c r="C100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="2:3">
       <c r="C101" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:3">
       <c r="B102" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="104" ht="18.6" spans="2:2">
-      <c r="B104" s="39" t="s">
+    <row r="104" spans="2:3" ht="19.5">
+      <c r="B104" s="37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="41" t="s">
+    <row r="106" spans="2:3">
+      <c r="B106" s="39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:3" ht="15">
       <c r="B107" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="2:3">
       <c r="C109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="2:3">
       <c r="C110" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="2:3">
       <c r="C111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="2:3" ht="15">
       <c r="C112" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="4:4">
+    <row r="113" spans="4:5">
       <c r="D113" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="4:4">
+    <row r="114" spans="4:5">
       <c r="D114" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="4:4">
+    <row r="115" spans="4:5">
       <c r="D115" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="4:4">
+    <row r="116" spans="4:5">
       <c r="D116" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="4:4">
+    <row r="118" spans="4:5">
       <c r="D118" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="4:4">
+    <row r="119" spans="4:5">
       <c r="D119" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="4:4">
+    <row r="120" spans="4:5">
       <c r="D120" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="4:4">
+    <row r="122" spans="4:5">
       <c r="D122" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="4:4">
+    <row r="123" spans="4:5">
       <c r="D123" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="5:5">
+    <row r="124" spans="4:5">
       <c r="E124" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="5:5">
+    <row r="125" spans="4:5">
       <c r="E125" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="4:4">
+    <row r="126" spans="4:5">
       <c r="D126" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="4:4">
+    <row r="128" spans="4:5">
       <c r="D128" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="129" spans="4:4">
+    <row r="129" spans="3:5">
       <c r="D129" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="5:5">
+    <row r="130" spans="3:5">
       <c r="E130" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="4:4">
+    <row r="131" spans="3:5">
       <c r="D131" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="133" spans="4:4">
+    <row r="133" spans="3:5">
       <c r="D133" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="4:4">
+    <row r="134" spans="3:5">
       <c r="D134" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="5:5">
+    <row r="135" spans="3:5">
       <c r="E135" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="4:4">
+    <row r="136" spans="3:5">
       <c r="D136" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="3:5">
       <c r="C137" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="3:5">
       <c r="C139" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="3:5">
       <c r="C140" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="3:5">
       <c r="C141" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="3:5" ht="15">
       <c r="C142" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="4:4">
+    <row r="143" spans="3:5">
       <c r="D143" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="4:4">
+    <row r="144" spans="3:5">
       <c r="D144" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="4:4">
+    <row r="145" spans="4:5">
       <c r="D145" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="4:4">
+    <row r="146" spans="4:5">
       <c r="D146" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="4:4">
+    <row r="148" spans="4:5">
       <c r="D148" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="4:4">
+    <row r="149" spans="4:5">
       <c r="D149" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="4:4">
+    <row r="150" spans="4:5">
       <c r="D150" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="4:4">
+    <row r="152" spans="4:5">
       <c r="D152" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="4:4">
+    <row r="153" spans="4:5">
       <c r="D153" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="154" spans="5:5">
+    <row r="154" spans="4:5">
       <c r="E154" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="5:5">
+    <row r="155" spans="4:5">
       <c r="E155" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="4:4">
+    <row r="156" spans="4:5">
       <c r="D156" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="4:4">
+    <row r="158" spans="4:5">
       <c r="D158" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="4:4">
+    <row r="159" spans="4:5">
       <c r="D159" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="160" spans="5:5">
+    <row r="160" spans="4:5">
       <c r="E160" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="4:4">
+    <row r="161" spans="2:5">
       <c r="D161" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="4:4">
+    <row r="163" spans="2:5">
       <c r="D163" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="4:4">
+    <row r="164" spans="2:5">
       <c r="D164" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="5:5">
+    <row r="165" spans="2:5">
       <c r="E165" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="166" spans="4:4">
+    <row r="166" spans="2:5">
       <c r="D166" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="3:3">
+    <row r="167" spans="2:5">
       <c r="C167" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:5">
       <c r="B168" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="170" ht="18.6" spans="2:2">
-      <c r="B170" s="39" t="s">
+    <row r="170" spans="2:5" ht="19.5">
+      <c r="B170" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="172" ht="18.6" spans="2:2">
-      <c r="B172" s="39" t="s">
+    <row r="172" spans="2:5" ht="19.5">
+      <c r="B172" s="37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="2:5">
       <c r="B174" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="2:5" ht="15">
       <c r="B175" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="3:3">
+    <row r="177" spans="2:6" ht="15">
       <c r="C177" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="178" spans="4:4">
+    <row r="178" spans="2:6">
       <c r="D178" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="179" spans="4:4">
+    <row r="179" spans="2:6" ht="15">
       <c r="D179" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="5:5">
+    <row r="180" spans="2:6">
       <c r="E180" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="181" spans="6:6">
+    <row r="181" spans="2:6">
       <c r="F181" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="182" spans="6:6">
+    <row r="182" spans="2:6">
       <c r="F182" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="183" spans="5:5">
+    <row r="183" spans="2:6">
       <c r="E183" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="4:4">
+    <row r="184" spans="2:6">
       <c r="D184" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="4:4">
+    <row r="185" spans="2:6">
       <c r="D185" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="186" spans="3:3">
+    <row r="186" spans="2:6">
       <c r="C186" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="2:6">
       <c r="B187" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="189" ht="18.6" spans="2:2">
-      <c r="B189" s="39" t="s">
+    <row r="189" spans="2:6" ht="19.5">
+      <c r="B189" s="37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="2:6" ht="15">
       <c r="B191" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="2:6">
       <c r="B192" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="194" ht="18.6" spans="2:2">
-      <c r="B194" s="39" t="s">
+    <row r="194" spans="2:2" ht="19.5">
+      <c r="B194" s="37" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="196" ht="22.2" spans="2:2">
-      <c r="B196" s="42" t="s">
+    <row r="196" spans="2:2" ht="24">
+      <c r="B196" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="198" ht="18.6" spans="2:2">
-      <c r="B198" s="43" t="s">
+    <row r="198" spans="2:2" ht="19.5">
+      <c r="B198" s="41" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="199" ht="18.6" spans="2:2">
-      <c r="B199" s="43" t="s">
+    <row r="199" spans="2:2" ht="19.5">
+      <c r="B199" s="41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="200" ht="18.6" spans="2:2">
-      <c r="B200" s="43" t="s">
+    <row r="200" spans="2:2" ht="19.5">
+      <c r="B200" s="41" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="201" ht="18.6" spans="2:2">
-      <c r="B201" s="43" t="s">
+    <row r="201" spans="2:2" ht="19.5">
+      <c r="B201" s="41" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="75"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://blog.maplesystems.co.jp/programming/2690.html"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" ht="15" spans="2:2">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="27" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="2:2">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="2:2" ht="17.25">
+      <c r="B4" s="28" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="2:2">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="2:2">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="2:2">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="2:2">
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="2:2">
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="2:2">
-      <c r="B12" s="32" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="2:2">
-      <c r="B13" s="31" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="2:2">
-      <c r="B14" s="31" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="2:2">
-      <c r="B15" s="31" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="2:2">
-      <c r="B17" s="33" t="s">
+    <row r="17" spans="2:2" ht="15">
+      <c r="B17" s="31" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" ht="16.8" spans="2:2">
-      <c r="B19" s="34" t="s">
+    <row r="19" spans="2:2" ht="17.25">
+      <c r="B19" s="32" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="2:2">
-      <c r="B21" s="31" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="2:2">
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="2:2">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="34" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="2:2">
-      <c r="B25" s="36" t="s">
+    <row r="25" spans="2:2" ht="15">
+      <c r="B25" s="34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="2:2">
-      <c r="B27" s="31" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="2:2">
-      <c r="B29" s="33" t="s">
+    <row r="29" spans="2:2" ht="15">
+      <c r="B29" s="31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="2:2">
-      <c r="B31" s="31" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="2:2">
-      <c r="B33" s="36" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="2:2">
-      <c r="B34" s="35" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="2:2">
-      <c r="B35" s="36" t="s">
+    <row r="35" spans="2:2" ht="15">
+      <c r="B35" s="34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="2:2">
-      <c r="B36" s="35" t="s">
+    <row r="36" spans="2:2" ht="15">
+      <c r="B36" s="33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="2:2">
-      <c r="B37" s="35" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="2:2">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="2:2" ht="15">
+      <c r="B38" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="2:2">
-      <c r="B40" s="31" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="2:2">
-      <c r="B42" s="33" t="s">
+    <row r="42" spans="2:2" ht="15">
+      <c r="B42" s="31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" ht="16.8" spans="2:2">
-      <c r="B44" s="34" t="s">
+    <row r="44" spans="2:2" ht="17.25">
+      <c r="B44" s="32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="2:2">
-      <c r="B46" s="36" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="34" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="2:2">
-      <c r="B47" s="36" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="34" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="2:2">
-      <c r="B48" s="36" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="50" ht="16.8" spans="2:2">
-      <c r="B50" s="31" t="s">
+    <row r="50" spans="2:2" ht="17.25">
+      <c r="B50" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="2:2">
-      <c r="B52" s="33" t="s">
+    <row r="52" spans="2:2" ht="15">
+      <c r="B52" s="31" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="2:2">
-      <c r="B54" s="34" t="s">
+    <row r="54" spans="2:2" ht="15">
+      <c r="B54" s="32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="2:2">
-      <c r="B56" s="36" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="2:2">
-      <c r="B57" s="36" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="34" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="2:2">
-      <c r="B58" s="35" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="2:2">
-      <c r="B59" s="36" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="34" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" ht="16.8" spans="2:2">
-      <c r="B61" s="31" t="s">
+    <row r="61" spans="2:2" ht="17.25">
+      <c r="B61" s="29" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="75"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display=".NET Framework 3.0" tooltip="https://ja.wikipedia.org/w/index.php?title=.NET_Framework&amp;action=edit&amp;section=18"/>
-    <hyperlink ref="B8" r:id="rId2" display="Windows Presentation Foundation (WPF)" tooltip="https://ja.wikipedia.org/wiki/Windows_Presentation_Foundation"/>
-    <hyperlink ref="B9" r:id="rId3" display="XMLに基づく新しいユーザインタフェースサブシステム。" tooltip="https://ja.wikipedia.org/wiki/%E3%83%A6%E3%83%BC%E3%82%B6%E3%82%A4%E3%83%B3%E3%82%BF%E3%83%95%E3%82%A7%E3%83%BC%E3%82%B9"/>
-    <hyperlink ref="B10" r:id="rId4" display="Windows Communication Foundation (WCF)" tooltip="https://ja.wikipedia.org/wiki/Windows_Communication_Foundation"/>
-    <hyperlink ref="B12" r:id="rId5" display="Windows Workflow Foundation (WF)" tooltip="https://ja.wikipedia.org/wiki/Windows_Workflow_Foundation"/>
-    <hyperlink ref="B13" r:id="rId6" display="ワークフローによるアプリケーション開発のためのフレームワーク。" tooltip="https://ja.wikipedia.org/wiki/%E3%83%AF%E3%83%BC%E3%82%AF%E3%83%95%E3%83%AD%E3%83%BC"/>
-    <hyperlink ref="B14" r:id="rId7" display="Windows CardSpace (WCS)" tooltip="https://ja.wikipedia.org/wiki/Windows_CardSpace"/>
-    <hyperlink ref="B15" r:id="rId8" display="ユーザの個人情報をセキュアに管理し、統一されたアクセス方法を提供するためのフレームワーク。" tooltip="https://ja.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E6%83%85%E5%A0%B1"/>
-    <hyperlink ref="B17" r:id="rId9" display=".NET Framework 3.5" tooltip="https://ja.wikipedia.org/w/index.php?title=.NET_Framework&amp;action=edit&amp;section=19"/>
-    <hyperlink ref="B23" r:id="rId10" display="ASP.NET AJAXの対応" tooltip="https://ja.wikipedia.org/wiki/ASP.NET"/>
-    <hyperlink ref="B24" r:id="rId11" display="Language Integrated Query" tooltip="https://ja.wikipedia.org/wiki/%E7%B5%B1%E5%90%88%E8%A8%80%E8%AA%9E%E3%82%AF%E3%82%A8%E3%83%AA"/>
-    <hyperlink ref="B29" r:id="rId12" display=".NET Framework 4" tooltip="https://ja.wikipedia.org/w/index.php?title=.NET_Framework&amp;action=edit&amp;section=20"/>
-    <hyperlink ref="B33" r:id="rId13" display="F# のフル サポート" tooltip="https://ja.wikipedia.org/wiki/F_Sharp"/>
-    <hyperlink ref="B34" r:id="rId14" display="動的言語ランタイム (DLR)" tooltip="https://ja.wikipedia.org/wiki/%E5%8B%95%E7%9A%84%E8%A8%80%E8%AA%9E%E3%83%A9%E3%83%B3%E3%82%BF%E3%82%A4%E3%83%A0"/>
-    <hyperlink ref="B42" r:id="rId15" display=".NET Framework 4.5" tooltip="https://ja.wikipedia.org/w/index.php?title=.NET_Framework&amp;action=edit&amp;section=21"/>
-    <hyperlink ref="B46" r:id="rId16" display="Windows Modernスタイル アプリケーション（Windowsストアアプリ）の開発" tooltip="https://ja.wikipedia.org/wiki/Windows%E3%82%B9%E3%83%88%E3%82%A2"/>
-    <hyperlink ref="B52" r:id="rId17" display=".NET Framework 4.6" tooltip="https://ja.wikipedia.org/w/index.php?title=.NET_Framework&amp;action=edit&amp;section=22"/>
-    <hyperlink ref="B56" r:id="rId10" display="ASP.NET 5対応" tooltip="https://ja.wikipedia.org/wiki/ASP.NET"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="https://ja.wikipedia.org/w/index.php?title=.NET_Framework&amp;action=edit&amp;section=18"/>
+    <hyperlink ref="B8" r:id="rId2" tooltip="https://ja.wikipedia.org/wiki/Windows_Presentation_Foundation"/>
+    <hyperlink ref="B9" r:id="rId3" tooltip="https://ja.wikipedia.org/wiki/%E3%83%A6%E3%83%BC%E3%82%B6%E3%82%A4%E3%83%B3%E3%82%BF%E3%83%95%E3%82%A7%E3%83%BC%E3%82%B9"/>
+    <hyperlink ref="B10" r:id="rId4" tooltip="https://ja.wikipedia.org/wiki/Windows_Communication_Foundation"/>
+    <hyperlink ref="B12" r:id="rId5" tooltip="https://ja.wikipedia.org/wiki/Windows_Workflow_Foundation"/>
+    <hyperlink ref="B13" r:id="rId6" tooltip="https://ja.wikipedia.org/wiki/%E3%83%AF%E3%83%BC%E3%82%AF%E3%83%95%E3%83%AD%E3%83%BC"/>
+    <hyperlink ref="B14" r:id="rId7" tooltip="https://ja.wikipedia.org/wiki/Windows_CardSpace"/>
+    <hyperlink ref="B15" r:id="rId8" tooltip="https://ja.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E6%83%85%E5%A0%B1"/>
+    <hyperlink ref="B17" r:id="rId9" tooltip="https://ja.wikipedia.org/w/index.php?title=.NET_Framework&amp;action=edit&amp;section=19"/>
+    <hyperlink ref="B23" r:id="rId10" tooltip="https://ja.wikipedia.org/wiki/ASP.NET"/>
+    <hyperlink ref="B24" r:id="rId11" tooltip="https://ja.wikipedia.org/wiki/%E7%B5%B1%E5%90%88%E8%A8%80%E8%AA%9E%E3%82%AF%E3%82%A8%E3%83%AA"/>
+    <hyperlink ref="B29" r:id="rId12" tooltip="https://ja.wikipedia.org/w/index.php?title=.NET_Framework&amp;action=edit&amp;section=20"/>
+    <hyperlink ref="B33" r:id="rId13" tooltip="https://ja.wikipedia.org/wiki/F_Sharp"/>
+    <hyperlink ref="B34" r:id="rId14" tooltip="https://ja.wikipedia.org/wiki/%E5%8B%95%E7%9A%84%E8%A8%80%E8%AA%9E%E3%83%A9%E3%83%B3%E3%82%BF%E3%82%A4%E3%83%A0"/>
+    <hyperlink ref="B42" r:id="rId15" tooltip="https://ja.wikipedia.org/w/index.php?title=.NET_Framework&amp;action=edit&amp;section=21"/>
+    <hyperlink ref="B46" r:id="rId16" tooltip="https://ja.wikipedia.org/wiki/Windows%E3%82%B9%E3%83%88%E3%82%A2"/>
+    <hyperlink ref="B52" r:id="rId17" tooltip="https://ja.wikipedia.org/w/index.php?title=.NET_Framework&amp;action=edit&amp;section=22"/>
+    <hyperlink ref="B56" r:id="rId18" tooltip="https://ja.wikipedia.org/wiki/ASP.NET"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77777777777778" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="3.77777777777778" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:2">
@@ -18568,7 +18569,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" ht="23.4" spans="2:2">
+    <row r="11" spans="2:2" ht="21">
       <c r="B11" s="25" t="s">
         <v>180</v>
       </c>
@@ -18583,7 +18584,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" ht="18" spans="2:2">
+    <row r="17" spans="2:2" ht="17.25">
       <c r="B17" s="26" t="s">
         <v>183</v>
       </c>
@@ -18618,14 +18619,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" customHeight="1"/>
+    <row r="30" spans="2:2" ht="14.45" customHeight="1"/>
     <row r="31" spans="2:2">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="43" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="28"/>
+      <c r="B32" s="44"/>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
@@ -18636,132 +18637,216 @@
   <mergeCells count="1">
     <mergeCell ref="B31:B32"/>
   </mergeCells>
+  <phoneticPr fontId="75"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId2" display="Previous: JVM プロファイラの追加" tooltip="https://docs.oracle.com/cd/E19146-01/820-0875/gbsrl/index.html"/>
-    <hyperlink ref="B9" r:id="rId3" display="Next: Java Web アプリケーションの配備" tooltip="https://docs.oracle.com/cd/E19146-01/820-0875/gdefi/index.html"/>
+    <hyperlink ref="B8" r:id="rId1" tooltip="https://docs.oracle.com/cd/E19146-01/820-0875/gbsrl/index.html"/>
+    <hyperlink ref="B9" r:id="rId2" tooltip="https://docs.oracle.com/cd/E19146-01/820-0875/gdefi/index.html"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="S2:AB636"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C298"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J314" sqref="J314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="19:19">
-      <c r="S2" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="19:20">
-      <c r="S3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="19:19">
-      <c r="S5" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="19:20">
-      <c r="S6" t="s">
-        <v>196</v>
-      </c>
-      <c r="T6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="19:19">
-      <c r="S12" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="19:19">
-      <c r="S13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="19:19">
-      <c r="S18" s="22"/>
-    </row>
-    <row r="20" spans="19:19">
-      <c r="S20" s="22"/>
-    </row>
-    <row r="21" spans="19:19">
-      <c r="S21" s="22"/>
-    </row>
-    <row r="91" spans="28:28">
-      <c r="AB91" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="633" spans="26:28">
-      <c r="Z633" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA633" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB633" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="634" spans="28:28">
-      <c r="AB634" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="635" spans="26:28">
-      <c r="Z635" s="23"/>
-      <c r="AA635" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB635" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="636" spans="26:27">
-      <c r="Z636" s="23"/>
-      <c r="AA636" s="23" t="s">
-        <v>207</v>
-      </c>
+    <row r="2" spans="2:2">
+      <c r="B2" s="45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="45"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="18.75">
+      <c r="B17" s="46"/>
+    </row>
+    <row r="58" spans="3:3" ht="18.75">
+      <c r="C58" s="46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262" s="45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298" s="45"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="S2:AB636"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="19:20">
+      <c r="S2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="19:20">
+      <c r="S3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="19:20">
+      <c r="S5" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="19:20">
+      <c r="S6" t="s">
+        <v>196</v>
+      </c>
+      <c r="T6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="19:20" ht="15">
+      <c r="S12" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="19:20">
+      <c r="S13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="19:19" ht="14.25">
+      <c r="S18" s="22"/>
+    </row>
+    <row r="20" spans="19:19" ht="14.25">
+      <c r="S20" s="22"/>
+    </row>
+    <row r="21" spans="19:19" ht="14.25">
+      <c r="S21" s="22"/>
+    </row>
+    <row r="91" spans="28:28">
+      <c r="AB91" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="633" spans="26:28">
+      <c r="Z633" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA633" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB633" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="634" spans="26:28">
+      <c r="AB634" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="635" spans="26:28">
+      <c r="Z635" s="23"/>
+      <c r="AA635" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB635" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="636" spans="26:28">
+      <c r="Z636" s="23"/>
+      <c r="AA636" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="75"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:12">
       <c r="B1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" ht="31.2" spans="2:2">
+    <row r="2" spans="2:12" ht="33">
       <c r="B2" s="17" t="s">
         <v>209</v>
       </c>
@@ -18774,92 +18859,92 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:2">
+    <row r="6" spans="2:12" ht="15.75">
       <c r="B6" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:12">
       <c r="B8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:12">
       <c r="B11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:12" ht="15">
       <c r="B13" s="19" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:12" ht="15">
       <c r="B15" s="19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:12" ht="15">
       <c r="B16" s="19" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" ht="15">
       <c r="B18" s="19" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" ht="15">
       <c r="B19" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" ht="15">
       <c r="B20" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" ht="15">
       <c r="B21" s="19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" ht="15">
       <c r="B22" s="19" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" ht="15">
       <c r="B23" s="19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" ht="15">
       <c r="B24" s="19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" ht="15">
       <c r="B25" s="19" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" ht="15">
       <c r="B26" s="19" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" ht="15">
       <c r="B27" s="19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" ht="15">
       <c r="B28" s="19" t="s">
         <v>43</v>
       </c>
@@ -18869,93 +18954,93 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:3" ht="15">
       <c r="B33" s="19" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:3" ht="15">
       <c r="B34" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:3" ht="15">
       <c r="B35" s="19" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:3" ht="15">
       <c r="B36" s="19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:3" ht="15">
       <c r="B37" s="19" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:3" ht="15">
       <c r="B38" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:3" ht="15">
       <c r="B39" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:3" ht="15">
       <c r="B40" s="19" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:3" ht="15">
       <c r="B41" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" ht="15">
       <c r="B42" s="20" t="s">
         <v>238</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:3" ht="15">
       <c r="B43" s="20" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:3" ht="15">
       <c r="B44" s="20" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:3" ht="15">
       <c r="B45" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:3" ht="15">
       <c r="B46" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:3" ht="15">
       <c r="B47" s="19" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:3" ht="15">
       <c r="B48" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" ht="15">
       <c r="B49" s="19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" ht="15">
       <c r="B50" s="19" t="s">
         <v>246</v>
       </c>
@@ -18985,7 +19070,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" ht="15">
       <c r="B64" s="3" t="s">
         <v>252</v>
       </c>
@@ -18995,7 +19080,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" ht="15">
       <c r="B68" s="19" t="s">
         <v>254</v>
       </c>
@@ -19025,7 +19110,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" ht="15">
       <c r="B81" s="19" t="s">
         <v>260</v>
       </c>
@@ -19055,17 +19140,17 @@
         <v>265</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" ht="15">
       <c r="B93" s="19" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" ht="15">
       <c r="B94" s="19" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" ht="15">
       <c r="B95" s="19" t="s">
         <v>43</v>
       </c>
@@ -19116,64 +19201,63 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="75"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId2" display="JSF 2.2ではf:eventのpreRenderViewではなくf:viewActionを使う？" tooltip="http://den2sn.hatenablog.com/entry/2013/06/24/221358"/>
-    <hyperlink ref="B4" r:id="rId3" display="java" tooltip="http://den2sn.hatenablog.com/archive/category/java"/>
-    <hyperlink ref="B7" r:id="rId4" display="基本はJSF 2.0で初期画面表示時に処理を動作させる時に使っていた" tooltip="http://d.hatena.ne.jp/keyword/JSF"/>
-    <hyperlink ref="B53" r:id="rId5" display="f:viewActionのactionでバッキングビーンのinitメソッドを呼び出しています。" tooltip="http://d.hatena.ne.jp/keyword/%A5%E1%A5%BD%A5%C3%A5%C9"/>
-    <hyperlink ref="B57" r:id="rId5" display="画面を表示するとinitメソッドが動作してカウントが1と表示されます。" tooltip="http://d.hatena.ne.jp/keyword/%A5%E1%A5%BD%A5%C3%A5%C9"/>
-    <hyperlink ref="B99" r:id="rId6" display="とするとactionViewに遷移します。" tooltip="http://d.hatena.ne.jp/keyword/actionView"/>
-    <hyperlink ref="B106" r:id="rId7" display="http://xmlns.jcp.org/jsf/core" tooltip="http://xmlns.jcp.org/jsf/core"/>
-    <hyperlink ref="B113" r:id="rId8" display="http://java.sun.com/jsf/core" tooltip="http://java.sun.com/jsf/core"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://den2sn.hatenablog.com/entry/2013/06/24/221358"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="http://den2sn.hatenablog.com/archive/category/java"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="http://d.hatena.ne.jp/keyword/JSF"/>
+    <hyperlink ref="B53" r:id="rId4" tooltip="http://d.hatena.ne.jp/keyword/%A5%E1%A5%BD%A5%C3%A5%C9"/>
+    <hyperlink ref="B57" r:id="rId5" tooltip="http://d.hatena.ne.jp/keyword/%A5%E1%A5%BD%A5%C3%A5%C9"/>
+    <hyperlink ref="B99" r:id="rId6" tooltip="http://d.hatena.ne.jp/keyword/actionView"/>
+    <hyperlink ref="B106" r:id="rId7" tooltip="http://xmlns.jcp.org/jsf/core"/>
+    <hyperlink ref="B113" r:id="rId8" tooltip="http://java.sun.com/jsf/core"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" ht="35.4" spans="2:2">
+    <row r="2" spans="1:18" ht="36">
       <c r="B2" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="2:2">
+    <row r="3" spans="1:18" ht="15">
       <c r="B3" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="2:2">
+    <row r="4" spans="1:18" ht="15">
       <c r="B4" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" spans="1:18" ht="15">
       <c r="B5" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:2">
+    <row r="6" spans="1:18" ht="15">
       <c r="B6" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:2">
+    <row r="7" spans="1:18" ht="15">
       <c r="B7" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:18">
+    <row r="8" spans="1:18" ht="15">
       <c r="A8" s="1" t="s">
         <v>283</v>
       </c>
@@ -19197,128 +19281,127 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" ht="15" spans="2:2">
+    <row r="9" spans="1:18" ht="15">
       <c r="B9" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:2">
+    <row r="10" spans="1:18" ht="14.25">
       <c r="B10" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="2:2">
+    <row r="11" spans="1:18" ht="15">
       <c r="B11" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:2">
+    <row r="12" spans="1:18" ht="15">
       <c r="B12" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="2:2">
+    <row r="13" spans="1:18" ht="15">
       <c r="B13" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:2">
+    <row r="14" spans="1:18" ht="15">
       <c r="B14" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="2:2">
+    <row r="15" spans="1:18" ht="15">
       <c r="B15" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" ht="14.25">
       <c r="B17" s="11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" ht="14.25">
       <c r="B18" s="11" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" ht="14.25">
       <c r="B19" s="11" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" ht="14.25">
       <c r="B21" s="12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" ht="14.25">
       <c r="B22" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" ht="14.25">
       <c r="B24" s="14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" ht="14.25">
       <c r="B25" s="15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" ht="14.25">
       <c r="B26" s="11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" ht="14.25">
       <c r="B27" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="2:2">
+    <row r="29" spans="2:2" ht="15">
       <c r="B29" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="2:2">
+    <row r="30" spans="2:2" ht="15">
       <c r="B30" s="16" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="75"/>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" display="https://github.com/backpaper0/sandbox/tree/master/javaee-startup-sample" tooltip="https://github.com/backpaper0/sandbox/tree/master/javaee-startup-sample"/>
+    <hyperlink ref="B30" r:id="rId1" tooltip="https://github.com/backpaper0/sandbox/tree/master/javaee-startup-sample"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C81:BO132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.11111111111111" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.11111111111111" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="81" spans="67:67">
+    <row r="81" spans="4:67">
       <c r="BO81" s="2"/>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:67">
       <c r="D83" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="3:11">
+    <row r="130" spans="3:31">
       <c r="C130" s="1" t="s">
         <v>303</v>
       </c>
@@ -19326,7 +19409,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="132" spans="4:31">
+    <row r="132" spans="3:31">
       <c r="D132" t="s">
         <v>305</v>
       </c>
@@ -19344,8 +19427,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="75"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/勉強メモ-2017-Z.xlsx
+++ b/勉強メモ-2017-Z.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="9810" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="9810" tabRatio="827" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="目録" sheetId="18" r:id="rId1"/>
@@ -30,13 +30,16 @@
     <sheet name="クレジットカード" sheetId="8" r:id="rId16"/>
     <sheet name="SSH-Linux" sheetId="16" r:id="rId17"/>
     <sheet name="SSH-Windows" sheetId="17" r:id="rId18"/>
+    <sheet name="Cドライバコピー" sheetId="19" r:id="rId19"/>
+    <sheet name="Javaマルチスレッド" sheetId="20" r:id="rId20"/>
+    <sheet name="java色々" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1125">
   <si>
     <t>windows 10 で MD5値計算</t>
   </si>
@@ -16989,6 +16992,1595 @@
       </rPr>
       <t>" MD5</t>
     </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>Cドライバ　丸ごとコピー</t>
+    <rPh sb="6" eb="7">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> http://enjoypclife.net/2015/05/21/hdd-ssd-c-system-drive-windows-os-copy-clone-easeus-todo-backup-usage/</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>&lt;style type="text/css"&gt; .wpb_animate_when_almost_visible { opacity: 1; }&lt;/style&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HDD / SSD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ドライブ（システムドライブ）を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>丸ごとコピー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クローンできるフリーソフト「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Easeus Todo Backup 8.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」の使い方解説！</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>Javaマルチスレッド</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>非同期・並列処理、同期方法</t>
+    <rPh sb="0" eb="3">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>■JAVA並列処理</t>
+    <rPh sb="5" eb="7">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>並列処理　－　スレッド</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>プログラムの処理の流れを分けて並行動作をさせ、効率的にプログラムの実行を行う。</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PU マルチコアになってるので、並列処理性能も上がってる</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>■スレッドの作成方法　－　２種類</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>un()内に並行処理命令記述</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>・Threadクラス継承</t>
+    <rPh sb="10" eb="12">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>・Runnable IF実装</t>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>←　推奨</t>
+    <rPh sb="2" eb="4">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>←シンプルに実行可能</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>obj作成し、このobjを元にThread objを作成し、 start()で実行。</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>obj作成し、start()で実行</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>IF多重継承可</t>
+    <rPh sb="2" eb="4">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>■s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leep ,  join</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// 処理を1000ms停止する。</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// スレッド処理が終了するのを待機</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>・Thread.sleep(1000);</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>スレッド終了を待って、メインの流れに交流する。。</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウリュウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>画像描画など、処理を少しゆっくり目にする場合。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>■s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ynchronized(同期）</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>１度に１つのスレッドしか処理できない（排他処理）</t>
+    <rPh sb="1" eb="2">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>・メソッドに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synchronized修飾子</t>
+    </r>
+    <rPh sb="18" eb="21">
+      <t>シュウショクシ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>※スレッド処理において処理の矛盾を起こさない仕組み。。</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ムジュン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>■e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.g.</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class YoyakuSrv extends </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// １度に１つのスレッドのみ実行可能 (static有無両方可能）</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tatic int zaseki;  //座席数</t>
+    </r>
+    <rPh sb="22" eb="25">
+      <t>ザセキスウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>YoyakuSrv.zaseki--;</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hile(YoyakuSrv.zaseki != 0){</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ystem.out.println("残り座席数は" + YoyakuSrv.zaseki + "席です。");</t>
+    </r>
+    <rPh sb="20" eb="21">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ザセキスウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>セキ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ry{</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>catch(InterruptedException e){</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.printStackTrace();</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//end try</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//end while</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//end class</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class User implements </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Runnable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Override</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ublic void run(){</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>int time = (int)(Math.random() * 1000 + 1000);  //1s-2sの乱数発生</t>
+    <rPh sb="56" eb="58">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hread.sleep(time);  //try-catch要</t>
+    </r>
+    <rPh sb="32" eb="33">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oyakuSrv.yoyaku();</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//end class</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> static void yoyaku(){</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>□実行方法</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ublic static void main(String[] args){</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oyakuSrv.zaseki = 5;  //座席数を設定</t>
+    </r>
+    <rPh sb="25" eb="28">
+      <t>ザセキスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oyakuSrv ys = new YoyakuSrv();</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s.start();</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //YoyakuSrv.run()を別スレッドで実行</t>
+    </r>
+    <rPh sb="20" eb="21">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  //ys スレッドの実行終了を待ってから、次の処理再開</t>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>・join()</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>ys.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>join();</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ry-catch要</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ystem.out.println("予約受付を終了しました。");</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>}//end main()</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>User[] user = new User[5];</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>for(int i=0; i&lt;user.length(); i++){</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ser[i] = new User();</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>}//end for</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>Thread[] th = new Thread[5];</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>th[i] = new Thread(user[i]);</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>th[i].start();</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sleep(200);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  //200ms待つ</t>
+    </r>
+    <rPh sb="20" eb="21">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>System.out.println("予約手続きをしました。" + time);</t>
+    <rPh sb="20" eb="22">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テツヅ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>■まとめ</t>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>・スレッドの作成方法は２種類ある</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>・r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>un()にスレッド処理を記述</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>・s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leep()で処理を一時停止</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>・j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oin()でスレッドが終了するのを待つ</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>・s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ynchronized修飾子で１度に１スレッドまでの処理にできる</t>
+    </r>
+    <rPh sb="13" eb="16">
+      <t>シュウショクシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>start()でスレッドを呼び出す</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ava色々</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>イロイロ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t>■@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Override</t>
+    </r>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>スーパークラスのメソッドをサブクラスで書き直すこと。</t>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Override無し時、もしサブクラスでスペルミスなどしたら、オーバーライドではなく、新しい関数とみなされる。　当たり前</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Override記述することで、スペルミスや存在しないメソッドをオーバーライドしているという問題がする明らかになる。</t>
+    <rPh sb="10" eb="12">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Ovriride記述</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>これはオーバーライドメソッドです。もしオーバーライドされていなければエラーを出力せよ。開発者さんもそういうことでよろしく。</t>
+    <rPh sb="38" eb="40">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>カイハツシャ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Override有無に関わらずオーバーライドはされる。書いてなくても、プログラムの動作に悪影響が出るなんてことはない。</t>
+    <rPh sb="10" eb="12">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>アクエイキョウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>推奨：　だれでも書こう</t>
+    <rPh sb="0" eb="2">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="75"/>
+  </si>
+  <si>
+    <t>少ない記述量で、コンパイラにとっても開発者にとっても有意となるものなので、だれでも書くべき。</t>
+    <rPh sb="0" eb="1">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="75"/>
   </si>
 </sst>
@@ -16996,7 +18588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="120">
+  <fonts count="123">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17801,6 +19393,25 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -17901,7 +19512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -18054,6 +19665,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -33726,8 +35338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -33934,21 +35546,29 @@
       <c r="B20" s="83">
         <v>18</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="89" t="s">
+        <v>1034</v>
+      </c>
       <c r="D20" s="83"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="83">
         <v>19</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
+      <c r="C21" s="89" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="83">
         <v>20</v>
       </c>
-      <c r="C22" s="83"/>
+      <c r="C22" s="89" t="s">
+        <v>1115</v>
+      </c>
       <c r="D22" s="83"/>
     </row>
     <row r="23" spans="2:4">
@@ -34020,8 +35640,12 @@
     <hyperlink ref="C17" location="クレジットカード!A1" display="クレジットカード"/>
     <hyperlink ref="C18" location="'SSH-Linux'!A1" display="SSH-Linux"/>
     <hyperlink ref="C19" location="'SSH-Windows'!A1" display="SSH-Windows"/>
+    <hyperlink ref="C20" location="Cドライバコピー!A1" display="Cドライバ　丸ごとコピー"/>
+    <hyperlink ref="C21" location="Javaマルチスレッド!A1" display="Javaマルチスレッド"/>
+    <hyperlink ref="C22" location="java色々!A1" display="java色々"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36188,6 +37812,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="43" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="43" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="14.25">
+      <c r="B5" s="92" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J48"/>
@@ -36379,6 +38034,480 @@
   </sheetData>
   <phoneticPr fontId="75"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:16">
+      <c r="B2" s="43" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="C4" s="43" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="D5" s="43" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="D7" s="43" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="43" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="C11" s="55" t="s">
+        <v>1046</v>
+      </c>
+      <c r="P11" s="43"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="D12" s="43" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="D13" s="43" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="C15" s="55" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P15" s="43" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="D16" s="43" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="D17" s="43" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="43" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="C21" s="55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="C22" s="55"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="C24" s="55" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="K25" s="43" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="43" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="C28" s="43" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="D29" s="43" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="D30" s="43" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="43" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="43" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="D38" s="43" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="E39" s="43" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="D40" s="43" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="D42" s="43" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="E43" s="43" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="F44" s="43" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="F46" s="43" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="G47" s="43" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="F48" s="43" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="G49" s="43" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="F50" s="43" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="E51" s="43" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="C52" s="43" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="43" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="D56" s="43" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="D57" s="43" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="E59" s="43" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="E61" s="43" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="E63" s="43" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="E65" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="D67" s="43" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="C68" s="43" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="43" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="C73" s="43" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="D75" s="43" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="D76" s="43"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="D77" s="43" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="D79" s="43" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G79" s="43" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="D80" s="43"/>
+      <c r="G80" s="43"/>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="D81" s="43" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G81" s="43"/>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="D82" s="43" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G82" s="43"/>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="D83" s="43" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="43"/>
+      <c r="M83" s="43"/>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="D84" s="43"/>
+      <c r="E84" s="43" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G84" s="43"/>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="G85" s="43"/>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="D86" s="43"/>
+      <c r="E86" s="45" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G86" s="43"/>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="D87" s="43"/>
+      <c r="E87" s="45" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G87" s="43"/>
+    </row>
+    <row r="88" spans="2:13">
+      <c r="D88" s="43" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G88" s="43"/>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="D90" s="55" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G90" s="43" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13">
+      <c r="H91" s="43" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="D92" s="43" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="C93" s="43" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13">
+      <c r="B96" s="43" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="43" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="43" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="43" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="43" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="43" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="43" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="43" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" s="43" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" s="55" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" s="43" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="C10" s="45" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" s="43" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" s="43" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" s="43" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="D16" s="43" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/勉強メモ-2017-Z.xlsx
+++ b/勉強メモ-2017-Z.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19451" windowHeight="8687" tabRatio="827"/>
+    <workbookView windowWidth="19451" windowHeight="7512" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="目録" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090">
   <si>
     <t>category</t>
   </si>
@@ -354,6 +354,13 @@
     </r>
   </si>
   <si>
+    <t>C/C++/
+MFC</t>
+  </si>
+  <si>
+    <t>html css js</t>
+  </si>
+  <si>
     <t>windows 10 で MD5値計算</t>
   </si>
   <si>
@@ -380,6 +387,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> [</t>
@@ -398,6 +406,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">] </t>
@@ -416,6 +425,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> [</t>
@@ -433,6 +443,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>]</t>
@@ -468,6 +479,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -486,6 +498,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -598,6 +611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>" MD5</t>
@@ -3420,6 +3434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>- PrimeFacesのMenuBar利用</t>
@@ -8646,6 +8661,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>/primefaces.js.jsf?ln=</t>
@@ -8664,6 +8680,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>&amp;v=3.5.10</t>
@@ -13019,6 +13036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>- backing bean</t>
@@ -16502,6 +16520,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>@</t>
@@ -16980,12 +16999,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="141">
+  <fonts count="148">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17450,37 +17469,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17488,21 +17485,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17517,10 +17499,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17532,18 +17514,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17564,7 +17546,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17576,6 +17558,69 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -17679,12 +17724,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -17752,6 +17791,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF2B91AF"/>
       <name val="Consolas"/>
@@ -17770,12 +17823,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -17932,7 +17999,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17965,7 +18032,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17977,133 +18170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18121,13 +18194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18139,13 +18206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18461,6 +18522,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -18472,50 +18542,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18545,6 +18571,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -18558,13 +18599,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -18573,140 +18634,140 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="81" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="83" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -18864,9 +18925,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -18899,7 +18957,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34808,8 +34868,8 @@
   <sheetPr/>
   <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -34854,84 +34914,84 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="95"/>
-      <c r="C4" s="96">
+      <c r="B4" s="91"/>
+      <c r="C4" s="95">
         <v>2</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="95"/>
-      <c r="C5" s="96">
+      <c r="B5" s="91"/>
+      <c r="C5" s="95">
         <v>3</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="99"/>
+      <c r="E5" s="98"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="95"/>
-      <c r="C6" s="96">
+      <c r="B6" s="91"/>
+      <c r="C6" s="95">
         <v>4</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="97" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="95"/>
-      <c r="C7" s="96">
+      <c r="B7" s="91"/>
+      <c r="C7" s="95">
         <v>5</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="97" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="95"/>
-      <c r="C8" s="96">
+      <c r="B8" s="91"/>
+      <c r="C8" s="95">
         <v>6</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="97" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="95"/>
-      <c r="C9" s="96">
+      <c r="B9" s="91"/>
+      <c r="C9" s="95">
         <v>7</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="97" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="95"/>
-      <c r="C10" s="96">
+      <c r="B10" s="91"/>
+      <c r="C10" s="95">
         <v>8</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="97" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -34939,146 +34999,146 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="95"/>
-      <c r="C11" s="96">
+      <c r="B11" s="91"/>
+      <c r="C11" s="95">
         <v>9</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="97" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="95"/>
-      <c r="C12" s="96">
+      <c r="B12" s="91"/>
+      <c r="C12" s="95">
         <v>10</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="99" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="95"/>
-      <c r="C13" s="96">
+      <c r="B13" s="91"/>
+      <c r="C13" s="95">
         <v>11</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="97" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="95"/>
-      <c r="C14" s="96">
+      <c r="B14" s="91"/>
+      <c r="C14" s="95">
         <v>12</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="99" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="95"/>
-      <c r="C15" s="96">
+      <c r="B15" s="91"/>
+      <c r="C15" s="95">
         <v>13</v>
       </c>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="97" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="95"/>
-      <c r="C16" s="96">
+      <c r="B16" s="91"/>
+      <c r="C16" s="95">
         <v>14</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="103"/>
+      <c r="E16" s="102"/>
     </row>
     <row r="17" ht="15.15" spans="2:5">
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="107"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="106"/>
     </row>
     <row r="18" ht="15.15" spans="3:5">
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="108"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="107"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19" s="110">
         <v>1</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="112"/>
+      <c r="E19" s="111"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="113"/>
-      <c r="C20" s="114">
+      <c r="B20" s="112"/>
+      <c r="C20" s="113">
         <v>2</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="99"/>
+      <c r="E20" s="98"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="113"/>
-      <c r="C21" s="114">
+      <c r="B21" s="112"/>
+      <c r="C21" s="113">
         <v>3</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="E21" s="98"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="113"/>
-      <c r="C22" s="114">
+      <c r="B22" s="112"/>
+      <c r="C22" s="113">
         <v>4</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" ht="15.15" spans="2:5">
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="119"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="118"/>
     </row>
     <row r="24" ht="15.15" spans="3:5">
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="111">
+      <c r="C25" s="110">
         <v>1</v>
       </c>
       <c r="D25" s="93" t="s">
@@ -35089,58 +35149,63 @@
       </c>
     </row>
     <row r="26" ht="15.15" spans="2:5">
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="107"/>
-    </row>
-    <row r="27" ht="15.15" spans="3:5">
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="106"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
+      <c r="B28" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="110"/>
       <c r="D28" s="93"/>
       <c r="E28" s="94"/>
     </row>
-    <row r="29" ht="15.15" spans="2:5">
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="107"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="120"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
+    <row r="29" spans="2:5">
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="106"/>
+    </row>
+    <row r="30" ht="15.15" spans="2:5">
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="120"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
+      <c r="B31" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="110"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="94"/>
+    </row>
+    <row r="32" ht="15.15" spans="2:5">
+      <c r="B32" s="116"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="106"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:B17"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" location="Enum!A1" display="Enum"/>
@@ -35182,138 +35247,138 @@
   <sheetData>
     <row r="2" spans="2:46">
       <c r="B2" s="3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AT2" s="28" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="AT4" s="28" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="47:47">
       <c r="AU5" s="3" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="2:48">
       <c r="B6" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" ht="18" spans="3:46">
       <c r="C8" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AT8" s="41" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="3:47">
       <c r="C9" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="47:47">
       <c r="AU10" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="3:48">
       <c r="C11" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="2:47">
       <c r="B13" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="48:48">
       <c r="AV14" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" ht="15" spans="3:62">
       <c r="C15" s="40"/>
       <c r="BJ15" s="28" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="48:48">
       <c r="AV16" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" spans="48:48">
       <c r="AV17" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="48:48">
       <c r="AV18" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="48:48">
       <c r="AV20" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="28" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22" spans="3:48">
       <c r="C22" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="23" spans="3:48">
       <c r="C23" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="49:49">
       <c r="AW24" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="2:49">
       <c r="B25" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AW25" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="48:48">
       <c r="AV26" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" ht="15" spans="3:3">
@@ -35321,71 +35386,71 @@
     </row>
     <row r="28" spans="48:48">
       <c r="AV28" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="29" spans="48:48">
       <c r="AV29" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="49:49">
       <c r="AW30" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="31" spans="48:48">
       <c r="AV31" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="48:48">
       <c r="AV33" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="2:49">
       <c r="B34" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="35" spans="49:49">
       <c r="AW35" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" ht="15" spans="3:50">
       <c r="C36" s="40"/>
       <c r="AX36" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="37" spans="50:50">
       <c r="AX37" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38" spans="49:49">
       <c r="AW38" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="48:48">
       <c r="AV39" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="48:48">
       <c r="AV42" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" ht="15" spans="3:48">
@@ -35393,104 +35458,104 @@
       <c r="Q44" s="40"/>
       <c r="AE44" s="40"/>
       <c r="AV44" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="46:46">
       <c r="AT46" s="28" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="48:48">
       <c r="AV49" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" ht="15" spans="2:48">
       <c r="B50" s="40"/>
       <c r="AV50" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="48:48">
       <c r="AV53" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="48:48">
       <c r="AV55" s="3" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="49:49">
       <c r="AW56" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="57" spans="49:49">
       <c r="AW57" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="58" spans="49:49">
       <c r="AW58" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="59" spans="2:49">
       <c r="B59" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AW59" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="60" spans="49:49">
       <c r="AW60" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="61" spans="3:48">
       <c r="C61" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AV61" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="68" ht="15" spans="3:3">
@@ -35498,70 +35563,70 @@
     </row>
     <row r="69" spans="17:17">
       <c r="Q69" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="70" spans="20:20">
       <c r="T70" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71" spans="22:22">
       <c r="V71" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="72" spans="22:22">
       <c r="V72" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" s="42" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="80" spans="6:14">
       <c r="F80" s="28" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -35587,375 +35652,375 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="28" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="28" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="33" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="33" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="33" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="33" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="33" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="3:20">
       <c r="C38" s="34" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="39" spans="3:21">
       <c r="C39" s="35" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="33" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="34" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="35" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="34" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="34" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="47" spans="17:17">
       <c r="Q47" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="48" spans="3:18">
       <c r="C48" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="50" spans="18:18">
       <c r="R50" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="51" spans="4:19">
       <c r="D51" s="28" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="S51" s="28" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="33" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="33" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="33" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="33" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="33" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="33" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="33" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="33" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="33" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="33" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="33" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="33" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="33" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="33" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="75" spans="3:9">
       <c r="C75" s="3" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="76" ht="15.15"/>
     <row r="77" ht="15.15" spans="3:3">
       <c r="C77" s="36" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" ht="15.15" spans="3:3">
       <c r="C78" s="33" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="79" ht="15.15" spans="3:3">
       <c r="C79" s="36" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="33" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="33" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="82" ht="15.15" spans="3:3">
       <c r="C82" s="33" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="83" ht="15.15" spans="3:3">
       <c r="C83" s="36" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="33" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="85" ht="15.15" spans="3:3">
       <c r="C85" s="33" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="86" ht="15.15" spans="3:3">
       <c r="C86" s="36" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="87" ht="15.15" spans="3:3">
       <c r="C87" s="36" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="33" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="89" ht="15.15" spans="3:3">
@@ -35963,12 +36028,12 @@
     </row>
     <row r="90" ht="15.15" spans="3:3">
       <c r="C90" s="36" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="33" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="92" ht="15.15" spans="3:3">
@@ -35976,12 +36041,12 @@
     </row>
     <row r="93" ht="15.15" spans="3:3">
       <c r="C93" s="36" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" ht="15.15" spans="3:3">
       <c r="C94" s="36" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="95" spans="3:3">
@@ -35989,17 +36054,17 @@
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="33" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="33" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="33" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -36007,37 +36072,37 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="33" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="101" ht="15.15" spans="3:3">
       <c r="C101" s="33" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="102" ht="15.15" spans="3:3">
       <c r="C102" s="36" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="38" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="33" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="33" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="33" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="107" ht="15.15" spans="1:3">
@@ -36045,22 +36110,22 @@
         <v>20</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="108" ht="15.15" spans="3:3">
       <c r="C108" s="36" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="3" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="113" spans="3:3">
@@ -36068,86 +36133,86 @@
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="134" spans="3:12">
       <c r="C134" s="34" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="33" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="33" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="33" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="138" spans="3:12">
       <c r="C138" s="33" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="139" spans="3:12">
       <c r="C139" s="33" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="33" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="33" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="33" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="33" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" s="33" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="34" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="33" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -36170,12 +36235,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -36183,282 +36248,282 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="3" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="3" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="28" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="29" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="29" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="29" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="29" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="29" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="78" spans="4:4">
@@ -36466,77 +36531,77 @@
     </row>
     <row r="79" spans="4:4">
       <c r="D79" s="29" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" s="29" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" s="29" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="29" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="29" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="29" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="29" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" s="29" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="29" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" s="29" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" s="29" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" s="29" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" s="29" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" s="29" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" s="29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="4:4">
@@ -36544,67 +36609,67 @@
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" s="32" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" s="3" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" s="1" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="3" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -36631,33 +36696,33 @@
     </row>
     <row r="3" spans="19:20">
       <c r="S3" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="T3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="19:19">
       <c r="S5" s="5" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="19:20">
       <c r="S6" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="T6" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="19:19">
       <c r="S12" s="25" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="13" spans="19:19">
       <c r="S13" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="18" spans="19:19">
@@ -36671,38 +36736,38 @@
     </row>
     <row r="91" spans="28:28">
       <c r="AB91" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="633" spans="26:28">
       <c r="Z633" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="AA633" s="27" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AB633" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="634" spans="28:28">
       <c r="AB634" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="635" spans="26:28">
       <c r="Z635" s="27"/>
       <c r="AA635" s="27" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="AB635" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="636" spans="26:27">
       <c r="Z636" s="27"/>
       <c r="AA636" s="27" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -36725,361 +36790,361 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2" ht="31.2" spans="2:2">
       <c r="B2" s="21" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
       <c r="B6" s="22" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="23" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="23" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="23" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="23" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="23" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="23" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="23" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="23" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="23" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="23" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="23" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="23" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="23" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="23" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="23" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="23" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="23" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="23" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="23" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="23" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="23" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="23" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="24" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="24" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="24" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="23" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="23" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="23" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="23" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="23" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="7" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="7" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="23" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="23" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="23" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="23" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -37112,40 +37177,40 @@
   <sheetData>
     <row r="2" ht="35.4" spans="2:2">
       <c r="B2" s="8" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" ht="15" spans="2:2">
       <c r="B3" s="9" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" ht="15" spans="2:2">
       <c r="B4" s="10" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="2:2">
       <c r="B5" s="10" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
       <c r="B6" s="10" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="2:2">
       <c r="B7" s="10" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -37166,92 +37231,92 @@
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="9" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="2:2">
       <c r="B10" s="12" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="2:2">
       <c r="B11" s="13" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="2:2">
       <c r="B12" s="13" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="9" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="2:2">
       <c r="B14" s="14" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:2">
       <c r="B15" s="9" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="16" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="18" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="19" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="15" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:2">
       <c r="B29" s="9" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="30" ht="15" spans="2:2">
       <c r="B30" s="20" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
   </sheetData>
@@ -37282,32 +37347,32 @@
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="5" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="130" spans="3:11">
       <c r="C130" s="5" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="132" spans="4:31">
       <c r="D132" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="L132" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="R132" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="Y132" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="AE132" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -37362,17 +37427,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="4" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -37397,45 +37462,45 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="3:10">
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -37447,127 +37512,127 @@
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="83" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -37589,270 +37654,270 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="3:16">
       <c r="C11" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="D13" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="21" spans="3:10">
       <c r="C21" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="2"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="25" spans="11:11">
       <c r="K25" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="38" spans="4:13">
       <c r="D38" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="76" spans="4:4">
@@ -37860,15 +37925,15 @@
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="79" spans="4:7">
       <c r="D79" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="80" spans="4:7">
@@ -37877,19 +37942,19 @@
     </row>
     <row r="81" spans="4:7">
       <c r="D81" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="4:7">
       <c r="D82" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="4:13">
       <c r="D83" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G83" s="1"/>
       <c r="M83" s="1"/>
@@ -37897,7 +37962,7 @@
     <row r="84" spans="4:7">
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="G84" s="1"/>
     </row>
@@ -37909,79 +37974,79 @@
     <row r="86" spans="4:7">
       <c r="D86" s="1"/>
       <c r="E86" s="3" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="4:7">
       <c r="D87" s="1"/>
       <c r="E87" s="3" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="4:7">
       <c r="D88" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="90" spans="4:7">
       <c r="D90" s="2" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -38003,47 +38068,47 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="2" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="3" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -38065,852 +38130,852 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="18.6" spans="10:10">
       <c r="J4" s="78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="3:11">
       <c r="C7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="3:12">
       <c r="C21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="10:10">
       <c r="J25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="11:11">
       <c r="K26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" ht="18.6" spans="10:10">
       <c r="J29" s="78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" ht="18.6" spans="10:10">
       <c r="J31" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" ht="18.6" spans="10:10">
       <c r="J32" s="78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" ht="18.6" spans="10:10">
       <c r="J33" s="78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" ht="18.6" spans="2:2">
       <c r="B67" s="78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" ht="18.6" spans="2:2">
       <c r="B69" s="78" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" ht="18.6" spans="2:2">
       <c r="B70" s="78" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" ht="18.6" spans="2:2">
       <c r="B71" s="78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" ht="18.6" spans="2:2">
       <c r="B88" s="78" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="28.8" spans="2:2">
       <c r="B91" s="79" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" ht="18.6" spans="2:2">
       <c r="B92" s="78" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" ht="18.6" spans="2:2">
       <c r="B104" s="78" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="152" spans="4:4">
       <c r="D152" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="5:5">
       <c r="E154" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="155" spans="5:5">
       <c r="E155" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="4:4">
       <c r="D158" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="4:4">
       <c r="D159" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163" spans="4:4">
       <c r="D163" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="4:4">
       <c r="D164" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165" spans="5:5">
       <c r="E165" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166" spans="4:4">
       <c r="D166" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167" spans="3:3">
       <c r="C167" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" ht="18.6" spans="2:2">
       <c r="B170" s="78" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" ht="18.6" spans="2:2">
       <c r="B172" s="78" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" s="25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="4:4">
       <c r="D178" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180" spans="5:5">
       <c r="E180" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181" spans="6:6">
       <c r="F181" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" spans="6:6">
       <c r="F182" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="184" spans="4:4">
       <c r="D184" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="185" spans="4:4">
       <c r="D185" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="189" ht="18.6" spans="2:2">
       <c r="B189" s="78" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" ht="18.6" spans="2:2">
       <c r="B194" s="78" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196" ht="22.2" spans="2:2">
       <c r="B196" s="80" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198" ht="18.6" spans="2:2">
       <c r="B198" s="81" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199" ht="18.6" spans="2:2">
       <c r="B199" s="81" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="200" ht="18.6" spans="2:2">
       <c r="B200" s="81" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201" ht="18.6" spans="2:2">
       <c r="B201" s="81" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -38935,202 +39000,202 @@
   <sheetData>
     <row r="2" ht="15" spans="2:2">
       <c r="B2" s="69" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="2:2">
       <c r="B4" s="70" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="72" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="71" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:2">
       <c r="B15" s="71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:2">
       <c r="B17" s="73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="2:2">
       <c r="B19" s="74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" ht="15" spans="2:2">
       <c r="B23" s="75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" ht="15" spans="2:2">
       <c r="B24" s="76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" ht="15" spans="2:2">
       <c r="B25" s="76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" ht="15" spans="2:2">
       <c r="B27" s="71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:2">
       <c r="B29" s="73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" ht="15" spans="2:2">
       <c r="B31" s="71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" ht="15" spans="2:2">
       <c r="B33" s="76" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" ht="15" spans="2:2">
       <c r="B34" s="75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" ht="15" spans="2:2">
       <c r="B35" s="76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" ht="15" spans="2:2">
       <c r="B36" s="75" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" ht="15" spans="2:2">
       <c r="B37" s="75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" ht="15" spans="2:2">
       <c r="B38" s="77" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" ht="15" spans="2:2">
       <c r="B40" s="71" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" ht="15" spans="2:2">
       <c r="B42" s="73" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" ht="16.8" spans="2:2">
       <c r="B44" s="74" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" ht="15" spans="2:2">
       <c r="B46" s="76" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" ht="15" spans="2:2">
       <c r="B47" s="76" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" ht="15" spans="2:2">
       <c r="B48" s="76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" ht="16.8" spans="2:2">
       <c r="B50" s="71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" ht="15" spans="2:2">
       <c r="B52" s="73" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" ht="15" spans="2:2">
       <c r="B54" s="74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" ht="15" spans="2:2">
       <c r="B56" s="76" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" ht="15" spans="2:2">
       <c r="B57" s="76" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" ht="15" spans="2:2">
       <c r="B58" s="75" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" ht="15" spans="2:2">
       <c r="B59" s="76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" ht="16.8" spans="2:2">
       <c r="B61" s="71" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -39175,104 +39240,104 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="66" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="66" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" ht="18" spans="2:2">
       <c r="B17" s="68" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" ht="14.45" customHeight="1"/>
     <row r="31" ht="13.5" customHeight="1" spans="2:2">
       <c r="B31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1"/>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -39299,32 +39364,32 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -39332,17 +39397,17 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="2:2">
@@ -39350,17 +39415,17 @@
     </row>
     <row r="58" ht="17.4" spans="3:3">
       <c r="C58" s="65" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="262" spans="3:3">
       <c r="C262" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="298" spans="3:3">
@@ -39386,536 +39451,536 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="56" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="2:36">
       <c r="B2" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="2:36">
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AJ4" s="57"/>
     </row>
     <row r="28" spans="36:36">
       <c r="AJ28" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="36:36">
       <c r="AJ30" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="37:37">
       <c r="AK31" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="38:38">
       <c r="AL32" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="3:36">
       <c r="C34" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="37:37">
       <c r="AK35" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="38:38">
       <c r="AL36" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="37:37">
       <c r="AK37" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="38:38">
       <c r="AL38" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="36:36">
       <c r="AJ40" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="37:37">
       <c r="AK41" s="28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="38:38">
       <c r="AL42" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="37:37">
       <c r="AK43" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="38:38">
       <c r="AL44" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="37:37">
       <c r="AK45" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="38:38">
       <c r="AL46" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="36:36">
       <c r="AJ48" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="37:37">
       <c r="AK51" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="38:38">
       <c r="AL53" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="37:37">
       <c r="AK55" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="38:38">
       <c r="AL56" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="39:39">
       <c r="AM57" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="39:39">
       <c r="AM58" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="39:39">
       <c r="AM63" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="38:38">
       <c r="AL64" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="37:37">
       <c r="AK66" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="2:38">
       <c r="B67" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL67" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="2:37">
       <c r="B70" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AK70" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="2:38">
       <c r="B72" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL72" s="28" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="39:39">
       <c r="AM73" s="28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="2:38">
       <c r="B74" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL74" s="28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="38:38">
       <c r="AL76" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="38:38">
       <c r="AL78" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="39:39">
       <c r="AM79" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="38:38">
       <c r="AL80" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="37:37">
       <c r="AK83" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="38:38">
       <c r="AL85" s="28" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="39:39">
       <c r="AM86" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="39:39">
       <c r="AM88" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89" spans="38:38">
       <c r="AL89" s="28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="37:37">
       <c r="AK95" s="28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="3:41">
       <c r="C97" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AO97" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="3:37">
       <c r="C98" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AK98" s="28" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="3:38">
       <c r="C99" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL99" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="3:39">
       <c r="C100" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM100" s="42" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="3:38">
       <c r="C101" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL101" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="3:37">
       <c r="C102" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AK102" s="28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="3:40">
       <c r="C105" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AJ105" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN105" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="37:37">
       <c r="AK106" s="28" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="38:38">
       <c r="AL107" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="37:37">
       <c r="AK108" s="28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="36:40">
       <c r="AJ110" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN110" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="AN110" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="111" spans="37:37">
       <c r="AK111" s="28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="38:38">
       <c r="AL112" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="37:37">
       <c r="AK113" s="28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="36:45">
       <c r="AJ115" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AS115" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="37:37">
       <c r="AK116" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117" spans="38:38">
       <c r="AL117" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="37:37">
       <c r="AK118" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160" spans="2:8">
       <c r="B160" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="166" spans="3:3">
       <c r="C166" s="59" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="167" spans="3:22">
       <c r="C167" s="56" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="V167" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="3:23">
       <c r="C168" s="56" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="W168" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" spans="3:24">
       <c r="C169" s="31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="X169" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="3:24">
       <c r="C170" s="31" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="X170" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="171" spans="3:23">
       <c r="C171" s="31" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W171" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="3:24">
       <c r="C172" s="60" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X172" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="3:3">
       <c r="C173" s="31" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="31" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="3:3">
       <c r="C175" s="31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176" spans="3:5">
       <c r="C176" s="60" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E176" s="28"/>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" s="61" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="60" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="3:3">
       <c r="C179" s="62" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="3:3">
       <c r="C180" s="60" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="3:3">
       <c r="C181" s="60" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="182" spans="3:3">
@@ -39923,27 +39988,27 @@
     </row>
     <row r="183" spans="3:3">
       <c r="C183" s="31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="184" spans="3:3">
       <c r="C184" s="31" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="3:3">
       <c r="C185" s="56" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" s="31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="187" spans="3:3">
       <c r="C187" s="31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="188" spans="3:3">
@@ -39951,22 +40016,22 @@
     </row>
     <row r="189" spans="3:3">
       <c r="C189" s="31" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" s="56" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" s="31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="193" spans="3:3">
@@ -39974,22 +40039,22 @@
     </row>
     <row r="194" spans="3:3">
       <c r="C194" s="31" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="3:3">
       <c r="C195" s="56" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="197" spans="3:3">
       <c r="C197" s="31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="198" spans="3:3">
@@ -39997,22 +40062,22 @@
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="31" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="200" spans="3:3">
       <c r="C200" s="56" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" s="31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="202" spans="3:3">
       <c r="C202" s="31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="203" spans="3:3">
@@ -40020,22 +40085,22 @@
     </row>
     <row r="204" spans="3:3">
       <c r="C204" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="205" spans="3:3">
       <c r="C205" s="56" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="206" spans="3:3">
       <c r="C206" s="31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="207" spans="3:3">
       <c r="C207" s="31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="208" spans="3:3">
@@ -40043,27 +40108,27 @@
     </row>
     <row r="209" spans="3:3">
       <c r="C209" s="31" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="3:3">
       <c r="C210" s="56" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="211" spans="3:3">
       <c r="C211" s="31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" s="31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="213" spans="3:3">
       <c r="C213" s="60" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="214" spans="3:3">
@@ -40071,540 +40136,540 @@
     </row>
     <row r="215" spans="3:3">
       <c r="C215" s="31" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="216" spans="3:3">
       <c r="C216" s="60" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="217" spans="3:3">
       <c r="C217" s="60" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="220" spans="2:9">
       <c r="B220" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="247" spans="3:3">
       <c r="C247" s="59" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="248" spans="3:20">
       <c r="C248" s="56" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="T248" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="249" spans="3:21">
       <c r="C249" s="56" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="U249" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="3:22">
       <c r="C250" s="60" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="V250" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="251" spans="3:3">
       <c r="C251" s="31" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="252" spans="3:3">
       <c r="C252" s="60" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="253" spans="3:3">
       <c r="C253" s="60" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="254" spans="3:3">
       <c r="C254" s="31" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="255" spans="3:3">
       <c r="C255" s="31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="256" spans="3:3">
       <c r="C256" s="60" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="257" spans="3:3">
       <c r="C257" s="31" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="258" spans="3:3">
       <c r="C258" s="31" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="259" spans="3:3">
       <c r="C259" s="31" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="260" spans="3:3">
       <c r="C260" s="31" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="261" spans="3:3">
       <c r="C261" s="31" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="262" spans="3:3">
       <c r="C262" s="31" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="263" spans="3:3">
       <c r="C263" s="31" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="264" spans="3:3">
       <c r="C264" s="31" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="265" spans="3:3">
       <c r="C265" s="31" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="266" spans="3:3">
       <c r="C266" s="31" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="267" spans="3:3">
       <c r="C267" s="31" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="268" spans="3:3">
       <c r="C268" s="31" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="269" spans="3:3">
       <c r="C269" s="31" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="3:3">
       <c r="C270" s="31" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="271" spans="3:3">
       <c r="C271" s="31" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" s="60" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="273" spans="3:3">
       <c r="C273" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274" s="31" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="275" spans="3:3">
       <c r="C275" s="60" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" s="60" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="278" spans="2:9">
       <c r="B278" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="305" spans="3:3">
       <c r="C305" s="59" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="306" spans="3:3">
       <c r="C306" s="56" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="307" spans="3:3">
       <c r="C307" s="56" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" spans="3:3">
       <c r="C308" s="60" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="309" spans="3:3">
       <c r="C309" s="31" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="310" spans="3:3">
       <c r="C310" s="60" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="311" spans="3:3">
       <c r="C311" s="60" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="312" spans="3:3">
       <c r="C312" s="31" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="313" spans="3:3">
       <c r="C313" s="31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="314" spans="3:3">
       <c r="C314" s="60" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="315" spans="3:3">
       <c r="C315" s="60" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="316" spans="3:3">
       <c r="C316" s="60" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="317" spans="3:3">
       <c r="C317" s="31" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="318" spans="3:3">
       <c r="C318" s="60" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="319" spans="3:3">
       <c r="C319" s="60" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="320" spans="3:3">
       <c r="C320" s="31" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="321" spans="3:3">
       <c r="C321" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="322" spans="3:3">
       <c r="C322" s="31" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="323" spans="3:3">
       <c r="C323" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="324" spans="3:3">
       <c r="C324" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="325" spans="3:3">
       <c r="C325" s="31" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="326" spans="3:3">
       <c r="C326" s="31" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="327" spans="3:3">
       <c r="C327" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="328" spans="3:3">
       <c r="C328" s="31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="329" spans="3:3">
       <c r="C329" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="330" spans="3:3">
       <c r="C330" s="31" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="331" spans="3:3">
       <c r="C331" s="31" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="332" spans="3:3">
       <c r="C332" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="333" spans="3:3">
       <c r="C333" s="31" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="334" spans="3:3">
       <c r="C334" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="335" spans="3:3">
       <c r="C335" s="31" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="336" spans="3:3">
       <c r="C336" s="31" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="337" spans="3:3">
       <c r="C337" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="338" spans="3:3">
       <c r="C338" s="31" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="339" spans="3:3">
       <c r="C339" s="31" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="340" spans="3:3">
       <c r="C340" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="341" spans="3:3">
       <c r="C341" s="31" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="342" spans="3:3">
       <c r="C342" s="31" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="343" spans="3:3">
       <c r="C343" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="344" spans="3:3">
       <c r="C344" s="31" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="345" spans="3:3">
       <c r="C345" s="31" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="346" spans="3:3">
       <c r="C346" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="347" spans="3:3">
       <c r="C347" s="31" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="348" spans="3:3">
       <c r="C348" s="60" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="349" spans="3:3">
       <c r="C349" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="350" spans="3:3">
       <c r="C350" s="31" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="351" spans="3:3">
       <c r="C351" s="60" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="352" spans="3:3">
       <c r="C352" s="60" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="354" spans="2:2">
       <c r="B354" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="360" spans="3:3">
       <c r="C360" s="59" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="361" spans="3:3">
       <c r="C361" s="56" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="362" spans="3:3">
       <c r="C362" s="60" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="363" spans="3:3">
       <c r="C363" s="31" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="364" spans="3:3">
       <c r="C364" s="60" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="365" spans="3:3">
       <c r="C365" s="60" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="366" spans="3:3">
       <c r="C366" s="31" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="367" spans="3:3">
       <c r="C367" s="31" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="368" spans="3:3">
       <c r="C368" s="31" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="369" spans="3:3">
       <c r="C369" s="31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="370" spans="3:3">
       <c r="C370" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="371" spans="3:3">
       <c r="C371" s="60" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="372" spans="3:3">
       <c r="C372" s="60" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="374" spans="2:2">
       <c r="B374" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="376" spans="3:3">
       <c r="C376" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="476" spans="3:3">
       <c r="C476" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="477" spans="3:3">
       <c r="C477" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="478" spans="3:3">
       <c r="C478" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="479" spans="3:3">
       <c r="C479" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="480" spans="3:12">
       <c r="C480" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="481" spans="3:12">
@@ -40613,7 +40678,7 @@
     </row>
     <row r="482" spans="2:2">
       <c r="B482" s="28" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="483" spans="2:2">
@@ -40621,27 +40686,27 @@
     </row>
     <row r="484" spans="3:3">
       <c r="C484" s="60" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="485" spans="3:3">
       <c r="C485" s="61" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="486" spans="3:3">
       <c r="C486" s="61" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="487" spans="3:3">
       <c r="C487" s="56" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="488" spans="3:3">
       <c r="C488" s="56" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="489" spans="3:3">
@@ -40649,289 +40714,289 @@
     </row>
     <row r="490" spans="3:3">
       <c r="C490" s="60" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="491" spans="3:3">
       <c r="C491" s="31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="492" spans="3:3">
       <c r="C492" s="31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="493" spans="3:3">
       <c r="C493" s="31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="494" spans="3:3">
       <c r="C494" s="31" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="495" spans="3:3">
       <c r="C495" s="60" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="496" spans="3:3">
       <c r="C496" s="63" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="497" spans="3:3">
       <c r="C497" s="31" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="498" spans="3:3">
       <c r="C498" s="31" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="499" spans="3:3">
       <c r="C499" s="31" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="500" spans="3:3">
       <c r="C500" s="31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="501" spans="3:3">
       <c r="C501" s="31" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="502" spans="3:3">
       <c r="C502" s="60" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="503" spans="3:3">
       <c r="C503" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="504" spans="3:3">
       <c r="C504" s="31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="505" spans="3:3">
       <c r="C505" s="31" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="506" spans="3:3">
       <c r="C506" s="31" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="507" spans="3:3">
       <c r="C507" s="60" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="508" spans="3:3">
       <c r="C508" s="31" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="509" spans="3:3">
       <c r="C509" s="60" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="510" spans="3:3">
       <c r="C510" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="511" spans="3:3">
       <c r="C511" s="31" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="512" spans="3:20">
       <c r="C512" s="60" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T512" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="513" spans="3:3">
       <c r="C513" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="514" spans="3:3">
       <c r="C514" s="31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="515" spans="3:3">
       <c r="C515" s="60" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="516" spans="3:3">
       <c r="C516" s="63" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="517" spans="3:3">
       <c r="C517" s="60" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="518" spans="3:3">
       <c r="C518" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="519" spans="3:3">
       <c r="C519" s="31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="520" spans="3:3">
       <c r="C520" s="31" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="521" spans="3:3">
       <c r="C521" s="31" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="522" spans="3:3">
       <c r="C522" s="60" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="523" spans="3:3">
       <c r="C523" s="63" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="524" spans="3:3">
       <c r="C524" s="60" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="525" spans="3:3">
       <c r="C525" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="526" spans="3:3">
       <c r="C526" s="31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="527" spans="3:3">
       <c r="C527" s="31" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="528" spans="3:3">
       <c r="C528" s="63" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="529" spans="3:3">
       <c r="C529" s="63" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="619" spans="3:3">
       <c r="C619" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="621" spans="2:7">
       <c r="B621" s="28" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G621" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="623" spans="3:3">
       <c r="C623" s="60" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="624" spans="3:3">
       <c r="C624" s="61" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="625" spans="3:3">
       <c r="C625" s="59" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="626" spans="3:3">
       <c r="C626" s="56" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="627" spans="3:3">
       <c r="C627" s="31" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="628" spans="3:3">
       <c r="C628" s="60" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="629" spans="3:3">
       <c r="C629" s="31" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="630" spans="3:3">
       <c r="C630" s="31" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="631" spans="3:3">
       <c r="C631" s="31" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="632" spans="3:17">
       <c r="C632" s="60" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q632" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="633" spans="3:18">
       <c r="C633" s="31" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="R633" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="634" spans="3:3">
       <c r="C634" s="60" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="635" spans="3:3">
@@ -40939,17 +41004,17 @@
     </row>
     <row r="636" spans="3:3">
       <c r="C636" s="60" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="637" spans="3:3">
       <c r="C637" s="31" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="638" spans="3:3">
       <c r="C638" s="60" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="639" spans="3:3">
@@ -40957,17 +41022,17 @@
     </row>
     <row r="640" spans="3:3">
       <c r="C640" s="60" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="641" spans="3:3">
       <c r="C641" s="31" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="642" spans="3:3">
       <c r="C642" s="60" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="643" spans="3:3">
@@ -40975,17 +41040,17 @@
     </row>
     <row r="644" spans="3:3">
       <c r="C644" s="60" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="645" spans="3:3">
       <c r="C645" s="31" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="646" spans="3:3">
       <c r="C646" s="60" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="647" spans="3:3">
@@ -40993,17 +41058,17 @@
     </row>
     <row r="648" spans="3:3">
       <c r="C648" s="60" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="649" spans="3:3">
       <c r="C649" s="31" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="650" spans="3:3">
       <c r="C650" s="60" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="651" spans="3:3">
@@ -41011,122 +41076,122 @@
     </row>
     <row r="652" spans="3:3">
       <c r="C652" s="60" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="653" spans="3:3">
       <c r="C653" s="31" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="654" spans="3:3">
       <c r="C654" s="60" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="655" spans="3:3">
       <c r="C655" s="60" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="657" spans="3:3">
       <c r="C657" s="64" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="658" spans="4:4">
       <c r="D658" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="659" spans="4:4">
       <c r="D659" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="660" spans="4:4">
       <c r="D660" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="661" spans="4:4">
       <c r="D661" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="662" spans="4:4">
       <c r="D662" s="31" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="663" spans="4:4">
       <c r="D663" s="31" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="665" spans="4:4">
       <c r="D665" s="63" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="667" spans="4:4">
       <c r="D667" s="31" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="668" spans="4:4">
       <c r="D668" s="31" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="669" spans="4:4">
       <c r="D669" s="31" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="670" spans="4:4">
       <c r="D670" s="31" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="671" spans="4:4">
       <c r="D671" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="672" spans="4:4">
       <c r="D672" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="673" spans="4:4">
       <c r="D673" s="31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="675" spans="4:4">
       <c r="D675" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="676" spans="4:4">
       <c r="D676" s="31" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="678" spans="4:4">
       <c r="D678" s="31" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="679" spans="4:4">
       <c r="D679" s="31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="681" spans="3:3">
       <c r="C681" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="682" spans="3:3">
@@ -41134,99 +41199,99 @@
     </row>
     <row r="683" spans="4:4">
       <c r="D683" s="31" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="684" spans="4:4">
       <c r="D684" s="59" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="685" spans="4:4">
       <c r="D685" s="59" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="686" spans="4:4">
       <c r="D686" s="56" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="687" spans="4:4">
       <c r="D687" s="31" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="688" spans="4:4">
       <c r="D688" s="60" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="689" spans="4:4">
       <c r="D689" s="60" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="690" spans="4:20">
       <c r="D690" s="31" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="T690" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="691" spans="4:20">
       <c r="D691" s="31" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="T691" s="28" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="692" spans="4:20">
       <c r="D692" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T692" s="28" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="693" spans="4:4">
       <c r="D693" s="60" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="694" spans="4:4">
       <c r="D694" s="60" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="695" spans="4:4">
       <c r="D695" s="60" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="697" spans="3:3">
       <c r="C697" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="730" spans="3:3">
       <c r="C730" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="732" spans="4:4">
       <c r="D732" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="733" spans="4:21">
       <c r="D733" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="U733" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -41283,287 +41348,287 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -41585,152 +41650,152 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="43" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" s="38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="3:16">
       <c r="C7" s="44" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" s="44" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="3:15">
       <c r="C9" s="44" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="45" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="4:19">
       <c r="D15" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="4:19">
       <c r="D16" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="4:9">
       <c r="D21" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="46" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -41738,12 +41803,12 @@
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="48" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="49" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="3:3">
@@ -41751,7 +41816,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="46" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -41759,12 +41824,12 @@
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="48" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="49" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="3:3">
@@ -41772,7 +41837,7 @@
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="50" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="3:3">
@@ -41780,7 +41845,7 @@
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="51" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="3:3">
@@ -41788,7 +41853,7 @@
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="52" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="3:3">
@@ -41796,7 +41861,7 @@
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="53" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53" spans="3:3">
@@ -41804,17 +41869,17 @@
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="53" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="53" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="53" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="3:3">
@@ -41822,22 +41887,22 @@
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="53" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="53" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="53" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="53" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="3:3">
@@ -41845,22 +41910,22 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="53" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="53" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="53" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="53" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -41868,17 +41933,17 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="53" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="53" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="53" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="71" spans="3:3">
@@ -41886,17 +41951,17 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="53" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="53" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="53" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75" spans="3:3">
@@ -41904,7 +41969,7 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="53" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" spans="3:3">
@@ -41912,22 +41977,22 @@
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="53" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="53" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="53" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="53" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="3:3">
@@ -41935,22 +42000,22 @@
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="53" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="53" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="53" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="53" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="87" spans="3:3">
@@ -41958,22 +42023,22 @@
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="53" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="53" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="53" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="53" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="92" spans="3:3">
@@ -41981,22 +42046,22 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="53" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="53" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="53" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="53" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -42004,32 +42069,32 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="53" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="53" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="53" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="53" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="53" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="53" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="104" spans="3:3">
@@ -42037,22 +42102,22 @@
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="53" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="53" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="53" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="53" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="3:3">
@@ -42060,7 +42125,7 @@
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="3:3">
@@ -42068,7 +42133,7 @@
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="46" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="113" spans="3:3">
@@ -42076,7 +42141,7 @@
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="52" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="115" spans="3:3">
@@ -42084,17 +42149,17 @@
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="53" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="53" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="53" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="119" spans="3:3">
@@ -42102,27 +42167,27 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="53" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="53" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="53" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="53" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="53" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="125" spans="3:3">
@@ -42130,12 +42195,12 @@
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="53" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="53" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="3:3">
@@ -42143,7 +42208,7 @@
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="3:3">
@@ -42151,7 +42216,7 @@
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="46" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="132" spans="3:3">
@@ -42159,17 +42224,17 @@
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="48" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="53" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="49" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/勉強メモ-2017-Z.xlsx
+++ b/勉強メモ-2017-Z.xlsx
@@ -28,13 +28,14 @@
     <sheet name="Cドライバコピー" sheetId="19" r:id="rId19"/>
     <sheet name="Javaマルチスレッド" sheetId="20" r:id="rId20"/>
     <sheet name="java色々" sheetId="21" r:id="rId21"/>
+    <sheet name=".Net collections" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111">
   <si>
     <t>category</t>
   </si>
@@ -352,6 +353,12 @@
       </rPr>
       <t>net FW各バージョン新規機能</t>
     </r>
+  </si>
+  <si>
+    <t>.Net Collections</t>
+  </si>
+  <si>
+    <t>Collections , Generic</t>
   </si>
   <si>
     <t>C/C++/
@@ -16992,6 +16999,63 @@
   </si>
   <si>
     <t>少ない記述量で、コンパイラにとっても開発者にとっても有意となるものなので、だれでも書くべき。</t>
+  </si>
+  <si>
+    <t>■</t>
+  </si>
+  <si>
+    <t>System.Collections</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>BitArray</t>
+  </si>
+  <si>
+    <t>Hashtable</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>SortedList</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>System.Collections.Generic</t>
+  </si>
+  <si>
+    <t>Dictionary&lt;TKey, TValue&gt;</t>
+  </si>
+  <si>
+    <t>HashSet&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>LinkedList&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Queue&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>SortedDictionary&lt;TKey, TValue&gt;</t>
+  </si>
+  <si>
+    <t>SortedList&lt;TKey, TValue&gt;</t>
+  </si>
+  <si>
+    <t>SortedSet&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Stack&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>SynchronizedCollection&lt;T&gt;</t>
   </si>
 </sst>
 </file>
@@ -16999,10 +17063,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="148">
     <font>
@@ -17462,6 +17526,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -17475,16 +17546,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17499,8 +17571,39 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17515,38 +17618,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17560,24 +17639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -18032,7 +18096,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18044,7 +18120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18056,13 +18138,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18074,25 +18168,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18104,109 +18270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18525,7 +18589,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -18542,6 +18617,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18599,39 +18683,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -18640,134 +18704,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="81" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="82" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="83" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -18957,6 +19021,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -34866,10 +34932,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G33"/>
+  <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -35129,7 +35195,7 @@
       <c r="D23" s="105"/>
       <c r="E23" s="118"/>
     </row>
-    <row r="24" ht="15.15" spans="3:5">
+    <row r="24" spans="3:5">
       <c r="C24" s="107"/>
       <c r="D24" s="107"/>
       <c r="E24" s="107"/>
@@ -35141,7 +35207,7 @@
       <c r="C25" s="110">
         <v>1</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="119" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="94" t="s">
@@ -35150,62 +35216,74 @@
     </row>
     <row r="26" ht="15.15" spans="2:5">
       <c r="B26" s="116"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="106"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="119" t="s">
+      <c r="C26" s="113">
+        <v>2</v>
+      </c>
+      <c r="D26" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
+      <c r="E26" s="98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" ht="15.15" spans="2:5">
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="106"/>
+    </row>
+    <row r="28" ht="15.15" spans="3:5">
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="106"/>
+      <c r="B29" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
     </row>
     <row r="30" ht="15.15" spans="2:5">
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="119" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
-    </row>
-    <row r="32" ht="15.15" spans="2:5">
-      <c r="B32" s="116"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="106"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="106"/>
+    </row>
+    <row r="31" ht="15.15" spans="2:5">
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
+    </row>
+    <row r="33" ht="15.15" spans="2:5">
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="106"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:B17"/>
     <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" location="Enum!A1" display="Enum"/>
@@ -35227,6 +35305,7 @@
     <hyperlink ref="D16" location="java色々!A1" display="java色々"/>
     <hyperlink ref="D21" location="'SSH-Windows'!A1" display="SSH-Windows"/>
     <hyperlink ref="D22" location="'MD5'!A1" display="MD5"/>
+    <hyperlink ref="D26" location="'.Net collections'!A1" display=".Net Collections"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -35247,138 +35326,138 @@
   <sheetData>
     <row r="2" spans="2:46">
       <c r="B2" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="AT2" s="28" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="AT4" s="28" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="47:47">
       <c r="AU5" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="2:48">
       <c r="B6" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" ht="18" spans="3:46">
       <c r="C8" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AT8" s="41" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="3:47">
       <c r="C9" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="47:47">
       <c r="AU10" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="3:48">
       <c r="C11" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="2:47">
       <c r="B13" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="48:48">
       <c r="AV14" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" ht="15" spans="3:62">
       <c r="C15" s="40"/>
       <c r="BJ15" s="28" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="48:48">
       <c r="AV16" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="48:48">
       <c r="AV17" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="18" spans="48:48">
       <c r="AV18" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="20" spans="48:48">
       <c r="AV20" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="28" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="22" spans="3:48">
       <c r="C22" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="3:48">
       <c r="C23" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="49:49">
       <c r="AW24" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="2:49">
       <c r="B25" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AW25" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="26" spans="48:48">
       <c r="AV26" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" ht="15" spans="3:3">
@@ -35386,71 +35465,71 @@
     </row>
     <row r="28" spans="48:48">
       <c r="AV28" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" spans="48:48">
       <c r="AV29" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30" spans="49:49">
       <c r="AW30" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="48:48">
       <c r="AV31" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="48:48">
       <c r="AV33" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="2:49">
       <c r="B34" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35" spans="49:49">
       <c r="AW35" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="36" ht="15" spans="3:50">
       <c r="C36" s="40"/>
       <c r="AX36" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="50:50">
       <c r="AX37" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="49:49">
       <c r="AW38" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="48:48">
       <c r="AV39" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="48:48">
       <c r="AV42" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="44" ht="15" spans="3:48">
@@ -35458,104 +35537,104 @@
       <c r="Q44" s="40"/>
       <c r="AE44" s="40"/>
       <c r="AV44" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="46" spans="46:46">
       <c r="AT46" s="28" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="48:48">
       <c r="AV49" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="50" ht="15" spans="2:48">
       <c r="B50" s="40"/>
       <c r="AV50" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="53" spans="48:48">
       <c r="AV53" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="55" spans="48:48">
       <c r="AV55" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" spans="49:49">
       <c r="AW56" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="57" spans="49:49">
       <c r="AW57" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="58" spans="49:49">
       <c r="AW58" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="59" spans="2:49">
       <c r="B59" s="3" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AW59" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="60" spans="49:49">
       <c r="AW60" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="61" spans="3:48">
       <c r="C61" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AV61" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="68" ht="15" spans="3:3">
@@ -35563,70 +35642,70 @@
     </row>
     <row r="69" spans="17:17">
       <c r="Q69" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="70" spans="20:20">
       <c r="T70" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="71" spans="22:22">
       <c r="V71" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="72" spans="22:22">
       <c r="V72" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" s="42" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="80" spans="6:14">
       <c r="F80" s="28" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -35652,375 +35731,375 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="28" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="28" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="33" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="33" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="33" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="33" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="33" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="3:20">
       <c r="C38" s="34" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" spans="3:21">
       <c r="C39" s="35" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="33" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="34" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="35" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="34" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="34" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="47" spans="17:17">
       <c r="Q47" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="3:18">
       <c r="C48" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" spans="18:18">
       <c r="R50" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="51" spans="4:19">
       <c r="D51" s="28" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="S51" s="28" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="33" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="33" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="33" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="33" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="33" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="33" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="33" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="33" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="33" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="33" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="33" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="33" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="33" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="75" spans="3:9">
       <c r="C75" s="3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="76" ht="15.15"/>
     <row r="77" ht="15.15" spans="3:3">
       <c r="C77" s="36" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="78" ht="15.15" spans="3:3">
       <c r="C78" s="33" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="79" ht="15.15" spans="3:3">
       <c r="C79" s="36" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="33" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="33" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" ht="15.15" spans="3:3">
       <c r="C82" s="33" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="83" ht="15.15" spans="3:3">
       <c r="C83" s="36" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="33" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="85" ht="15.15" spans="3:3">
       <c r="C85" s="33" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="86" ht="15.15" spans="3:3">
       <c r="C86" s="36" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="87" ht="15.15" spans="3:3">
       <c r="C87" s="36" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="33" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="89" ht="15.15" spans="3:3">
@@ -36028,12 +36107,12 @@
     </row>
     <row r="90" ht="15.15" spans="3:3">
       <c r="C90" s="36" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="33" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" ht="15.15" spans="3:3">
@@ -36041,12 +36120,12 @@
     </row>
     <row r="93" ht="15.15" spans="3:3">
       <c r="C93" s="36" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="94" ht="15.15" spans="3:3">
       <c r="C94" s="36" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="95" spans="3:3">
@@ -36054,17 +36133,17 @@
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="33" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="33" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="33" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -36072,37 +36151,37 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="33" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="101" ht="15.15" spans="3:3">
       <c r="C101" s="33" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="102" ht="15.15" spans="3:3">
       <c r="C102" s="36" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="38" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="33" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="33" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="33" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="107" ht="15.15" spans="1:3">
@@ -36110,22 +36189,22 @@
         <v>20</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="108" ht="15.15" spans="3:3">
       <c r="C108" s="36" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="3" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="113" spans="3:3">
@@ -36133,86 +36212,86 @@
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="134" spans="3:12">
       <c r="C134" s="34" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="33" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="33" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="33" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="138" spans="3:12">
       <c r="C138" s="33" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="139" spans="3:12">
       <c r="C139" s="33" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="33" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="33" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="33" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="33" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" s="33" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="34" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="33" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -36235,12 +36314,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -36248,282 +36327,282 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="3" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="3" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="3" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="28" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="29" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="29" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="29" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="29" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="29" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="78" spans="4:4">
@@ -36531,77 +36610,77 @@
     </row>
     <row r="79" spans="4:4">
       <c r="D79" s="29" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" s="29" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" s="29" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="29" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="29" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="29" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="29" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" s="29" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="29" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" s="29" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" s="29" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" s="29" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" s="29" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" s="29" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" s="29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="4:4">
@@ -36609,67 +36688,67 @@
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" s="32" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" s="3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="1" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" s="1" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" s="1" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -36696,33 +36775,33 @@
     </row>
     <row r="3" spans="19:20">
       <c r="S3" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="T3" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="19:19">
       <c r="S5" s="5" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="19:20">
       <c r="S6" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="T6" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="12" spans="19:19">
       <c r="S12" s="25" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="13" spans="19:19">
       <c r="S13" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18" spans="19:19">
@@ -36736,38 +36815,38 @@
     </row>
     <row r="91" spans="28:28">
       <c r="AB91" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="633" spans="26:28">
       <c r="Z633" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="AA633" s="27" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AB633" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="634" spans="28:28">
       <c r="AB634" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="635" spans="26:28">
       <c r="Z635" s="27"/>
       <c r="AA635" s="27" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="AB635" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="636" spans="26:27">
       <c r="Z636" s="27"/>
       <c r="AA636" s="27" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -36790,361 +36869,361 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" ht="31.2" spans="2:2">
       <c r="B2" s="21" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
       <c r="B6" s="22" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="23" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="23" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="23" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="23" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="23" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="23" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="23" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="23" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="23" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="23" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="23" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="23" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="23" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="23" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="23" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="23" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="23" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="23" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="23" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="23" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="23" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="23" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="24" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="24" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="24" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="23" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="23" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="23" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="23" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="23" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="23" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="7" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="7" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="23" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="23" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="23" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="23" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -37177,40 +37256,40 @@
   <sheetData>
     <row r="2" ht="35.4" spans="2:2">
       <c r="B2" s="8" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" ht="15" spans="2:2">
       <c r="B3" s="9" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" ht="15" spans="2:2">
       <c r="B4" s="10" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="2:2">
       <c r="B5" s="10" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
       <c r="B6" s="10" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="2:2">
       <c r="B7" s="10" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -37231,92 +37310,92 @@
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="9" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="2:2">
       <c r="B10" s="12" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="2:2">
       <c r="B11" s="13" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="2:2">
       <c r="B12" s="13" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="9" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="2:2">
       <c r="B14" s="14" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:2">
       <c r="B15" s="9" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="16" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="18" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="19" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="15" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:2">
       <c r="B29" s="9" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="30" ht="15" spans="2:2">
       <c r="B30" s="20" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -37347,32 +37426,32 @@
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="5" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="130" spans="3:11">
       <c r="C130" s="5" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="132" spans="4:31">
       <c r="D132" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="L132" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="R132" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="Y132" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="AE132" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -37427,17 +37506,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="4" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -37462,45 +37541,45 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:10">
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -37512,127 +37591,127 @@
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="83" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -37654,270 +37733,270 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="11" spans="3:16">
       <c r="C11" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="D13" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="21" spans="3:10">
       <c r="C21" s="2" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="2"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="25" spans="11:11">
       <c r="K25" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="38" spans="4:13">
       <c r="D38" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="76" spans="4:4">
@@ -37925,15 +38004,15 @@
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="79" spans="4:7">
       <c r="D79" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="80" spans="4:7">
@@ -37942,19 +38021,19 @@
     </row>
     <row r="81" spans="4:7">
       <c r="D81" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="4:7">
       <c r="D82" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="4:13">
       <c r="D83" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G83" s="1"/>
       <c r="M83" s="1"/>
@@ -37962,7 +38041,7 @@
     <row r="84" spans="4:7">
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="G84" s="1"/>
     </row>
@@ -37974,79 +38053,79 @@
     <row r="86" spans="4:7">
       <c r="D86" s="1"/>
       <c r="E86" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="4:7">
       <c r="D87" s="1"/>
       <c r="E87" s="3" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="4:7">
       <c r="D88" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="90" spans="4:7">
       <c r="D90" s="2" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -38068,51 +38147,215 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="2" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="3" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.33333333333333" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="16384" width="3.33333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -38130,852 +38373,852 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="18.6" spans="10:10">
       <c r="J4" s="78" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="3:11">
       <c r="C7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="3:12">
       <c r="C21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="10:10">
       <c r="J25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="11:11">
       <c r="K26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" s="25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="18.6" spans="10:10">
       <c r="J29" s="78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" ht="18.6" spans="10:10">
       <c r="J31" s="78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" ht="18.6" spans="10:10">
       <c r="J32" s="78" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" ht="18.6" spans="10:10">
       <c r="J33" s="78" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" ht="18.6" spans="2:2">
       <c r="B67" s="78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" ht="18.6" spans="2:2">
       <c r="B69" s="78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" ht="18.6" spans="2:2">
       <c r="B70" s="78" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" ht="18.6" spans="2:2">
       <c r="B71" s="78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" ht="18.6" spans="2:2">
       <c r="B88" s="78" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="28.8" spans="2:2">
       <c r="B91" s="79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" ht="18.6" spans="2:2">
       <c r="B92" s="78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" ht="18.6" spans="2:2">
       <c r="B104" s="78" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="4:4">
       <c r="D152" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="5:5">
       <c r="E154" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="5:5">
       <c r="E155" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158" spans="4:4">
       <c r="D158" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="4:4">
       <c r="D159" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="163" spans="4:4">
       <c r="D163" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="4:4">
       <c r="D164" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="5:5">
       <c r="E165" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" spans="4:4">
       <c r="D166" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="3:3">
       <c r="C167" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170" ht="18.6" spans="2:2">
       <c r="B170" s="78" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" ht="18.6" spans="2:2">
       <c r="B172" s="78" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" s="25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="4:4">
       <c r="D178" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="5:5">
       <c r="E180" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="6:6">
       <c r="F181" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="6:6">
       <c r="F182" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="184" spans="4:4">
       <c r="D184" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="185" spans="4:4">
       <c r="D185" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="189" ht="18.6" spans="2:2">
       <c r="B189" s="78" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194" ht="18.6" spans="2:2">
       <c r="B194" s="78" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196" ht="22.2" spans="2:2">
       <c r="B196" s="80" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="198" ht="18.6" spans="2:2">
       <c r="B198" s="81" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" ht="18.6" spans="2:2">
       <c r="B199" s="81" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="200" ht="18.6" spans="2:2">
       <c r="B200" s="81" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201" ht="18.6" spans="2:2">
       <c r="B201" s="81" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -39000,202 +39243,202 @@
   <sheetData>
     <row r="2" ht="15" spans="2:2">
       <c r="B2" s="69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="2:2">
       <c r="B4" s="70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="72" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="71" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="72" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:2">
       <c r="B15" s="71" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:2">
       <c r="B17" s="73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="2:2">
       <c r="B19" s="74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" ht="15" spans="2:2">
       <c r="B23" s="75" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" ht="15" spans="2:2">
       <c r="B24" s="76" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" ht="15" spans="2:2">
       <c r="B25" s="76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" ht="15" spans="2:2">
       <c r="B27" s="71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:2">
       <c r="B29" s="73" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" ht="15" spans="2:2">
       <c r="B31" s="71" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" ht="15" spans="2:2">
       <c r="B33" s="76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" ht="15" spans="2:2">
       <c r="B34" s="75" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" ht="15" spans="2:2">
       <c r="B35" s="76" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" ht="15" spans="2:2">
       <c r="B36" s="75" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" ht="15" spans="2:2">
       <c r="B37" s="75" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" ht="15" spans="2:2">
       <c r="B38" s="77" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" ht="15" spans="2:2">
       <c r="B40" s="71" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" ht="15" spans="2:2">
       <c r="B42" s="73" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" ht="16.8" spans="2:2">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" ht="15" spans="2:2">
       <c r="B46" s="76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" ht="15" spans="2:2">
       <c r="B47" s="76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" ht="15" spans="2:2">
       <c r="B48" s="76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" ht="16.8" spans="2:2">
       <c r="B50" s="71" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" ht="15" spans="2:2">
       <c r="B52" s="73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" ht="15" spans="2:2">
       <c r="B54" s="74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" ht="15" spans="2:2">
       <c r="B56" s="76" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" ht="15" spans="2:2">
       <c r="B57" s="76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" ht="15" spans="2:2">
       <c r="B58" s="75" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" ht="15" spans="2:2">
       <c r="B59" s="76" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" ht="16.8" spans="2:2">
       <c r="B61" s="71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -39240,104 +39483,104 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="67" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" ht="18" spans="2:2">
       <c r="B17" s="68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" ht="14.45" customHeight="1"/>
     <row r="31" ht="13.5" customHeight="1" spans="2:2">
       <c r="B31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1"/>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="28" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -39364,32 +39607,32 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -39397,17 +39640,17 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="2:2">
@@ -39415,17 +39658,17 @@
     </row>
     <row r="58" ht="17.4" spans="3:3">
       <c r="C58" s="65" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="262" spans="3:3">
       <c r="C262" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="298" spans="3:3">
@@ -39451,536 +39694,536 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="56" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="2:36">
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="2:36">
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AJ4" s="57"/>
     </row>
     <row r="28" spans="36:36">
       <c r="AJ28" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="36:36">
       <c r="AJ30" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="37:37">
       <c r="AK31" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="38:38">
       <c r="AL32" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="3:36">
       <c r="C34" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="37:37">
       <c r="AK35" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="38:38">
       <c r="AL36" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="37:37">
       <c r="AK37" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="38:38">
       <c r="AL38" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="36:36">
       <c r="AJ40" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="37:37">
       <c r="AK41" s="28" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="38:38">
       <c r="AL42" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="37:37">
       <c r="AK43" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="38:38">
       <c r="AL44" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="37:37">
       <c r="AK45" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="38:38">
       <c r="AL46" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="36:36">
       <c r="AJ48" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="37:37">
       <c r="AK51" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="38:38">
       <c r="AL53" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="37:37">
       <c r="AK55" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="38:38">
       <c r="AL56" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="39:39">
       <c r="AM57" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="39:39">
       <c r="AM58" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="39:39">
       <c r="AM63" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="38:38">
       <c r="AL64" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="37:37">
       <c r="AK66" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="2:38">
       <c r="B67" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AL67" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="2:37">
       <c r="B70" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK70" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="2:38">
       <c r="B72" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL72" s="28" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="39:39">
       <c r="AM73" s="28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="2:38">
       <c r="B74" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL74" s="28" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="38:38">
       <c r="AL76" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="38:38">
       <c r="AL78" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="39:39">
       <c r="AM79" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="38:38">
       <c r="AL80" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="37:37">
       <c r="AK83" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="38:38">
       <c r="AL85" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="39:39">
       <c r="AM86" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" s="28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="39:39">
       <c r="AM88" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="38:38">
       <c r="AL89" s="28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="37:37">
       <c r="AK95" s="28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="3:41">
       <c r="C97" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AO97" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="3:37">
       <c r="C98" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AK98" s="28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="3:38">
       <c r="C99" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL99" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="3:39">
       <c r="C100" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM100" s="42" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101" spans="3:38">
       <c r="C101" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL101" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="3:37">
       <c r="C102" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AK102" s="28" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="3:40">
       <c r="C105" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ105" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AN105" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" spans="37:37">
       <c r="AK106" s="28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="38:38">
       <c r="AL107" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="108" spans="37:37">
       <c r="AK108" s="28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="36:40">
       <c r="AJ110" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN110" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="AN110" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="111" spans="37:37">
       <c r="AK111" s="28" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="38:38">
       <c r="AL112" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="37:37">
       <c r="AK113" s="28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="36:45">
       <c r="AJ115" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AS115" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="37:37">
       <c r="AK116" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="38:38">
       <c r="AL117" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="37:37">
       <c r="AK118" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="160" spans="2:8">
       <c r="B160" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="166" spans="3:3">
       <c r="C166" s="59" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="167" spans="3:22">
       <c r="C167" s="56" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="V167" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="3:23">
       <c r="C168" s="56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="W168" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="169" spans="3:24">
       <c r="C169" s="31" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="X169" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="3:24">
       <c r="C170" s="31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X170" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="171" spans="3:23">
       <c r="C171" s="31" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="W171" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="172" spans="3:24">
       <c r="C172" s="60" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="X172" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="3:3">
       <c r="C173" s="31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="31" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="175" spans="3:3">
       <c r="C175" s="31" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176" spans="3:5">
       <c r="C176" s="60" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E176" s="28"/>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" s="61" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="60" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="3:3">
       <c r="C179" s="62" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="3:3">
       <c r="C180" s="60" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="181" spans="3:3">
       <c r="C181" s="60" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="182" spans="3:3">
@@ -39988,27 +40231,27 @@
     </row>
     <row r="183" spans="3:3">
       <c r="C183" s="31" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="184" spans="3:3">
       <c r="C184" s="31" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185" spans="3:3">
       <c r="C185" s="56" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" s="31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="187" spans="3:3">
       <c r="C187" s="31" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188" spans="3:3">
@@ -40016,22 +40259,22 @@
     </row>
     <row r="189" spans="3:3">
       <c r="C189" s="31" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" s="56" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" s="31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="31" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="193" spans="3:3">
@@ -40039,22 +40282,22 @@
     </row>
     <row r="194" spans="3:3">
       <c r="C194" s="31" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="3:3">
       <c r="C195" s="56" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="197" spans="3:3">
       <c r="C197" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198" spans="3:3">
@@ -40062,22 +40305,22 @@
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="31" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="200" spans="3:3">
       <c r="C200" s="56" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" s="31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="202" spans="3:3">
       <c r="C202" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="203" spans="3:3">
@@ -40085,22 +40328,22 @@
     </row>
     <row r="204" spans="3:3">
       <c r="C204" s="31" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="205" spans="3:3">
       <c r="C205" s="56" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="3:3">
       <c r="C206" s="31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="207" spans="3:3">
       <c r="C207" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="208" spans="3:3">
@@ -40108,27 +40351,27 @@
     </row>
     <row r="209" spans="3:3">
       <c r="C209" s="31" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="3:3">
       <c r="C210" s="56" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="211" spans="3:3">
       <c r="C211" s="31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="213" spans="3:3">
       <c r="C213" s="60" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="214" spans="3:3">
@@ -40136,540 +40379,540 @@
     </row>
     <row r="215" spans="3:3">
       <c r="C215" s="31" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="216" spans="3:3">
       <c r="C216" s="60" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="217" spans="3:3">
       <c r="C217" s="60" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="220" spans="2:9">
       <c r="B220" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="247" spans="3:3">
       <c r="C247" s="59" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="248" spans="3:20">
       <c r="C248" s="56" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="T248" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="249" spans="3:21">
       <c r="C249" s="56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U249" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="250" spans="3:22">
       <c r="C250" s="60" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="V250" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="251" spans="3:3">
       <c r="C251" s="31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="252" spans="3:3">
       <c r="C252" s="60" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="253" spans="3:3">
       <c r="C253" s="60" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="254" spans="3:3">
       <c r="C254" s="31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="255" spans="3:3">
       <c r="C255" s="31" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="256" spans="3:3">
       <c r="C256" s="60" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="257" spans="3:3">
       <c r="C257" s="31" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="258" spans="3:3">
       <c r="C258" s="31" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="259" spans="3:3">
       <c r="C259" s="31" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="260" spans="3:3">
       <c r="C260" s="31" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="261" spans="3:3">
       <c r="C261" s="31" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="262" spans="3:3">
       <c r="C262" s="31" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="263" spans="3:3">
       <c r="C263" s="31" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="264" spans="3:3">
       <c r="C264" s="31" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="265" spans="3:3">
       <c r="C265" s="31" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="266" spans="3:3">
       <c r="C266" s="31" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="267" spans="3:3">
       <c r="C267" s="31" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="268" spans="3:3">
       <c r="C268" s="31" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="269" spans="3:3">
       <c r="C269" s="31" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="270" spans="3:3">
       <c r="C270" s="31" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="271" spans="3:3">
       <c r="C271" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" s="60" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="273" spans="3:3">
       <c r="C273" s="31" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274" s="31" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="275" spans="3:3">
       <c r="C275" s="60" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" s="60" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="278" spans="2:9">
       <c r="B278" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="305" spans="3:3">
       <c r="C305" s="59" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="306" spans="3:3">
       <c r="C306" s="56" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="307" spans="3:3">
       <c r="C307" s="56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="308" spans="3:3">
       <c r="C308" s="60" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="309" spans="3:3">
       <c r="C309" s="31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="310" spans="3:3">
       <c r="C310" s="60" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="311" spans="3:3">
       <c r="C311" s="60" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="312" spans="3:3">
       <c r="C312" s="31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="313" spans="3:3">
       <c r="C313" s="31" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="314" spans="3:3">
       <c r="C314" s="60" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="315" spans="3:3">
       <c r="C315" s="60" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="316" spans="3:3">
       <c r="C316" s="60" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="317" spans="3:3">
       <c r="C317" s="31" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="318" spans="3:3">
       <c r="C318" s="60" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="319" spans="3:3">
       <c r="C319" s="60" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="320" spans="3:3">
       <c r="C320" s="31" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="321" spans="3:3">
       <c r="C321" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="322" spans="3:3">
       <c r="C322" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="323" spans="3:3">
       <c r="C323" s="31" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="324" spans="3:3">
       <c r="C324" s="31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="325" spans="3:3">
       <c r="C325" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="326" spans="3:3">
       <c r="C326" s="31" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="327" spans="3:3">
       <c r="C327" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="328" spans="3:3">
       <c r="C328" s="31" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="329" spans="3:3">
       <c r="C329" s="31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="330" spans="3:3">
       <c r="C330" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="331" spans="3:3">
       <c r="C331" s="31" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="332" spans="3:3">
       <c r="C332" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="333" spans="3:3">
       <c r="C333" s="31" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="334" spans="3:3">
       <c r="C334" s="31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="335" spans="3:3">
       <c r="C335" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="336" spans="3:3">
       <c r="C336" s="31" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="337" spans="3:3">
       <c r="C337" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="338" spans="3:3">
       <c r="C338" s="31" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="339" spans="3:3">
       <c r="C339" s="31" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="340" spans="3:3">
       <c r="C340" s="31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="341" spans="3:3">
       <c r="C341" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="342" spans="3:3">
       <c r="C342" s="31" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="343" spans="3:3">
       <c r="C343" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="344" spans="3:3">
       <c r="C344" s="31" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="345" spans="3:3">
       <c r="C345" s="31" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="346" spans="3:3">
       <c r="C346" s="31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="347" spans="3:3">
       <c r="C347" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="348" spans="3:3">
       <c r="C348" s="60" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="349" spans="3:3">
       <c r="C349" s="31" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="350" spans="3:3">
       <c r="C350" s="31" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="351" spans="3:3">
       <c r="C351" s="60" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="352" spans="3:3">
       <c r="C352" s="60" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="354" spans="2:2">
       <c r="B354" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="360" spans="3:3">
       <c r="C360" s="59" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="361" spans="3:3">
       <c r="C361" s="56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="362" spans="3:3">
       <c r="C362" s="60" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="363" spans="3:3">
       <c r="C363" s="31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="364" spans="3:3">
       <c r="C364" s="60" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="365" spans="3:3">
       <c r="C365" s="60" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="366" spans="3:3">
       <c r="C366" s="31" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="367" spans="3:3">
       <c r="C367" s="31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="368" spans="3:3">
       <c r="C368" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="369" spans="3:3">
       <c r="C369" s="31" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="370" spans="3:3">
       <c r="C370" s="31" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="371" spans="3:3">
       <c r="C371" s="60" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="372" spans="3:3">
       <c r="C372" s="60" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="374" spans="2:2">
       <c r="B374" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="376" spans="3:3">
       <c r="C376" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="476" spans="3:3">
       <c r="C476" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="477" spans="3:3">
       <c r="C477" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="478" spans="3:3">
       <c r="C478" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="479" spans="3:3">
       <c r="C479" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="480" spans="3:12">
       <c r="C480" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="481" spans="3:12">
@@ -40678,7 +40921,7 @@
     </row>
     <row r="482" spans="2:2">
       <c r="B482" s="28" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="483" spans="2:2">
@@ -40686,27 +40929,27 @@
     </row>
     <row r="484" spans="3:3">
       <c r="C484" s="60" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="485" spans="3:3">
       <c r="C485" s="61" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="486" spans="3:3">
       <c r="C486" s="61" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="487" spans="3:3">
       <c r="C487" s="56" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="488" spans="3:3">
       <c r="C488" s="56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="489" spans="3:3">
@@ -40714,289 +40957,289 @@
     </row>
     <row r="490" spans="3:3">
       <c r="C490" s="60" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="491" spans="3:3">
       <c r="C491" s="31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="492" spans="3:3">
       <c r="C492" s="31" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="493" spans="3:3">
       <c r="C493" s="31" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="494" spans="3:3">
       <c r="C494" s="31" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="495" spans="3:3">
       <c r="C495" s="60" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="496" spans="3:3">
       <c r="C496" s="63" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="497" spans="3:3">
       <c r="C497" s="31" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="498" spans="3:3">
       <c r="C498" s="31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="499" spans="3:3">
       <c r="C499" s="31" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="500" spans="3:3">
       <c r="C500" s="31" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="501" spans="3:3">
       <c r="C501" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="502" spans="3:3">
       <c r="C502" s="60" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="503" spans="3:3">
       <c r="C503" s="31" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="504" spans="3:3">
       <c r="C504" s="31" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="505" spans="3:3">
       <c r="C505" s="31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="506" spans="3:3">
       <c r="C506" s="31" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="507" spans="3:3">
       <c r="C507" s="60" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="508" spans="3:3">
       <c r="C508" s="31" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="509" spans="3:3">
       <c r="C509" s="60" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="510" spans="3:3">
       <c r="C510" s="31" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="511" spans="3:3">
       <c r="C511" s="31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="512" spans="3:20">
       <c r="C512" s="60" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="T512" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="513" spans="3:3">
       <c r="C513" s="31" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="514" spans="3:3">
       <c r="C514" s="31" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="515" spans="3:3">
       <c r="C515" s="60" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="516" spans="3:3">
       <c r="C516" s="63" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="517" spans="3:3">
       <c r="C517" s="60" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="518" spans="3:3">
       <c r="C518" s="31" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="519" spans="3:3">
       <c r="C519" s="31" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="520" spans="3:3">
       <c r="C520" s="31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="521" spans="3:3">
       <c r="C521" s="31" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="522" spans="3:3">
       <c r="C522" s="60" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="523" spans="3:3">
       <c r="C523" s="63" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="524" spans="3:3">
       <c r="C524" s="60" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="525" spans="3:3">
       <c r="C525" s="31" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="526" spans="3:3">
       <c r="C526" s="31" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="527" spans="3:3">
       <c r="C527" s="31" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="528" spans="3:3">
       <c r="C528" s="63" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="529" spans="3:3">
       <c r="C529" s="63" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="619" spans="3:3">
       <c r="C619" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="621" spans="2:7">
       <c r="B621" s="28" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G621" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="623" spans="3:3">
       <c r="C623" s="60" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="624" spans="3:3">
       <c r="C624" s="61" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="625" spans="3:3">
       <c r="C625" s="59" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="626" spans="3:3">
       <c r="C626" s="56" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="627" spans="3:3">
       <c r="C627" s="31" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="628" spans="3:3">
       <c r="C628" s="60" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="629" spans="3:3">
       <c r="C629" s="31" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="630" spans="3:3">
       <c r="C630" s="31" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="631" spans="3:3">
       <c r="C631" s="31" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="632" spans="3:17">
       <c r="C632" s="60" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q632" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="633" spans="3:18">
       <c r="C633" s="31" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="R633" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="634" spans="3:3">
       <c r="C634" s="60" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="635" spans="3:3">
@@ -41004,17 +41247,17 @@
     </row>
     <row r="636" spans="3:3">
       <c r="C636" s="60" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="637" spans="3:3">
       <c r="C637" s="31" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="638" spans="3:3">
       <c r="C638" s="60" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="639" spans="3:3">
@@ -41022,17 +41265,17 @@
     </row>
     <row r="640" spans="3:3">
       <c r="C640" s="60" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="641" spans="3:3">
       <c r="C641" s="31" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="642" spans="3:3">
       <c r="C642" s="60" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="643" spans="3:3">
@@ -41040,17 +41283,17 @@
     </row>
     <row r="644" spans="3:3">
       <c r="C644" s="60" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="645" spans="3:3">
       <c r="C645" s="31" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="646" spans="3:3">
       <c r="C646" s="60" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="647" spans="3:3">
@@ -41058,17 +41301,17 @@
     </row>
     <row r="648" spans="3:3">
       <c r="C648" s="60" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="649" spans="3:3">
       <c r="C649" s="31" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="650" spans="3:3">
       <c r="C650" s="60" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="651" spans="3:3">
@@ -41076,122 +41319,122 @@
     </row>
     <row r="652" spans="3:3">
       <c r="C652" s="60" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="653" spans="3:3">
       <c r="C653" s="31" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="654" spans="3:3">
       <c r="C654" s="60" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="655" spans="3:3">
       <c r="C655" s="60" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="657" spans="3:3">
       <c r="C657" s="64" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="658" spans="4:4">
       <c r="D658" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="659" spans="4:4">
       <c r="D659" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="660" spans="4:4">
       <c r="D660" s="31" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="661" spans="4:4">
       <c r="D661" s="31" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="662" spans="4:4">
       <c r="D662" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="663" spans="4:4">
       <c r="D663" s="31" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="665" spans="4:4">
       <c r="D665" s="63" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="667" spans="4:4">
       <c r="D667" s="31" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="668" spans="4:4">
       <c r="D668" s="31" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="669" spans="4:4">
       <c r="D669" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="670" spans="4:4">
       <c r="D670" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="671" spans="4:4">
       <c r="D671" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="672" spans="4:4">
       <c r="D672" s="31" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="673" spans="4:4">
       <c r="D673" s="31" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="675" spans="4:4">
       <c r="D675" s="31" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="676" spans="4:4">
       <c r="D676" s="31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="678" spans="4:4">
       <c r="D678" s="31" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="679" spans="4:4">
       <c r="D679" s="31" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="681" spans="3:3">
       <c r="C681" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="682" spans="3:3">
@@ -41199,99 +41442,99 @@
     </row>
     <row r="683" spans="4:4">
       <c r="D683" s="31" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="684" spans="4:4">
       <c r="D684" s="59" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="685" spans="4:4">
       <c r="D685" s="59" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="686" spans="4:4">
       <c r="D686" s="56" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="687" spans="4:4">
       <c r="D687" s="31" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="688" spans="4:4">
       <c r="D688" s="60" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="689" spans="4:4">
       <c r="D689" s="60" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="690" spans="4:20">
       <c r="D690" s="31" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="T690" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="691" spans="4:20">
       <c r="D691" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T691" s="28" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="692" spans="4:20">
       <c r="D692" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="T692" s="28" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="693" spans="4:4">
       <c r="D693" s="60" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="694" spans="4:4">
       <c r="D694" s="60" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="695" spans="4:4">
       <c r="D695" s="60" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="697" spans="3:3">
       <c r="C697" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="730" spans="3:3">
       <c r="C730" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="732" spans="4:4">
       <c r="D732" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="733" spans="4:21">
       <c r="D733" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="U733" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -41348,287 +41591,287 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -41650,152 +41893,152 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="43" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" s="38" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="3:16">
       <c r="C7" s="44" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" s="44" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="3:15">
       <c r="C9" s="44" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="45" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="4:19">
       <c r="D15" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="4:19">
       <c r="D16" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="4:9">
       <c r="D21" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="46" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -41803,12 +42046,12 @@
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="48" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="49" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="3:3">
@@ -41816,7 +42059,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="46" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -41824,12 +42067,12 @@
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="48" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="49" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="3:3">
@@ -41837,7 +42080,7 @@
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="50" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="3:3">
@@ -41845,7 +42088,7 @@
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="51" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="3:3">
@@ -41853,7 +42096,7 @@
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="52" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="51" spans="3:3">
@@ -41861,7 +42104,7 @@
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="53" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="3:3">
@@ -41869,17 +42112,17 @@
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="53" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="53" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="53" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="57" spans="3:3">
@@ -41887,22 +42130,22 @@
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="53" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="53" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="53" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="53" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62" spans="3:3">
@@ -41910,22 +42153,22 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="53" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="53" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="53" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="53" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -41933,17 +42176,17 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="53" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="53" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="53" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="71" spans="3:3">
@@ -41951,17 +42194,17 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="53" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="53" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="53" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75" spans="3:3">
@@ -41969,7 +42212,7 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="53" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="77" spans="3:3">
@@ -41977,22 +42220,22 @@
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="53" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="53" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="53" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="53" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="82" spans="3:3">
@@ -42000,22 +42243,22 @@
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="53" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="53" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="53" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="53" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="87" spans="3:3">
@@ -42023,22 +42266,22 @@
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="53" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="53" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="53" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="53" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="3:3">
@@ -42046,22 +42289,22 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="53" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="53" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="53" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="53" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -42069,32 +42312,32 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="53" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="53" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="53" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="53" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="53" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="53" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104" spans="3:3">
@@ -42102,22 +42345,22 @@
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="53" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="53" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="53" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="53" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="3:3">
@@ -42125,7 +42368,7 @@
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="3:3">
@@ -42133,7 +42376,7 @@
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="46" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="113" spans="3:3">
@@ -42141,7 +42384,7 @@
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="52" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="115" spans="3:3">
@@ -42149,17 +42392,17 @@
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="53" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="53" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="53" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="119" spans="3:3">
@@ -42167,27 +42410,27 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="53" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="53" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="53" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="53" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="53" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="125" spans="3:3">
@@ -42195,12 +42438,12 @@
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="53" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="53" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="3:3">
@@ -42208,7 +42451,7 @@
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="3:3">
@@ -42216,7 +42459,7 @@
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="46" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="132" spans="3:3">
@@ -42224,17 +42467,17 @@
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="48" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="53" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="49" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/勉強メモ-2017-Z.xlsx
+++ b/勉強メモ-2017-Z.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19451" windowHeight="7512" tabRatio="827" activeTab="2"/>
+    <workbookView windowWidth="19931" windowHeight="7452" tabRatio="827" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目録" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113">
   <si>
     <t>category</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>C:\Users\TPJ054&gt;</t>
+  </si>
+  <si>
+    <t>■Git GUI</t>
   </si>
   <si>
     <t>http://blog.maplesystems.co.jp/programming/2690.html</t>
@@ -17067,10 +17070,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="148">
     <font>
@@ -17529,6 +17532,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -17545,78 +17571,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17627,6 +17585,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -17642,9 +17601,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17657,9 +17654,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -18100,7 +18103,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18112,73 +18205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18190,55 +18217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18256,7 +18235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18268,13 +18259,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18616,6 +18619,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -18631,11 +18658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18658,23 +18691,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18689,179 +18716,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="25" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="82" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="83" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -19046,10 +19049,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="22" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="24" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19058,7 +19057,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -35231,20 +35229,20 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="116"/>
-      <c r="C23" s="117">
+      <c r="B23" s="112"/>
+      <c r="C23" s="84">
         <v>5</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="119"/>
+      <c r="E23" s="117"/>
     </row>
     <row r="24" ht="15.15" spans="2:5">
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="105"/>
-      <c r="E24" s="122"/>
+      <c r="E24" s="120"/>
     </row>
     <row r="25" ht="15.15" spans="3:5">
       <c r="C25" s="107"/>
@@ -35258,7 +35256,7 @@
       <c r="C26" s="110">
         <v>1</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="121" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="94" t="s">
@@ -35266,11 +35264,11 @@
       </c>
     </row>
     <row r="27" ht="15.15" spans="2:5">
-      <c r="B27" s="120"/>
+      <c r="B27" s="118"/>
       <c r="C27" s="113">
         <v>2</v>
       </c>
-      <c r="D27" s="124" t="s">
+      <c r="D27" s="100" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="98" t="s">
@@ -35278,9 +35276,9 @@
       </c>
     </row>
     <row r="28" ht="15.15" spans="2:5">
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="106"/>
     </row>
     <row r="29" ht="15.15" spans="3:5">
@@ -35289,7 +35287,7 @@
       <c r="E29" s="107"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="122" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="110"/>
@@ -35297,9 +35295,9 @@
       <c r="E30" s="94"/>
     </row>
     <row r="31" ht="15.15" spans="2:5">
-      <c r="B31" s="120"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
       <c r="E31" s="106"/>
     </row>
     <row r="32" ht="15.15" spans="2:5">
@@ -35309,7 +35307,7 @@
       <c r="E32" s="107"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="122" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="110"/>
@@ -35317,9 +35315,9 @@
       <c r="E33" s="94"/>
     </row>
     <row r="34" ht="15.15" spans="2:5">
-      <c r="B34" s="120"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="106"/>
     </row>
     <row r="35" spans="2:5">
@@ -35378,152 +35376,152 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="43" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" s="38" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="3:16">
       <c r="C7" s="44" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" s="44" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="3:15">
       <c r="C9" s="44" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="45" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="4:19">
       <c r="D15" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="4:19">
       <c r="D16" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="4:9">
       <c r="D21" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="46" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -35531,12 +35529,12 @@
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="48" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="49" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="3:3">
@@ -35544,7 +35542,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="46" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -35552,12 +35550,12 @@
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="48" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="49" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="3:3">
@@ -35565,7 +35563,7 @@
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="50" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="3:3">
@@ -35573,7 +35571,7 @@
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="51" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="3:3">
@@ -35581,7 +35579,7 @@
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="52" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="3:3">
@@ -35589,7 +35587,7 @@
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="53" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="3:3">
@@ -35597,17 +35595,17 @@
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="53" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="53" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="53" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="3:3">
@@ -35615,22 +35613,22 @@
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="53" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="53" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="53" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="53" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="62" spans="3:3">
@@ -35638,22 +35636,22 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="53" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="53" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="53" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="53" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -35661,17 +35659,17 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="53" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="53" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="53" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="71" spans="3:3">
@@ -35679,17 +35677,17 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="53" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="53" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="53" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="3:3">
@@ -35697,7 +35695,7 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="53" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="77" spans="3:3">
@@ -35705,22 +35703,22 @@
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="53" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="53" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="53" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="53" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="82" spans="3:3">
@@ -35728,22 +35726,22 @@
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="53" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="53" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="53" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="53" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="87" spans="3:3">
@@ -35751,22 +35749,22 @@
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="53" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="53" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="53" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="53" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="92" spans="3:3">
@@ -35774,22 +35772,22 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="53" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="53" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="53" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="53" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -35797,32 +35795,32 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="53" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="53" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="53" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="53" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="53" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="53" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="104" spans="3:3">
@@ -35830,22 +35828,22 @@
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="53" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="53" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="53" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="53" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="109" spans="3:3">
@@ -35853,7 +35851,7 @@
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="3:3">
@@ -35861,7 +35859,7 @@
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="46" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="3:3">
@@ -35869,7 +35867,7 @@
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="52" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="3:3">
@@ -35877,17 +35875,17 @@
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="53" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="53" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="53" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="3:3">
@@ -35895,27 +35893,27 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="53" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="53" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="53" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="53" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="53" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="125" spans="3:3">
@@ -35923,12 +35921,12 @@
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="53" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="53" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="128" spans="3:3">
@@ -35936,7 +35934,7 @@
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="3:3">
@@ -35944,7 +35942,7 @@
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="46" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="132" spans="3:3">
@@ -35952,17 +35950,17 @@
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="48" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="53" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="49" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -35992,138 +35990,138 @@
   <sheetData>
     <row r="2" spans="2:46">
       <c r="B2" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AT2" s="28" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AT4" s="28" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="47:47">
       <c r="AU5" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="2:48">
       <c r="B6" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" ht="18" spans="3:46">
       <c r="C8" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AT8" s="41" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="3:47">
       <c r="C9" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10" spans="47:47">
       <c r="AU10" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="3:48">
       <c r="C11" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="2:47">
       <c r="B13" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="48:48">
       <c r="AV14" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" ht="15" spans="3:62">
       <c r="C15" s="40"/>
       <c r="BJ15" s="28" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="48:48">
       <c r="AV16" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="48:48">
       <c r="AV17" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="48:48">
       <c r="AV18" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="48:48">
       <c r="AV20" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="28" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="3:48">
       <c r="C22" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="3:48">
       <c r="C23" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="24" spans="49:49">
       <c r="AW24" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="25" spans="2:49">
       <c r="B25" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AW25" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26" spans="48:48">
       <c r="AV26" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27" ht="15" spans="3:3">
@@ -36131,71 +36129,71 @@
     </row>
     <row r="28" spans="48:48">
       <c r="AV28" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="48:48">
       <c r="AV29" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="49:49">
       <c r="AW30" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="48:48">
       <c r="AV31" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="48:48">
       <c r="AV33" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="2:49">
       <c r="B34" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="49:49">
       <c r="AW35" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" ht="15" spans="3:50">
       <c r="C36" s="40"/>
       <c r="AX36" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="50:50">
       <c r="AX37" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="49:49">
       <c r="AW38" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="39" spans="48:48">
       <c r="AV39" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="42" spans="48:48">
       <c r="AV42" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" ht="15" spans="3:48">
@@ -36203,104 +36201,104 @@
       <c r="Q44" s="40"/>
       <c r="AE44" s="40"/>
       <c r="AV44" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="46:46">
       <c r="AT46" s="28" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="48:48">
       <c r="AV49" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="50" ht="15" spans="2:48">
       <c r="B50" s="40"/>
       <c r="AV50" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="53" spans="48:48">
       <c r="AV53" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="55" spans="48:48">
       <c r="AV55" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="49:49">
       <c r="AW56" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="49:49">
       <c r="AW57" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="58" spans="49:49">
       <c r="AW58" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="59" spans="2:49">
       <c r="B59" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AW59" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="60" spans="49:49">
       <c r="AW60" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="61" spans="3:48">
       <c r="C61" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AV61" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="68" ht="15" spans="3:3">
@@ -36308,70 +36306,70 @@
     </row>
     <row r="69" spans="17:17">
       <c r="Q69" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="70" spans="20:20">
       <c r="T70" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="71" spans="22:22">
       <c r="V71" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="72" spans="22:22">
       <c r="V72" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" s="42" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" spans="6:14">
       <c r="F80" s="28" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -36397,375 +36395,375 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="28" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="28" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="33" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="33" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="33" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="33" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="33" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="38" spans="3:20">
       <c r="C38" s="34" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39" spans="3:21">
       <c r="C39" s="35" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="33" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="34" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="35" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="34" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="34" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="47" spans="17:17">
       <c r="Q47" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="48" spans="3:18">
       <c r="C48" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="50" spans="18:18">
       <c r="R50" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" spans="4:19">
       <c r="D51" s="28" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="S51" s="28" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="33" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="33" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="33" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="33" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="33" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="33" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="33" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="33" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="33" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="33" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="33" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="33" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="33" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="33" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="75" spans="3:9">
       <c r="C75" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="76" ht="15.15"/>
     <row r="77" ht="15.15" spans="3:3">
       <c r="C77" s="36" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="78" ht="15.15" spans="3:3">
       <c r="C78" s="33" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="79" ht="15.15" spans="3:3">
       <c r="C79" s="36" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="33" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="33" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="82" ht="15.15" spans="3:3">
       <c r="C82" s="33" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="83" ht="15.15" spans="3:3">
       <c r="C83" s="36" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="33" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="85" ht="15.15" spans="3:3">
       <c r="C85" s="33" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="86" ht="15.15" spans="3:3">
       <c r="C86" s="36" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="87" ht="15.15" spans="3:3">
       <c r="C87" s="36" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="33" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" ht="15.15" spans="3:3">
@@ -36773,12 +36771,12 @@
     </row>
     <row r="90" ht="15.15" spans="3:3">
       <c r="C90" s="36" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="33" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="92" ht="15.15" spans="3:3">
@@ -36786,12 +36784,12 @@
     </row>
     <row r="93" ht="15.15" spans="3:3">
       <c r="C93" s="36" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="94" ht="15.15" spans="3:3">
       <c r="C94" s="36" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="95" spans="3:3">
@@ -36799,17 +36797,17 @@
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="33" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="33" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -36817,37 +36815,37 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="33" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="101" ht="15.15" spans="3:3">
       <c r="C101" s="33" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="102" ht="15.15" spans="3:3">
       <c r="C102" s="36" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="38" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="33" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="33" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="33" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="107" ht="15.15" spans="1:3">
@@ -36855,22 +36853,22 @@
         <v>20</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="108" ht="15.15" spans="3:3">
       <c r="C108" s="36" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="113" spans="3:3">
@@ -36878,86 +36876,86 @@
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="134" spans="3:12">
       <c r="C134" s="34" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="33" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="33" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="33" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="138" spans="3:12">
       <c r="C138" s="33" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="139" spans="3:12">
       <c r="C139" s="33" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="33" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="33" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="33" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" s="33" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="34" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="33" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -36980,12 +36978,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -36993,282 +36991,282 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="28" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="29" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="29" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="29" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="29" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="29" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="78" spans="4:4">
@@ -37276,77 +37274,77 @@
     </row>
     <row r="79" spans="4:4">
       <c r="D79" s="29" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" s="29" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" s="29" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="29" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="29" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="29" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="29" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" s="29" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="29" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" s="29" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" s="29" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" s="29" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" s="29" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" s="29" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="4:4">
@@ -37354,67 +37352,67 @@
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" s="32" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -37441,33 +37439,33 @@
     </row>
     <row r="3" spans="19:20">
       <c r="S3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="19:19">
       <c r="S5" s="5" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="19:20">
       <c r="S6" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="T6" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="12" spans="19:19">
       <c r="S12" s="25" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="13" spans="19:19">
       <c r="S13" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="18" spans="19:19">
@@ -37481,38 +37479,38 @@
     </row>
     <row r="91" spans="28:28">
       <c r="AB91" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="633" spans="26:28">
       <c r="Z633" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AA633" s="27" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AB633" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="634" spans="28:28">
       <c r="AB634" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="635" spans="26:28">
       <c r="Z635" s="27"/>
       <c r="AA635" s="27" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AB635" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="636" spans="26:27">
       <c r="Z636" s="27"/>
       <c r="AA636" s="27" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -37535,361 +37533,361 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2" ht="31.2" spans="2:2">
       <c r="B2" s="21" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
       <c r="B6" s="22" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="23" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="23" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="23" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="23" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="23" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="23" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="23" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="23" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="23" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="23" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="23" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="23" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="23" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="23" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="23" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="23" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="23" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="23" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="23" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="23" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="23" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="24" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="24" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="24" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="23" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="23" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="23" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="23" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="23" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="7" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="23" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="23" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="23" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="23" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -37922,40 +37920,40 @@
   <sheetData>
     <row r="2" ht="35.4" spans="2:2">
       <c r="B2" s="8" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3" ht="15" spans="2:2">
       <c r="B3" s="9" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" ht="15" spans="2:2">
       <c r="B4" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="2:2">
       <c r="B5" s="10" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
       <c r="B6" s="10" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="2:2">
       <c r="B7" s="10" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -37976,92 +37974,92 @@
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="9" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="2:2">
       <c r="B10" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="2:2">
       <c r="B11" s="13" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="2:2">
       <c r="B12" s="13" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="9" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="2:2">
       <c r="B14" s="14" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:2">
       <c r="B15" s="9" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="16" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="18" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="19" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="15" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:2">
       <c r="B29" s="9" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="30" ht="15" spans="2:2">
       <c r="B30" s="20" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -38092,32 +38090,32 @@
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="5" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="130" spans="3:11">
       <c r="C130" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="132" spans="4:31">
       <c r="D132" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="L132" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="R132" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="Y132" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AE132" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -38367,17 +38365,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -38399,270 +38397,270 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="11" spans="3:16">
       <c r="C11" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="D13" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="21" spans="3:10">
       <c r="C21" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="2"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="11:11">
       <c r="K25" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="38" spans="4:13">
       <c r="D38" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="76" spans="4:4">
@@ -38670,15 +38668,15 @@
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="79" spans="4:7">
       <c r="D79" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="80" spans="4:7">
@@ -38687,19 +38685,19 @@
     </row>
     <row r="81" spans="4:7">
       <c r="D81" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="4:7">
       <c r="D82" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="4:13">
       <c r="D83" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G83" s="1"/>
       <c r="M83" s="1"/>
@@ -38707,7 +38705,7 @@
     <row r="84" spans="4:7">
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G84" s="1"/>
     </row>
@@ -38719,79 +38717,79 @@
     <row r="86" spans="4:7">
       <c r="D86" s="1"/>
       <c r="E86" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="4:7">
       <c r="D87" s="1"/>
       <c r="E87" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="4:7">
       <c r="D88" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="90" spans="4:7">
       <c r="D90" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -38813,47 +38811,47 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -38878,146 +38876,146 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D5" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D7" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D9" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D11" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D13" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C15" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D17" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D19" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D21" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D23" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D25" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D27" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D29" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D31" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D33" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D35" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -39029,17 +39027,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.11111111111111" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="4.11111111111111" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="4.11111111111111" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -39058,852 +39062,852 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="19.8" spans="10:10">
       <c r="J4" s="78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="3:11">
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="3:12">
       <c r="C21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="10:10">
       <c r="J25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="11:11">
       <c r="K26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="19.8" spans="10:10">
       <c r="J29" s="78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" ht="19.8" spans="10:10">
       <c r="J31" s="78" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" ht="19.8" spans="10:10">
       <c r="J32" s="78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" ht="19.8" spans="10:10">
       <c r="J33" s="78" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" ht="19.8" spans="2:2">
       <c r="B67" s="78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" ht="19.8" spans="2:2">
       <c r="B69" s="78" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" ht="19.8" spans="2:2">
       <c r="B70" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" ht="19.8" spans="2:2">
       <c r="B71" s="78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" ht="19.8" spans="2:2">
       <c r="B88" s="78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" ht="28.8" spans="2:2">
       <c r="B91" s="79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" ht="19.8" spans="2:2">
       <c r="B92" s="78" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" ht="19.8" spans="2:2">
       <c r="B104" s="78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="4:4">
       <c r="D152" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="5:5">
       <c r="E154" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="5:5">
       <c r="E155" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="4:4">
       <c r="D158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="4:4">
       <c r="D159" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="4:4">
       <c r="D163" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="4:4">
       <c r="D164" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="5:5">
       <c r="E165" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="4:4">
       <c r="D166" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="3:3">
       <c r="C167" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" ht="19.8" spans="2:2">
       <c r="B170" s="78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" ht="19.8" spans="2:2">
       <c r="B172" s="78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="4:4">
       <c r="D178" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="5:5">
       <c r="E180" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="6:6">
       <c r="F181" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="6:6">
       <c r="F182" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="4:4">
       <c r="D184" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185" spans="4:4">
       <c r="D185" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" ht="19.8" spans="2:2">
       <c r="B189" s="78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194" ht="19.8" spans="2:2">
       <c r="B194" s="78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196" ht="22.2" spans="2:2">
       <c r="B196" s="80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="198" ht="19.8" spans="2:2">
       <c r="B198" s="81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199" ht="19.8" spans="2:2">
       <c r="B199" s="81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200" ht="19.8" spans="2:2">
       <c r="B200" s="81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="201" ht="19.8" spans="2:2">
       <c r="B201" s="81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -39928,202 +39932,202 @@
   <sheetData>
     <row r="2" ht="15" spans="2:2">
       <c r="B2" s="69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="2:2">
       <c r="B4" s="70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:2">
       <c r="B15" s="71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:2">
       <c r="B17" s="73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="2:2">
       <c r="B19" s="74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" ht="15" spans="2:2">
       <c r="B23" s="75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" ht="15" spans="2:2">
       <c r="B24" s="76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" ht="15" spans="2:2">
       <c r="B25" s="76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" ht="15" spans="2:2">
       <c r="B27" s="71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:2">
       <c r="B29" s="73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" ht="15" spans="2:2">
       <c r="B31" s="71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" ht="15" spans="2:2">
       <c r="B33" s="76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" ht="15" spans="2:2">
       <c r="B34" s="75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" ht="15" spans="2:2">
       <c r="B35" s="76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" ht="15" spans="2:2">
       <c r="B36" s="75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" ht="15" spans="2:2">
       <c r="B37" s="75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" ht="15" spans="2:2">
       <c r="B38" s="77" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" ht="15" spans="2:2">
       <c r="B40" s="71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" ht="15" spans="2:2">
       <c r="B42" s="73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" ht="16.8" spans="2:2">
       <c r="B44" s="74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" ht="15" spans="2:2">
       <c r="B46" s="76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" ht="15" spans="2:2">
       <c r="B47" s="76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" ht="15" spans="2:2">
       <c r="B48" s="76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" ht="16.8" spans="2:2">
       <c r="B50" s="71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" ht="15" spans="2:2">
       <c r="B52" s="73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" ht="15" spans="2:2">
       <c r="B54" s="74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" ht="15" spans="2:2">
       <c r="B56" s="76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" ht="15" spans="2:2">
       <c r="B57" s="76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" ht="15" spans="2:2">
       <c r="B58" s="75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" ht="15" spans="2:2">
       <c r="B59" s="76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" ht="16.8" spans="2:2">
       <c r="B61" s="71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -40168,104 +40172,104 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" ht="18" spans="2:2">
       <c r="B17" s="68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" ht="14.45" customHeight="1"/>
     <row r="31" ht="13.5" customHeight="1" spans="2:2">
       <c r="B31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1"/>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -40292,32 +40296,32 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -40325,17 +40329,17 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="2:2">
@@ -40343,17 +40347,17 @@
     </row>
     <row r="58" ht="17.4" spans="3:3">
       <c r="C58" s="65" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="262" spans="3:3">
       <c r="C262" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="298" spans="3:3">
@@ -40379,536 +40383,536 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="56" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="2:36">
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="2:36">
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ4" s="57"/>
     </row>
     <row r="28" spans="36:36">
       <c r="AJ28" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="36:36">
       <c r="AJ30" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="37:37">
       <c r="AK31" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="38:38">
       <c r="AL32" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="3:36">
       <c r="C34" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="37:37">
       <c r="AK35" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="38:38">
       <c r="AL36" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="37:37">
       <c r="AK37" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="38:38">
       <c r="AL38" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="36:36">
       <c r="AJ40" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="37:37">
       <c r="AK41" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="38:38">
       <c r="AL42" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="37:37">
       <c r="AK43" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="38:38">
       <c r="AL44" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="37:37">
       <c r="AK45" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="38:38">
       <c r="AL46" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="36:36">
       <c r="AJ48" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="37:37">
       <c r="AK51" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="38:38">
       <c r="AL53" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="37:37">
       <c r="AK55" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="38:38">
       <c r="AL56" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="39:39">
       <c r="AM57" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="39:39">
       <c r="AM58" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="39:39">
       <c r="AM63" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="38:38">
       <c r="AL64" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="37:37">
       <c r="AK66" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="2:38">
       <c r="B67" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL67" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="2:37">
       <c r="B70" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK70" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="2:38">
       <c r="B72" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL72" s="28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="39:39">
       <c r="AM73" s="28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="2:38">
       <c r="B74" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL74" s="28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="38:38">
       <c r="AL76" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="38:38">
       <c r="AL78" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="39:39">
       <c r="AM79" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="38:38">
       <c r="AL80" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="37:37">
       <c r="AK83" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="38:38">
       <c r="AL85" s="28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="39:39">
       <c r="AM86" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="39:39">
       <c r="AM88" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="38:38">
       <c r="AL89" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="37:37">
       <c r="AK95" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="3:41">
       <c r="C97" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO97" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="3:37">
       <c r="C98" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK98" s="28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" spans="3:38">
       <c r="C99" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL99" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="3:39">
       <c r="C100" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM100" s="42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="3:38">
       <c r="C101" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL101" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="3:37">
       <c r="C102" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK102" s="28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="3:40">
       <c r="C105" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ105" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN105" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="37:37">
       <c r="AK106" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="38:38">
       <c r="AL107" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="37:37">
       <c r="AK108" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="36:40">
       <c r="AJ110" s="58" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN110" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="37:37">
       <c r="AK111" s="28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="38:38">
       <c r="AL112" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="37:37">
       <c r="AK113" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="36:45">
       <c r="AJ115" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AS115" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="37:37">
       <c r="AK116" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="38:38">
       <c r="AL117" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="37:37">
       <c r="AK118" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="160" spans="2:8">
       <c r="B160" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="3:3">
       <c r="C166" s="59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="3:22">
       <c r="C167" s="56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V167" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="3:23">
       <c r="C168" s="56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W168" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="3:24">
       <c r="C169" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X169" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="3:24">
       <c r="C170" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="X170" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="X170" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="171" spans="3:23">
       <c r="C171" s="31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W171" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" spans="3:24">
       <c r="C172" s="60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X172" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="173" spans="3:3">
       <c r="C173" s="31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="175" spans="3:3">
       <c r="C175" s="31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="3:5">
       <c r="C176" s="60" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E176" s="28"/>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" s="61" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="60" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="3:3">
       <c r="C179" s="62" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="3:3">
       <c r="C180" s="60" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="181" spans="3:3">
       <c r="C181" s="60" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182" spans="3:3">
@@ -40916,27 +40920,27 @@
     </row>
     <row r="183" spans="3:3">
       <c r="C183" s="31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="3:3">
       <c r="C184" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="185" spans="3:3">
       <c r="C185" s="56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="187" spans="3:3">
       <c r="C187" s="31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="188" spans="3:3">
@@ -40944,22 +40948,22 @@
     </row>
     <row r="189" spans="3:3">
       <c r="C189" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" s="56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="3:3">
@@ -40967,22 +40971,22 @@
     </row>
     <row r="194" spans="3:3">
       <c r="C194" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="3:3">
       <c r="C195" s="56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="197" spans="3:3">
       <c r="C197" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="198" spans="3:3">
@@ -40990,22 +40994,22 @@
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="200" spans="3:3">
       <c r="C200" s="56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="202" spans="3:3">
       <c r="C202" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="203" spans="3:3">
@@ -41013,22 +41017,22 @@
     </row>
     <row r="204" spans="3:3">
       <c r="C204" s="31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="205" spans="3:3">
       <c r="C205" s="56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="206" spans="3:3">
       <c r="C206" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="3:3">
       <c r="C207" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="3:3">
@@ -41036,27 +41040,27 @@
     </row>
     <row r="209" spans="3:3">
       <c r="C209" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="210" spans="3:3">
       <c r="C210" s="56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="211" spans="3:3">
       <c r="C211" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="213" spans="3:3">
       <c r="C213" s="60" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="214" spans="3:3">
@@ -41064,540 +41068,540 @@
     </row>
     <row r="215" spans="3:3">
       <c r="C215" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="216" spans="3:3">
       <c r="C216" s="60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="217" spans="3:3">
       <c r="C217" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="220" spans="2:9">
       <c r="B220" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="247" spans="3:3">
       <c r="C247" s="59" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="248" spans="3:20">
       <c r="C248" s="56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T248" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="249" spans="3:21">
       <c r="C249" s="56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U249" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="250" spans="3:22">
       <c r="C250" s="60" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V250" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="251" spans="3:3">
       <c r="C251" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="252" spans="3:3">
       <c r="C252" s="60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="253" spans="3:3">
       <c r="C253" s="60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="254" spans="3:3">
       <c r="C254" s="31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="255" spans="3:3">
       <c r="C255" s="31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="256" spans="3:3">
       <c r="C256" s="60" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="3:3">
       <c r="C257" s="31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="258" spans="3:3">
       <c r="C258" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="259" spans="3:3">
       <c r="C259" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="260" spans="3:3">
       <c r="C260" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="261" spans="3:3">
       <c r="C261" s="31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="262" spans="3:3">
       <c r="C262" s="31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="263" spans="3:3">
       <c r="C263" s="31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="264" spans="3:3">
       <c r="C264" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="265" spans="3:3">
       <c r="C265" s="31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="266" spans="3:3">
       <c r="C266" s="31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="267" spans="3:3">
       <c r="C267" s="31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="268" spans="3:3">
       <c r="C268" s="31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="269" spans="3:3">
       <c r="C269" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="270" spans="3:3">
       <c r="C270" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="3:3">
       <c r="C271" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" s="60" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="273" spans="3:3">
       <c r="C273" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="275" spans="3:3">
       <c r="C275" s="60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="278" spans="2:9">
       <c r="B278" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="305" spans="3:3">
       <c r="C305" s="59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="306" spans="3:3">
       <c r="C306" s="56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="307" spans="3:3">
       <c r="C307" s="56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="308" spans="3:3">
       <c r="C308" s="60" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="309" spans="3:3">
       <c r="C309" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="310" spans="3:3">
       <c r="C310" s="60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="311" spans="3:3">
       <c r="C311" s="60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="312" spans="3:3">
       <c r="C312" s="31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="313" spans="3:3">
       <c r="C313" s="31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="314" spans="3:3">
       <c r="C314" s="60" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="315" spans="3:3">
       <c r="C315" s="60" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="316" spans="3:3">
       <c r="C316" s="60" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="317" spans="3:3">
       <c r="C317" s="31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="318" spans="3:3">
       <c r="C318" s="60" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="319" spans="3:3">
       <c r="C319" s="60" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="320" spans="3:3">
       <c r="C320" s="31" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="321" spans="3:3">
       <c r="C321" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="322" spans="3:3">
       <c r="C322" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="323" spans="3:3">
       <c r="C323" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="324" spans="3:3">
       <c r="C324" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="325" spans="3:3">
       <c r="C325" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="326" spans="3:3">
       <c r="C326" s="31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="327" spans="3:3">
       <c r="C327" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="328" spans="3:3">
       <c r="C328" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="329" spans="3:3">
       <c r="C329" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="330" spans="3:3">
       <c r="C330" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="331" spans="3:3">
       <c r="C331" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="332" spans="3:3">
       <c r="C332" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="333" spans="3:3">
       <c r="C333" s="31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="334" spans="3:3">
       <c r="C334" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="335" spans="3:3">
       <c r="C335" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="336" spans="3:3">
       <c r="C336" s="31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="337" spans="3:3">
       <c r="C337" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="338" spans="3:3">
       <c r="C338" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="339" spans="3:3">
       <c r="C339" s="31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="340" spans="3:3">
       <c r="C340" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="341" spans="3:3">
       <c r="C341" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="342" spans="3:3">
       <c r="C342" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="343" spans="3:3">
       <c r="C343" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="344" spans="3:3">
       <c r="C344" s="31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="345" spans="3:3">
       <c r="C345" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="346" spans="3:3">
       <c r="C346" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="347" spans="3:3">
       <c r="C347" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="348" spans="3:3">
       <c r="C348" s="60" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="349" spans="3:3">
       <c r="C349" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="350" spans="3:3">
       <c r="C350" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="351" spans="3:3">
       <c r="C351" s="60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="352" spans="3:3">
       <c r="C352" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="354" spans="2:2">
       <c r="B354" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="360" spans="3:3">
       <c r="C360" s="59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="361" spans="3:3">
       <c r="C361" s="56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="362" spans="3:3">
       <c r="C362" s="60" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="363" spans="3:3">
       <c r="C363" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="364" spans="3:3">
       <c r="C364" s="60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="365" spans="3:3">
       <c r="C365" s="60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="366" spans="3:3">
       <c r="C366" s="31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="367" spans="3:3">
       <c r="C367" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="368" spans="3:3">
       <c r="C368" s="31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="369" spans="3:3">
       <c r="C369" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="370" spans="3:3">
       <c r="C370" s="31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="371" spans="3:3">
       <c r="C371" s="60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="372" spans="3:3">
       <c r="C372" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="374" spans="2:2">
       <c r="B374" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="376" spans="3:3">
       <c r="C376" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="476" spans="3:3">
       <c r="C476" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="477" spans="3:3">
       <c r="C477" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="478" spans="3:3">
       <c r="C478" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="479" spans="3:3">
       <c r="C479" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="480" spans="3:12">
       <c r="C480" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="481" spans="3:12">
@@ -41606,7 +41610,7 @@
     </row>
     <row r="482" spans="2:2">
       <c r="B482" s="28" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="483" spans="2:2">
@@ -41614,27 +41618,27 @@
     </row>
     <row r="484" spans="3:3">
       <c r="C484" s="60" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="485" spans="3:3">
       <c r="C485" s="61" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="486" spans="3:3">
       <c r="C486" s="61" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="487" spans="3:3">
       <c r="C487" s="56" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="488" spans="3:3">
       <c r="C488" s="56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="489" spans="3:3">
@@ -41642,289 +41646,289 @@
     </row>
     <row r="490" spans="3:3">
       <c r="C490" s="60" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="491" spans="3:3">
       <c r="C491" s="31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="492" spans="3:3">
       <c r="C492" s="31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="493" spans="3:3">
       <c r="C493" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="494" spans="3:3">
       <c r="C494" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="495" spans="3:3">
       <c r="C495" s="60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="496" spans="3:3">
       <c r="C496" s="63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="497" spans="3:3">
       <c r="C497" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="498" spans="3:3">
       <c r="C498" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="499" spans="3:3">
       <c r="C499" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="500" spans="3:3">
       <c r="C500" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="501" spans="3:3">
       <c r="C501" s="31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="502" spans="3:3">
       <c r="C502" s="60" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="503" spans="3:3">
       <c r="C503" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="504" spans="3:3">
       <c r="C504" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="505" spans="3:3">
       <c r="C505" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="506" spans="3:3">
       <c r="C506" s="31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="507" spans="3:3">
       <c r="C507" s="60" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="508" spans="3:3">
       <c r="C508" s="31" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="509" spans="3:3">
       <c r="C509" s="60" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="510" spans="3:3">
       <c r="C510" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="511" spans="3:3">
       <c r="C511" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="512" spans="3:20">
       <c r="C512" s="60" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T512" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="513" spans="3:3">
       <c r="C513" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="514" spans="3:3">
       <c r="C514" s="31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="515" spans="3:3">
       <c r="C515" s="60" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="516" spans="3:3">
       <c r="C516" s="63" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="517" spans="3:3">
       <c r="C517" s="60" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="518" spans="3:3">
       <c r="C518" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="519" spans="3:3">
       <c r="C519" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="520" spans="3:3">
       <c r="C520" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="521" spans="3:3">
       <c r="C521" s="31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="522" spans="3:3">
       <c r="C522" s="60" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="523" spans="3:3">
       <c r="C523" s="63" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="524" spans="3:3">
       <c r="C524" s="60" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="525" spans="3:3">
       <c r="C525" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="526" spans="3:3">
       <c r="C526" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="527" spans="3:3">
       <c r="C527" s="31" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="528" spans="3:3">
       <c r="C528" s="63" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="529" spans="3:3">
       <c r="C529" s="63" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="619" spans="3:3">
       <c r="C619" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="621" spans="2:7">
       <c r="B621" s="28" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G621" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="623" spans="3:3">
       <c r="C623" s="60" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="624" spans="3:3">
       <c r="C624" s="61" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="625" spans="3:3">
       <c r="C625" s="59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="626" spans="3:3">
       <c r="C626" s="56" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="627" spans="3:3">
       <c r="C627" s="31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="628" spans="3:3">
       <c r="C628" s="60" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="629" spans="3:3">
       <c r="C629" s="31" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="630" spans="3:3">
       <c r="C630" s="31" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="631" spans="3:3">
       <c r="C631" s="31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="632" spans="3:17">
       <c r="C632" s="60" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q632" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="633" spans="3:18">
       <c r="C633" s="31" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="R633" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="634" spans="3:3">
       <c r="C634" s="60" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="635" spans="3:3">
@@ -41932,17 +41936,17 @@
     </row>
     <row r="636" spans="3:3">
       <c r="C636" s="60" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="637" spans="3:3">
       <c r="C637" s="31" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="638" spans="3:3">
       <c r="C638" s="60" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="639" spans="3:3">
@@ -41950,17 +41954,17 @@
     </row>
     <row r="640" spans="3:3">
       <c r="C640" s="60" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="641" spans="3:3">
       <c r="C641" s="31" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="642" spans="3:3">
       <c r="C642" s="60" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="643" spans="3:3">
@@ -41968,17 +41972,17 @@
     </row>
     <row r="644" spans="3:3">
       <c r="C644" s="60" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="645" spans="3:3">
       <c r="C645" s="31" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="646" spans="3:3">
       <c r="C646" s="60" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="647" spans="3:3">
@@ -41986,17 +41990,17 @@
     </row>
     <row r="648" spans="3:3">
       <c r="C648" s="60" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="649" spans="3:3">
       <c r="C649" s="31" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="650" spans="3:3">
       <c r="C650" s="60" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="651" spans="3:3">
@@ -42004,122 +42008,122 @@
     </row>
     <row r="652" spans="3:3">
       <c r="C652" s="60" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="653" spans="3:3">
       <c r="C653" s="31" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="654" spans="3:3">
       <c r="C654" s="60" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="655" spans="3:3">
       <c r="C655" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="657" spans="3:3">
       <c r="C657" s="64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="658" spans="4:4">
       <c r="D658" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="659" spans="4:4">
       <c r="D659" s="31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="660" spans="4:4">
       <c r="D660" s="31" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="661" spans="4:4">
       <c r="D661" s="31" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="662" spans="4:4">
       <c r="D662" s="31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="663" spans="4:4">
       <c r="D663" s="31" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="665" spans="4:4">
       <c r="D665" s="63" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="667" spans="4:4">
       <c r="D667" s="31" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="668" spans="4:4">
       <c r="D668" s="31" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="669" spans="4:4">
       <c r="D669" s="31" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="670" spans="4:4">
       <c r="D670" s="31" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="671" spans="4:4">
       <c r="D671" s="31" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="672" spans="4:4">
       <c r="D672" s="31" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="673" spans="4:4">
       <c r="D673" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="675" spans="4:4">
       <c r="D675" s="31" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="676" spans="4:4">
       <c r="D676" s="31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="678" spans="4:4">
       <c r="D678" s="31" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="679" spans="4:4">
       <c r="D679" s="31" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="681" spans="3:3">
       <c r="C681" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="682" spans="3:3">
@@ -42127,99 +42131,99 @@
     </row>
     <row r="683" spans="4:4">
       <c r="D683" s="31" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="684" spans="4:4">
       <c r="D684" s="59" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="685" spans="4:4">
       <c r="D685" s="59" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="686" spans="4:4">
       <c r="D686" s="56" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="687" spans="4:4">
       <c r="D687" s="31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="688" spans="4:4">
       <c r="D688" s="60" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="689" spans="4:4">
       <c r="D689" s="60" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="690" spans="4:20">
       <c r="D690" s="31" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T690" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="691" spans="4:20">
       <c r="D691" s="31" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T691" s="28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="692" spans="4:20">
       <c r="D692" s="31" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T692" s="28" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="693" spans="4:4">
       <c r="D693" s="60" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="694" spans="4:4">
       <c r="D694" s="60" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="695" spans="4:4">
       <c r="D695" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="697" spans="3:3">
       <c r="C697" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="730" spans="3:3">
       <c r="C730" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="732" spans="4:4">
       <c r="D732" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="733" spans="4:21">
       <c r="D733" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="U733" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -42276,287 +42280,287 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/勉強メモ-2017-Z.xlsx
+++ b/勉強メモ-2017-Z.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169">
   <si>
     <t>category</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>クレジットカード</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
   <si>
     <t>SSH-Linux</t>
@@ -756,6 +759,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">  |_ </t>
     </r>
     <r>
@@ -774,6 +782,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> |_ </t>
     </r>
     <r>
@@ -781,6 +794,7 @@
         <b/>
         <sz val="11"/>
         <color theme="4" tint="-0.25"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>master</t>
@@ -824,12 +838,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>第一个</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>定义最先被处理。</t>
@@ -840,12 +862,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>最后一个</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>定义起决定作用。</t>
@@ -883,6 +913,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>mvn archetype</t>
     </r>
     <r>
@@ -17787,6 +17823,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -17802,23 +17839,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17832,25 +17854,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17864,6 +17879,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17886,7 +17908,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -17894,7 +17916,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -17911,6 +17933,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -18306,9 +18342,8 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -18319,16 +18354,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4" tint="-0.25"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -18372,7 +18406,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18384,31 +18490,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18420,13 +18526,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18438,13 +18562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18456,97 +18574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18888,6 +18922,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -18903,32 +18948,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -18940,6 +18959,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18971,24 +18999,30 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="72" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19006,134 +19040,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="87" fillId="25" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="10" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -19327,13 +19361,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="22" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="24" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21658,7 +21687,6 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:ln/>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -21673,7 +21701,6 @@
             <a:t>⑤</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
-            <a:ln/>
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -37902,13 +37929,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G36"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="4.75" customWidth="1"/>
     <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
@@ -38115,7 +38142,7 @@
       <c r="D18" s="114"/>
       <c r="E18" s="113"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:9">
       <c r="B19" s="115" t="s">
         <v>32</v>
       </c>
@@ -38126,37 +38153,40 @@
         <v>33</v>
       </c>
       <c r="E19" s="117"/>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="118"/>
-      <c r="C20" s="119">
+      <c r="C20" s="85">
         <v>2</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="104"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="118"/>
-      <c r="C21" s="119">
+      <c r="C21" s="85">
         <v>3</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="104"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="118"/>
-      <c r="C22" s="119">
+      <c r="C22" s="85">
         <v>4</v>
       </c>
-      <c r="D22" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="121" t="s">
+      <c r="D22" s="119" t="s">
         <v>37</v>
+      </c>
+      <c r="E22" s="120" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -38164,26 +38194,26 @@
       <c r="C23" s="90">
         <v>5</v>
       </c>
-      <c r="D23" s="120" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="121"/>
+      <c r="D23" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="120"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="122"/>
-      <c r="C24" s="123">
+      <c r="B24" s="118"/>
+      <c r="C24" s="90">
         <v>6</v>
       </c>
-      <c r="D24" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="125"/>
+      <c r="D24" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="122"/>
     </row>
     <row r="25" ht="15.15" spans="2:5">
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="124"/>
       <c r="D25" s="111"/>
-      <c r="E25" s="128"/>
+      <c r="E25" s="125"/>
     </row>
     <row r="26" ht="15.15" spans="3:5">
       <c r="C26" s="113"/>
@@ -38192,34 +38222,34 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="116">
         <v>1</v>
       </c>
-      <c r="D27" s="129" t="s">
-        <v>41</v>
+      <c r="D27" s="126" t="s">
+        <v>42</v>
       </c>
       <c r="E27" s="100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="15.15" spans="2:5">
-      <c r="B28" s="126"/>
-      <c r="C28" s="119">
+      <c r="B28" s="123"/>
+      <c r="C28" s="85">
         <v>2</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="15.15" spans="2:5">
-      <c r="B29" s="126"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="112"/>
     </row>
     <row r="30" ht="15.15" spans="3:5">
@@ -38228,17 +38258,17 @@
       <c r="E30" s="113"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="130" t="s">
-        <v>45</v>
+      <c r="B31" s="127" t="s">
+        <v>46</v>
       </c>
       <c r="C31" s="116"/>
       <c r="D31" s="99"/>
       <c r="E31" s="100"/>
     </row>
     <row r="32" ht="15.15" spans="2:5">
-      <c r="B32" s="126"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="112"/>
     </row>
     <row r="33" ht="15.15" spans="2:5">
@@ -38248,17 +38278,17 @@
       <c r="E33" s="113"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="130" t="s">
-        <v>46</v>
+      <c r="B34" s="127" t="s">
+        <v>47</v>
       </c>
       <c r="C34" s="116"/>
       <c r="D34" s="99"/>
       <c r="E34" s="100"/>
     </row>
     <row r="35" ht="15.15" spans="2:5">
-      <c r="B35" s="126"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="112"/>
     </row>
     <row r="36" spans="2:5">
@@ -38318,287 +38348,287 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -38620,152 +38650,152 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="43" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" s="38" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="3:16">
       <c r="C7" s="44" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" s="44" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="3:15">
       <c r="C9" s="44" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="45" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="4:19">
       <c r="D15" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="4:19">
       <c r="D16" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="4:9">
       <c r="D21" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="46" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -38773,12 +38803,12 @@
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="48" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="49" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="40" spans="3:3">
@@ -38786,7 +38816,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="46" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -38794,12 +38824,12 @@
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="48" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="49" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="45" spans="3:3">
@@ -38807,7 +38837,7 @@
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="50" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="3:3">
@@ -38815,7 +38845,7 @@
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="51" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="3:3">
@@ -38823,7 +38853,7 @@
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="52" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="51" spans="3:3">
@@ -38831,7 +38861,7 @@
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="53" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="53" spans="3:3">
@@ -38839,17 +38869,17 @@
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="53" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="53" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="53" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="57" spans="3:3">
@@ -38857,22 +38887,22 @@
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="53" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="53" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="53" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="53" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="62" spans="3:3">
@@ -38880,22 +38910,22 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="53" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="53" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="53" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="53" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -38903,17 +38933,17 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="53" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="53" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="53" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="71" spans="3:3">
@@ -38921,17 +38951,17 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="53" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="53" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="53" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="75" spans="3:3">
@@ -38939,7 +38969,7 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="53" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="77" spans="3:3">
@@ -38947,22 +38977,22 @@
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="53" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="53" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="53" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="53" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="82" spans="3:3">
@@ -38970,22 +39000,22 @@
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="53" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="53" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="53" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="53" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="87" spans="3:3">
@@ -38993,22 +39023,22 @@
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="53" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="53" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="53" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="53" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="92" spans="3:3">
@@ -39016,22 +39046,22 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="53" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="53" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="53" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="53" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -39039,32 +39069,32 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="53" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="53" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="53" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="53" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="53" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="53" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="104" spans="3:3">
@@ -39072,22 +39102,22 @@
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="53" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="53" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="53" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="53" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="109" spans="3:3">
@@ -39095,7 +39125,7 @@
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="3:3">
@@ -39103,7 +39133,7 @@
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="46" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="113" spans="3:3">
@@ -39111,7 +39141,7 @@
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="52" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="115" spans="3:3">
@@ -39119,17 +39149,17 @@
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="53" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="53" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="53" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="119" spans="3:3">
@@ -39137,27 +39167,27 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="53" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="53" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="53" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="53" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="53" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="125" spans="3:3">
@@ -39165,12 +39195,12 @@
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="53" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="53" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="128" spans="3:3">
@@ -39178,7 +39208,7 @@
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="3:3">
@@ -39186,7 +39216,7 @@
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="46" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="132" spans="3:3">
@@ -39194,17 +39224,17 @@
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="48" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="53" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="49" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -39234,138 +39264,138 @@
   <sheetData>
     <row r="2" spans="2:46">
       <c r="B2" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AT2" s="28" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AT4" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="47:47">
       <c r="AU5" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="2:48">
       <c r="B6" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" ht="18" spans="3:46">
       <c r="C8" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AT8" s="41" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" spans="3:47">
       <c r="C9" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="47:47">
       <c r="AU10" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="3:48">
       <c r="C11" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="2:47">
       <c r="B13" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="48:48">
       <c r="AV14" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" ht="15" spans="3:62">
       <c r="C15" s="40"/>
       <c r="BJ15" s="28" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="48:48">
       <c r="AV16" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="48:48">
       <c r="AV17" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="48:48">
       <c r="AV18" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="48:48">
       <c r="AV20" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="28" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="3:48">
       <c r="C22" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="3:48">
       <c r="C23" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="49:49">
       <c r="AW24" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" spans="2:49">
       <c r="B25" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AW25" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="48:48">
       <c r="AV26" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" ht="15" spans="3:3">
@@ -39373,71 +39403,71 @@
     </row>
     <row r="28" spans="48:48">
       <c r="AV28" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29" spans="48:48">
       <c r="AV29" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="30" spans="49:49">
       <c r="AW30" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" spans="48:48">
       <c r="AV31" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" spans="48:48">
       <c r="AV33" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="2:49">
       <c r="B34" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="49:49">
       <c r="AW35" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="36" ht="15" spans="3:50">
       <c r="C36" s="40"/>
       <c r="AX36" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="50:50">
       <c r="AX37" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="49:49">
       <c r="AW38" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="39" spans="48:48">
       <c r="AV39" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="48:48">
       <c r="AV42" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" ht="15" spans="3:48">
@@ -39445,104 +39475,104 @@
       <c r="Q44" s="40"/>
       <c r="AE44" s="40"/>
       <c r="AV44" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="46" spans="46:46">
       <c r="AT46" s="28" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="48:48">
       <c r="AV49" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" ht="15" spans="2:48">
       <c r="B50" s="40"/>
       <c r="AV50" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="53" spans="48:48">
       <c r="AV53" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="55" spans="48:48">
       <c r="AV55" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="56" spans="49:49">
       <c r="AW56" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="57" spans="49:49">
       <c r="AW57" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="58" spans="49:49">
       <c r="AW58" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="59" spans="2:49">
       <c r="B59" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AW59" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="60" spans="49:49">
       <c r="AW60" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="61" spans="3:48">
       <c r="C61" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AV61" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" ht="15" spans="3:3">
@@ -39550,70 +39580,70 @@
     </row>
     <row r="69" spans="17:17">
       <c r="Q69" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="70" spans="20:20">
       <c r="T70" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="71" spans="22:22">
       <c r="V71" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="72" spans="22:22">
       <c r="V72" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" s="42" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="80" spans="6:14">
       <c r="F80" s="28" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -39639,375 +39669,375 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="28" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="28" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="33" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="33" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="33" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="33" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="33" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="38" spans="3:20">
       <c r="C38" s="34" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="39" spans="3:21">
       <c r="C39" s="35" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="33" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="34" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="35" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="34" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="34" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="17:17">
       <c r="Q47" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="3:18">
       <c r="C48" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="50" spans="18:18">
       <c r="R50" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="51" spans="4:19">
       <c r="D51" s="28" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="S51" s="28" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="33" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="33" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="33" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="33" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="33" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="33" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="33" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="33" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="33" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="33" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="33" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="33" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="33" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="75" spans="3:9">
       <c r="C75" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="76" ht="15.15"/>
     <row r="77" ht="15.15" spans="3:3">
       <c r="C77" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="78" ht="15.15" spans="3:3">
       <c r="C78" s="33" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="79" ht="15.15" spans="3:3">
       <c r="C79" s="36" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="33" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="33" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="82" ht="15.15" spans="3:3">
       <c r="C82" s="33" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="83" ht="15.15" spans="3:3">
       <c r="C83" s="36" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="33" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="85" ht="15.15" spans="3:3">
       <c r="C85" s="33" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="86" ht="15.15" spans="3:3">
       <c r="C86" s="36" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="87" ht="15.15" spans="3:3">
       <c r="C87" s="36" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="33" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="89" ht="15.15" spans="3:3">
@@ -40015,12 +40045,12 @@
     </row>
     <row r="90" ht="15.15" spans="3:3">
       <c r="C90" s="36" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="33" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="92" ht="15.15" spans="3:3">
@@ -40028,12 +40058,12 @@
     </row>
     <row r="93" ht="15.15" spans="3:3">
       <c r="C93" s="36" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="94" ht="15.15" spans="3:3">
       <c r="C94" s="36" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="95" spans="3:3">
@@ -40041,17 +40071,17 @@
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="33" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="33" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -40059,37 +40089,37 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="33" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="101" ht="15.15" spans="3:3">
       <c r="C101" s="33" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="102" ht="15.15" spans="3:3">
       <c r="C102" s="36" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="38" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="33" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="33" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="33" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="107" ht="15.15" spans="1:3">
@@ -40097,22 +40127,22 @@
         <v>20</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="108" ht="15.15" spans="3:3">
       <c r="C108" s="36" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="113" spans="3:3">
@@ -40120,86 +40150,86 @@
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="134" spans="3:12">
       <c r="C134" s="34" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="33" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="33" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="33" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="138" spans="3:12">
       <c r="C138" s="33" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="139" spans="3:12">
       <c r="C139" s="33" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="33" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="33" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="33" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="33" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" s="33" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="34" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="33" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -40222,12 +40252,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -40235,282 +40265,282 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="28" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="29" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="29" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="29" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="29" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="29" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="78" spans="4:4">
@@ -40518,77 +40548,77 @@
     </row>
     <row r="79" spans="4:4">
       <c r="D79" s="29" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" s="29" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" s="29" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="29" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="29" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="29" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="29" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" s="29" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="29" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" s="29" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" s="29" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" s="29" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" s="29" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" s="29" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="4:4">
@@ -40596,67 +40626,67 @@
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" s="32" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -40683,33 +40713,33 @@
     </row>
     <row r="3" spans="19:20">
       <c r="S3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="T3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="5" spans="19:19">
       <c r="S5" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="6" spans="19:20">
       <c r="S6" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="T6" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="12" spans="19:19">
       <c r="S12" s="25" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="13" spans="19:19">
       <c r="S13" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="18" spans="19:19">
@@ -40723,38 +40753,38 @@
     </row>
     <row r="91" spans="28:28">
       <c r="AB91" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="633" spans="26:28">
       <c r="Z633" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA633" s="27" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AB633" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="634" spans="28:28">
       <c r="AB634" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="635" spans="26:28">
       <c r="Z635" s="27"/>
       <c r="AA635" s="27" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AB635" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="636" spans="26:27">
       <c r="Z636" s="27"/>
       <c r="AA636" s="27" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -40777,361 +40807,361 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="2" ht="31.2" spans="2:2">
       <c r="B2" s="21" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
       <c r="B6" s="22" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="23" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="23" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="23" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="23" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="23" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="23" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="23" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="23" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="23" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="23" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="23" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="23" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="23" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="23" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="23" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="23" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="23" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="23" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="23" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="23" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="23" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="23" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="24" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="24" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="24" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="23" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="23" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="23" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="23" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="23" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="7" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="7" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="23" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="23" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="23" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="23" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -41164,40 +41194,40 @@
   <sheetData>
     <row r="2" ht="35.4" spans="2:2">
       <c r="B2" s="8" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" ht="15" spans="2:2">
       <c r="B3" s="9" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" ht="15" spans="2:2">
       <c r="B4" s="10" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="2:2">
       <c r="B5" s="10" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
       <c r="B6" s="10" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="2:2">
       <c r="B7" s="10" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -41218,92 +41248,92 @@
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="9" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="2:2">
       <c r="B10" s="12" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="2:2">
       <c r="B11" s="13" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="2:2">
       <c r="B12" s="13" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="9" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="2:2">
       <c r="B14" s="14" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:2">
       <c r="B15" s="9" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="16" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="18" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="19" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="15" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:2">
       <c r="B29" s="9" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="30" ht="15" spans="2:2">
       <c r="B30" s="20" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -41334,32 +41364,32 @@
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="5" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="130" spans="3:11">
       <c r="C130" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="132" spans="4:31">
       <c r="D132" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L132" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="R132" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="Y132" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AE132" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -41401,45 +41431,45 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="3:10">
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -41451,127 +41481,127 @@
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="89" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -41609,17 +41639,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="4" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -41641,270 +41671,270 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="11" spans="3:16">
       <c r="C11" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="D13" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="21" spans="3:10">
       <c r="C21" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="2"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="25" spans="11:11">
       <c r="K25" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="38" spans="4:13">
       <c r="D38" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="76" spans="4:4">
@@ -41912,15 +41942,15 @@
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="79" spans="4:7">
       <c r="D79" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="80" spans="4:7">
@@ -41929,19 +41959,19 @@
     </row>
     <row r="81" spans="4:7">
       <c r="D81" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="4:7">
       <c r="D82" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="4:13">
       <c r="D83" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G83" s="1"/>
       <c r="M83" s="1"/>
@@ -41949,7 +41979,7 @@
     <row r="84" spans="4:7">
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="G84" s="1"/>
     </row>
@@ -41961,79 +41991,79 @@
     <row r="86" spans="4:7">
       <c r="D86" s="1"/>
       <c r="E86" s="3" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="4:7">
       <c r="D87" s="1"/>
       <c r="E87" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="4:7">
       <c r="D88" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="90" spans="4:7">
       <c r="D90" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -42055,47 +42085,47 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
   </sheetData>
@@ -42120,146 +42150,146 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D3" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D5" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D7" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D9" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D11" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D13" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C15" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D17" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D19" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D21" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D23" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D25" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D27" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D29" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D31" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D33" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D35" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -42284,28 +42314,28 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="3:7">
       <c r="C44" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="4:7">
       <c r="D45" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -42335,126 +42365,126 @@
   <sheetData>
     <row r="2" ht="30" customHeight="1" spans="2:2">
       <c r="B2" s="82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="2:4">
       <c r="B4" s="83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:4">
       <c r="B5" s="83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="3" customHeight="1" spans="2:4">
       <c r="B6" s="83"/>
       <c r="C6" s="83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="83"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="2:4">
       <c r="B8" s="83"/>
       <c r="C8" s="83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="83"/>
       <c r="C9" s="83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" ht="22" customHeight="1" spans="2:4">
       <c r="B10" s="83"/>
       <c r="C10" s="83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" s="85"/>
     </row>
     <row r="11" ht="17" customHeight="1" spans="2:4">
       <c r="B11" s="83"/>
       <c r="C11" s="83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="85"/>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="83"/>
       <c r="C12" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" s="85"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="2:4">
       <c r="B13" s="83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="83"/>
       <c r="D15" s="83"/>
     </row>
     <row r="16" ht="36" customHeight="1" spans="2:4">
       <c r="B16" s="83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="36" customHeight="1" spans="2:4">
@@ -42464,111 +42494,111 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25" s="85" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="87" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="87" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C27" s="85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="87" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C28" s="85" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" s="85" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C30" s="85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31" s="85" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -42601,852 +42631,852 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="19.8" spans="10:10">
       <c r="J4" s="78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="3:11">
       <c r="C7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="3:12">
       <c r="C21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="10:10">
       <c r="J25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="11:11">
       <c r="K26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" ht="19.8" spans="10:10">
       <c r="J29" s="78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" ht="19.8" spans="10:10">
       <c r="J31" s="78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" ht="19.8" spans="10:10">
       <c r="J32" s="78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" ht="19.8" spans="10:10">
       <c r="J33" s="78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" ht="19.8" spans="2:2">
       <c r="B67" s="78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" ht="19.8" spans="2:2">
       <c r="B69" s="78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" ht="19.8" spans="2:2">
       <c r="B70" s="78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" ht="19.8" spans="2:2">
       <c r="B71" s="78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" ht="19.8" spans="2:2">
       <c r="B88" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" ht="28.8" spans="2:2">
       <c r="B91" s="79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" ht="19.8" spans="2:2">
       <c r="B92" s="78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" ht="19.8" spans="2:2">
       <c r="B104" s="78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="4:4">
       <c r="D152" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="5:5">
       <c r="E154" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="5:5">
       <c r="E155" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="4:4">
       <c r="D158" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="4:4">
       <c r="D159" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" spans="4:4">
       <c r="D163" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164" spans="4:4">
       <c r="D164" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="5:5">
       <c r="E165" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="4:4">
       <c r="D166" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="167" spans="3:3">
       <c r="C167" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170" ht="19.8" spans="2:2">
       <c r="B170" s="78" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" ht="19.8" spans="2:2">
       <c r="B172" s="78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="178" spans="4:4">
       <c r="D178" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="180" spans="5:5">
       <c r="E180" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="6:6">
       <c r="F181" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182" spans="6:6">
       <c r="F182" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="184" spans="4:4">
       <c r="D184" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="185" spans="4:4">
       <c r="D185" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="189" ht="19.8" spans="2:2">
       <c r="B189" s="78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="194" ht="19.8" spans="2:2">
       <c r="B194" s="78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="196" ht="22.2" spans="2:2">
       <c r="B196" s="80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="198" ht="19.8" spans="2:2">
       <c r="B198" s="81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="199" ht="19.8" spans="2:2">
       <c r="B199" s="81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="200" ht="19.8" spans="2:2">
       <c r="B200" s="81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="201" ht="19.8" spans="2:2">
       <c r="B201" s="81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -43471,202 +43501,202 @@
   <sheetData>
     <row r="2" ht="15" spans="2:2">
       <c r="B2" s="69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="2:2">
       <c r="B4" s="70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:2">
       <c r="B15" s="71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:2">
       <c r="B17" s="73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="2:2">
       <c r="B19" s="74" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" ht="15" spans="2:2">
       <c r="B23" s="75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" ht="15" spans="2:2">
       <c r="B24" s="76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" ht="15" spans="2:2">
       <c r="B25" s="76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" ht="15" spans="2:2">
       <c r="B27" s="71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:2">
       <c r="B29" s="73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" ht="15" spans="2:2">
       <c r="B31" s="71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" ht="15" spans="2:2">
       <c r="B33" s="76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" ht="15" spans="2:2">
       <c r="B34" s="75" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" ht="15" spans="2:2">
       <c r="B35" s="76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" ht="15" spans="2:2">
       <c r="B36" s="75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" ht="15" spans="2:2">
       <c r="B37" s="75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" ht="15" spans="2:2">
       <c r="B38" s="77" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" ht="15" spans="2:2">
       <c r="B40" s="71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" ht="15" spans="2:2">
       <c r="B42" s="73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" ht="16.8" spans="2:2">
       <c r="B44" s="74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" ht="15" spans="2:2">
       <c r="B46" s="76" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" ht="15" spans="2:2">
       <c r="B47" s="76" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" ht="15" spans="2:2">
       <c r="B48" s="76" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" ht="16.8" spans="2:2">
       <c r="B50" s="71" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" ht="15" spans="2:2">
       <c r="B52" s="73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" ht="15" spans="2:2">
       <c r="B54" s="74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" ht="15" spans="2:2">
       <c r="B56" s="76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" ht="15" spans="2:2">
       <c r="B57" s="76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" ht="15" spans="2:2">
       <c r="B58" s="75" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" ht="15" spans="2:2">
       <c r="B59" s="76" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" ht="16.8" spans="2:2">
       <c r="B61" s="71" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -43711,104 +43741,104 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" ht="23.4" spans="2:2">
       <c r="B11" s="67" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" ht="18" spans="2:2">
       <c r="B17" s="68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" ht="14.45" customHeight="1"/>
     <row r="31" ht="13.5" customHeight="1" spans="2:2">
       <c r="B31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1"/>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -43835,32 +43865,32 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -43868,17 +43898,17 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="2:2">
@@ -43886,17 +43916,17 @@
     </row>
     <row r="58" ht="17.4" spans="3:3">
       <c r="C58" s="65" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="262" spans="3:3">
       <c r="C262" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="298" spans="3:3">
@@ -43922,536 +43952,536 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="2:36">
       <c r="B2" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="2:36">
       <c r="B4" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AJ4" s="57"/>
     </row>
     <row r="28" spans="36:36">
       <c r="AJ28" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="36:36">
       <c r="AJ30" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="37:37">
       <c r="AK31" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="38:38">
       <c r="AL32" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="3:36">
       <c r="C34" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="37:37">
       <c r="AK35" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="38:38">
       <c r="AL36" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="37:37">
       <c r="AK37" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="38:38">
       <c r="AL38" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="36:36">
       <c r="AJ40" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="37:37">
       <c r="AK41" s="28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="38:38">
       <c r="AL42" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="37:37">
       <c r="AK43" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="38:38">
       <c r="AL44" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="37:37">
       <c r="AK45" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="38:38">
       <c r="AL46" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="36:36">
       <c r="AJ48" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="37:37">
       <c r="AK51" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="38:38">
       <c r="AL53" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="37:37">
       <c r="AK55" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="38:38">
       <c r="AL56" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="39:39">
       <c r="AM57" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="39:39">
       <c r="AM58" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="39:39">
       <c r="AM63" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="38:38">
       <c r="AL64" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="37:37">
       <c r="AK66" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="2:38">
       <c r="B67" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL67" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="2:37">
       <c r="B70" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK70" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="2:38">
       <c r="B72" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL72" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="39:39">
       <c r="AM73" s="28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="2:38">
       <c r="B74" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL74" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="38:38">
       <c r="AL76" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="38:38">
       <c r="AL78" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="39:39">
       <c r="AM79" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="38:38">
       <c r="AL80" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="37:37">
       <c r="AK83" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="38:38">
       <c r="AL85" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="39:39">
       <c r="AM86" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" s="28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="39:39">
       <c r="AM88" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="38:38">
       <c r="AL89" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="37:37">
       <c r="AK95" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="3:41">
       <c r="C97" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO97" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="3:37">
       <c r="C98" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK98" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="3:38">
       <c r="C99" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL99" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="3:39">
       <c r="C100" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM100" s="42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="3:38">
       <c r="C101" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL101" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="3:37">
       <c r="C102" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK102" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="3:40">
       <c r="C105" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AJ105" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN105" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="37:37">
       <c r="AK106" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="38:38">
       <c r="AL107" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="37:37">
       <c r="AK108" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="36:40">
       <c r="AJ110" s="58" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN110" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="37:37">
       <c r="AK111" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="38:38">
       <c r="AL112" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="37:37">
       <c r="AK113" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" spans="36:45">
       <c r="AJ115" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AS115" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" spans="37:37">
       <c r="AK116" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="38:38">
       <c r="AL117" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="37:37">
       <c r="AK118" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="2:8">
       <c r="B160" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="166" spans="3:3">
       <c r="C166" s="59" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="3:22">
       <c r="C167" s="56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="V167" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="3:23">
       <c r="C168" s="56" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="W168" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="3:24">
       <c r="C169" s="31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="X169" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170" spans="3:24">
       <c r="C170" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="X170" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="X170" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="171" spans="3:23">
       <c r="C171" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="W171" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="172" spans="3:24">
       <c r="C172" s="60" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="X172" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="3:3">
       <c r="C173" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="175" spans="3:3">
       <c r="C175" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="176" spans="3:5">
       <c r="C176" s="60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E176" s="28"/>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" s="61" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="60" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="179" spans="3:3">
       <c r="C179" s="62" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180" spans="3:3">
       <c r="C180" s="60" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="181" spans="3:3">
       <c r="C181" s="60" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="182" spans="3:3">
@@ -44459,27 +44489,27 @@
     </row>
     <row r="183" spans="3:3">
       <c r="C183" s="31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="3:3">
       <c r="C184" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185" spans="3:3">
       <c r="C185" s="56" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="187" spans="3:3">
       <c r="C187" s="31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="188" spans="3:3">
@@ -44487,22 +44517,22 @@
     </row>
     <row r="189" spans="3:3">
       <c r="C189" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" s="56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="193" spans="3:3">
@@ -44510,22 +44540,22 @@
     </row>
     <row r="194" spans="3:3">
       <c r="C194" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="195" spans="3:3">
       <c r="C195" s="56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="197" spans="3:3">
       <c r="C197" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="3:3">
@@ -44533,22 +44563,22 @@
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="200" spans="3:3">
       <c r="C200" s="56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="202" spans="3:3">
       <c r="C202" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="203" spans="3:3">
@@ -44556,22 +44586,22 @@
     </row>
     <row r="204" spans="3:3">
       <c r="C204" s="31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="205" spans="3:3">
       <c r="C205" s="56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="206" spans="3:3">
       <c r="C206" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="207" spans="3:3">
       <c r="C207" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="208" spans="3:3">
@@ -44579,27 +44609,27 @@
     </row>
     <row r="209" spans="3:3">
       <c r="C209" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="210" spans="3:3">
       <c r="C210" s="56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="211" spans="3:3">
       <c r="C211" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" spans="3:3">
       <c r="C213" s="60" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="214" spans="3:3">
@@ -44607,540 +44637,540 @@
     </row>
     <row r="215" spans="3:3">
       <c r="C215" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="216" spans="3:3">
       <c r="C216" s="60" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="217" spans="3:3">
       <c r="C217" s="60" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="220" spans="2:9">
       <c r="B220" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="247" spans="3:3">
       <c r="C247" s="59" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="248" spans="3:20">
       <c r="C248" s="56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T248" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="249" spans="3:21">
       <c r="C249" s="56" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U249" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="250" spans="3:22">
       <c r="C250" s="60" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="V250" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="251" spans="3:3">
       <c r="C251" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="252" spans="3:3">
       <c r="C252" s="60" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="253" spans="3:3">
       <c r="C253" s="60" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="254" spans="3:3">
       <c r="C254" s="31" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="255" spans="3:3">
       <c r="C255" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="256" spans="3:3">
       <c r="C256" s="60" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="257" spans="3:3">
       <c r="C257" s="31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="258" spans="3:3">
       <c r="C258" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="259" spans="3:3">
       <c r="C259" s="31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="260" spans="3:3">
       <c r="C260" s="31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="261" spans="3:3">
       <c r="C261" s="31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="262" spans="3:3">
       <c r="C262" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="263" spans="3:3">
       <c r="C263" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="264" spans="3:3">
       <c r="C264" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="265" spans="3:3">
       <c r="C265" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="266" spans="3:3">
       <c r="C266" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="267" spans="3:3">
       <c r="C267" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="268" spans="3:3">
       <c r="C268" s="31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="269" spans="3:3">
       <c r="C269" s="31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="270" spans="3:3">
       <c r="C270" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="271" spans="3:3">
       <c r="C271" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" s="60" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="273" spans="3:3">
       <c r="C273" s="31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="275" spans="3:3">
       <c r="C275" s="60" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" s="60" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="278" spans="2:9">
       <c r="B278" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="305" spans="3:3">
       <c r="C305" s="59" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="306" spans="3:3">
       <c r="C306" s="56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="307" spans="3:3">
       <c r="C307" s="56" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="308" spans="3:3">
       <c r="C308" s="60" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="309" spans="3:3">
       <c r="C309" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="310" spans="3:3">
       <c r="C310" s="60" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="311" spans="3:3">
       <c r="C311" s="60" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="312" spans="3:3">
       <c r="C312" s="31" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="313" spans="3:3">
       <c r="C313" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="314" spans="3:3">
       <c r="C314" s="60" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="315" spans="3:3">
       <c r="C315" s="60" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="316" spans="3:3">
       <c r="C316" s="60" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="317" spans="3:3">
       <c r="C317" s="31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="318" spans="3:3">
       <c r="C318" s="60" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="319" spans="3:3">
       <c r="C319" s="60" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="320" spans="3:3">
       <c r="C320" s="31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="321" spans="3:3">
       <c r="C321" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="322" spans="3:3">
       <c r="C322" s="31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="323" spans="3:3">
       <c r="C323" s="31" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="324" spans="3:3">
       <c r="C324" s="31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="325" spans="3:3">
       <c r="C325" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="326" spans="3:3">
       <c r="C326" s="31" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="327" spans="3:3">
       <c r="C327" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="328" spans="3:3">
       <c r="C328" s="31" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="329" spans="3:3">
       <c r="C329" s="31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="330" spans="3:3">
       <c r="C330" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="331" spans="3:3">
       <c r="C331" s="31" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="332" spans="3:3">
       <c r="C332" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="333" spans="3:3">
       <c r="C333" s="31" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="334" spans="3:3">
       <c r="C334" s="31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="335" spans="3:3">
       <c r="C335" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="336" spans="3:3">
       <c r="C336" s="31" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="337" spans="3:3">
       <c r="C337" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="338" spans="3:3">
       <c r="C338" s="31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="339" spans="3:3">
       <c r="C339" s="31" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="340" spans="3:3">
       <c r="C340" s="31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="341" spans="3:3">
       <c r="C341" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="342" spans="3:3">
       <c r="C342" s="31" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="343" spans="3:3">
       <c r="C343" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="344" spans="3:3">
       <c r="C344" s="31" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="345" spans="3:3">
       <c r="C345" s="31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="346" spans="3:3">
       <c r="C346" s="31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="347" spans="3:3">
       <c r="C347" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="348" spans="3:3">
       <c r="C348" s="60" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="349" spans="3:3">
       <c r="C349" s="31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="350" spans="3:3">
       <c r="C350" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="351" spans="3:3">
       <c r="C351" s="60" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="352" spans="3:3">
       <c r="C352" s="60" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="354" spans="2:2">
       <c r="B354" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="360" spans="3:3">
       <c r="C360" s="59" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="361" spans="3:3">
       <c r="C361" s="56" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="362" spans="3:3">
       <c r="C362" s="60" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="363" spans="3:3">
       <c r="C363" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="364" spans="3:3">
       <c r="C364" s="60" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="365" spans="3:3">
       <c r="C365" s="60" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="366" spans="3:3">
       <c r="C366" s="31" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="367" spans="3:3">
       <c r="C367" s="31" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="368" spans="3:3">
       <c r="C368" s="31" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="369" spans="3:3">
       <c r="C369" s="31" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="370" spans="3:3">
       <c r="C370" s="31" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="371" spans="3:3">
       <c r="C371" s="60" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="372" spans="3:3">
       <c r="C372" s="60" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="374" spans="2:2">
       <c r="B374" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="376" spans="3:3">
       <c r="C376" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="476" spans="3:3">
       <c r="C476" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="477" spans="3:3">
       <c r="C477" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="478" spans="3:3">
       <c r="C478" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="479" spans="3:3">
       <c r="C479" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="480" spans="3:12">
       <c r="C480" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="481" spans="3:12">
@@ -45149,7 +45179,7 @@
     </row>
     <row r="482" spans="2:2">
       <c r="B482" s="28" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="483" spans="2:2">
@@ -45157,27 +45187,27 @@
     </row>
     <row r="484" spans="3:3">
       <c r="C484" s="60" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="485" spans="3:3">
       <c r="C485" s="61" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="486" spans="3:3">
       <c r="C486" s="61" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="487" spans="3:3">
       <c r="C487" s="56" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="488" spans="3:3">
       <c r="C488" s="56" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="489" spans="3:3">
@@ -45185,289 +45215,289 @@
     </row>
     <row r="490" spans="3:3">
       <c r="C490" s="60" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="491" spans="3:3">
       <c r="C491" s="31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="492" spans="3:3">
       <c r="C492" s="31" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="493" spans="3:3">
       <c r="C493" s="31" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="494" spans="3:3">
       <c r="C494" s="31" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="495" spans="3:3">
       <c r="C495" s="60" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="496" spans="3:3">
       <c r="C496" s="63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="497" spans="3:3">
       <c r="C497" s="31" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="498" spans="3:3">
       <c r="C498" s="31" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="499" spans="3:3">
       <c r="C499" s="31" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="500" spans="3:3">
       <c r="C500" s="31" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="501" spans="3:3">
       <c r="C501" s="31" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="502" spans="3:3">
       <c r="C502" s="60" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="503" spans="3:3">
       <c r="C503" s="31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="504" spans="3:3">
       <c r="C504" s="31" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="505" spans="3:3">
       <c r="C505" s="31" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="506" spans="3:3">
       <c r="C506" s="31" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="507" spans="3:3">
       <c r="C507" s="60" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="508" spans="3:3">
       <c r="C508" s="31" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="509" spans="3:3">
       <c r="C509" s="60" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="510" spans="3:3">
       <c r="C510" s="31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="511" spans="3:3">
       <c r="C511" s="31" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="512" spans="3:20">
       <c r="C512" s="60" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T512" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="513" spans="3:3">
       <c r="C513" s="31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="514" spans="3:3">
       <c r="C514" s="31" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="515" spans="3:3">
       <c r="C515" s="60" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="516" spans="3:3">
       <c r="C516" s="63" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="517" spans="3:3">
       <c r="C517" s="60" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="518" spans="3:3">
       <c r="C518" s="31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="519" spans="3:3">
       <c r="C519" s="31" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="520" spans="3:3">
       <c r="C520" s="31" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="521" spans="3:3">
       <c r="C521" s="31" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="522" spans="3:3">
       <c r="C522" s="60" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="523" spans="3:3">
       <c r="C523" s="63" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="524" spans="3:3">
       <c r="C524" s="60" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="525" spans="3:3">
       <c r="C525" s="31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="526" spans="3:3">
       <c r="C526" s="31" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="527" spans="3:3">
       <c r="C527" s="31" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="528" spans="3:3">
       <c r="C528" s="63" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="529" spans="3:3">
       <c r="C529" s="63" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="619" spans="3:3">
       <c r="C619" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="621" spans="2:7">
       <c r="B621" s="28" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G621" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="623" spans="3:3">
       <c r="C623" s="60" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="624" spans="3:3">
       <c r="C624" s="61" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="625" spans="3:3">
       <c r="C625" s="59" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="626" spans="3:3">
       <c r="C626" s="56" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="627" spans="3:3">
       <c r="C627" s="31" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="628" spans="3:3">
       <c r="C628" s="60" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="629" spans="3:3">
       <c r="C629" s="31" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="630" spans="3:3">
       <c r="C630" s="31" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="631" spans="3:3">
       <c r="C631" s="31" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="632" spans="3:17">
       <c r="C632" s="60" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q632" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="633" spans="3:18">
       <c r="C633" s="31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="R633" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="634" spans="3:3">
       <c r="C634" s="60" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="635" spans="3:3">
@@ -45475,17 +45505,17 @@
     </row>
     <row r="636" spans="3:3">
       <c r="C636" s="60" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="637" spans="3:3">
       <c r="C637" s="31" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="638" spans="3:3">
       <c r="C638" s="60" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="639" spans="3:3">
@@ -45493,17 +45523,17 @@
     </row>
     <row r="640" spans="3:3">
       <c r="C640" s="60" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="641" spans="3:3">
       <c r="C641" s="31" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="642" spans="3:3">
       <c r="C642" s="60" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="643" spans="3:3">
@@ -45511,17 +45541,17 @@
     </row>
     <row r="644" spans="3:3">
       <c r="C644" s="60" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="645" spans="3:3">
       <c r="C645" s="31" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="646" spans="3:3">
       <c r="C646" s="60" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="647" spans="3:3">
@@ -45529,17 +45559,17 @@
     </row>
     <row r="648" spans="3:3">
       <c r="C648" s="60" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="649" spans="3:3">
       <c r="C649" s="31" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="650" spans="3:3">
       <c r="C650" s="60" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="651" spans="3:3">
@@ -45547,122 +45577,122 @@
     </row>
     <row r="652" spans="3:3">
       <c r="C652" s="60" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="653" spans="3:3">
       <c r="C653" s="31" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="654" spans="3:3">
       <c r="C654" s="60" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="655" spans="3:3">
       <c r="C655" s="60" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="657" spans="3:3">
       <c r="C657" s="64" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="658" spans="4:4">
       <c r="D658" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="659" spans="4:4">
       <c r="D659" s="31" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="660" spans="4:4">
       <c r="D660" s="31" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="661" spans="4:4">
       <c r="D661" s="31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="662" spans="4:4">
       <c r="D662" s="31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="663" spans="4:4">
       <c r="D663" s="31" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="665" spans="4:4">
       <c r="D665" s="63" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="667" spans="4:4">
       <c r="D667" s="31" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="668" spans="4:4">
       <c r="D668" s="31" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="669" spans="4:4">
       <c r="D669" s="31" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="670" spans="4:4">
       <c r="D670" s="31" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="671" spans="4:4">
       <c r="D671" s="31" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="672" spans="4:4">
       <c r="D672" s="31" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="673" spans="4:4">
       <c r="D673" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="675" spans="4:4">
       <c r="D675" s="31" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="676" spans="4:4">
       <c r="D676" s="31" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="678" spans="4:4">
       <c r="D678" s="31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="679" spans="4:4">
       <c r="D679" s="31" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="681" spans="3:3">
       <c r="C681" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="682" spans="3:3">
@@ -45670,99 +45700,99 @@
     </row>
     <row r="683" spans="4:4">
       <c r="D683" s="31" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="684" spans="4:4">
       <c r="D684" s="59" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="685" spans="4:4">
       <c r="D685" s="59" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="686" spans="4:4">
       <c r="D686" s="56" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="687" spans="4:4">
       <c r="D687" s="31" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="688" spans="4:4">
       <c r="D688" s="60" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="689" spans="4:4">
       <c r="D689" s="60" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="690" spans="4:20">
       <c r="D690" s="31" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="T690" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="691" spans="4:20">
       <c r="D691" s="31" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T691" s="28" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="692" spans="4:20">
       <c r="D692" s="31" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T692" s="28" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="693" spans="4:4">
       <c r="D693" s="60" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="694" spans="4:4">
       <c r="D694" s="60" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="695" spans="4:4">
       <c r="D695" s="60" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="697" spans="3:3">
       <c r="C697" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="730" spans="3:3">
       <c r="C730" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="732" spans="4:4">
       <c r="D732" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="733" spans="4:21">
       <c r="D733" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="U733" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
